--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1661"/>
+  <dimension ref="A1:H1662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54917,6 +54917,40 @@
         </is>
       </c>
     </row>
+    <row r="1662">
+      <c r="A1662" t="inlineStr">
+        <is>
+          <t>08:00 AM</t>
+        </is>
+      </c>
+      <c r="B1662" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C1662" t="inlineStr">
+        <is>
+          <t>Unemployment Rate PrelQ4</t>
+        </is>
+      </c>
+      <c r="D1662" t="inlineStr"/>
+      <c r="E1662" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="F1662" t="inlineStr"/>
+      <c r="G1662" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
+      <c r="H1662" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1662"/>
+  <dimension ref="A1:H1666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54951,6 +54951,138 @@
         </is>
       </c>
     </row>
+    <row r="1663">
+      <c r="A1663" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1663" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C1663" t="inlineStr">
+        <is>
+          <t>6-Month T-Bill Auction</t>
+        </is>
+      </c>
+      <c r="D1663" t="inlineStr"/>
+      <c r="E1663" t="inlineStr">
+        <is>
+          <t>2.99%</t>
+        </is>
+      </c>
+      <c r="F1663" t="inlineStr"/>
+      <c r="G1663" t="inlineStr"/>
+      <c r="H1663" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1664" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C1664" t="inlineStr">
+        <is>
+          <t>Export Prices YoYDEC</t>
+        </is>
+      </c>
+      <c r="D1664" t="inlineStr"/>
+      <c r="E1664" t="inlineStr">
+        <is>
+          <t>-5.0%</t>
+        </is>
+      </c>
+      <c r="F1664" t="inlineStr"/>
+      <c r="G1664" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="H1664" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1665" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C1665" t="inlineStr">
+        <is>
+          <t>Import Prices YoYDEC</t>
+        </is>
+      </c>
+      <c r="D1665" t="inlineStr"/>
+      <c r="E1665" t="inlineStr">
+        <is>
+          <t>-5.1%</t>
+        </is>
+      </c>
+      <c r="F1665" t="inlineStr"/>
+      <c r="G1665" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="H1665" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1666" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C1666" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="D1666" t="inlineStr"/>
+      <c r="E1666" t="inlineStr">
+        <is>
+          <t>-3%</t>
+        </is>
+      </c>
+      <c r="F1666" t="inlineStr"/>
+      <c r="G1666" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="H1666" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1666"/>
+  <dimension ref="A1:H1667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55083,6 +55083,40 @@
         </is>
       </c>
     </row>
+    <row r="1667">
+      <c r="A1667" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B1667" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C1667" t="inlineStr">
+        <is>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
+        </is>
+      </c>
+      <c r="D1667" t="inlineStr"/>
+      <c r="E1667" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="F1667" t="inlineStr"/>
+      <c r="G1667" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="H1667" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1667"/>
+  <dimension ref="A1:H1647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44705,10 +44705,8 @@
       </c>
       <c r="F1352" t="inlineStr"/>
       <c r="G1352" t="inlineStr"/>
-      <c r="H1352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1353">
@@ -44739,10 +44737,8 @@
       </c>
       <c r="F1353" t="inlineStr"/>
       <c r="G1353" t="inlineStr"/>
-      <c r="H1353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1353" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1354">
@@ -44773,10 +44769,8 @@
       </c>
       <c r="F1354" t="inlineStr"/>
       <c r="G1354" t="inlineStr"/>
-      <c r="H1354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1354" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1355">
@@ -44811,10 +44805,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1356">
@@ -44853,10 +44845,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H1356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1357">
@@ -44891,10 +44881,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H1357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1358">
@@ -44929,10 +44917,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H1358" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1358" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1359">
@@ -44971,10 +44957,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1359" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1359" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1360">
@@ -45013,10 +44997,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1360" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1360" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1361">
@@ -45055,10 +45037,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1361" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1361" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1362">
@@ -45097,10 +45077,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1362" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1362" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1363">
@@ -45139,10 +45117,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1363" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1363" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1364">
@@ -45177,10 +45153,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H1364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1364" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1365">
@@ -45219,10 +45193,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H1365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1365" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1366">
@@ -45253,10 +45225,8 @@
       </c>
       <c r="F1366" t="inlineStr"/>
       <c r="G1366" t="inlineStr"/>
-      <c r="H1366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1367">
@@ -45287,10 +45257,8 @@
       </c>
       <c r="F1367" t="inlineStr"/>
       <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1368">
@@ -45329,10 +45297,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1368" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1368" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1369">
@@ -45371,10 +45337,8 @@
           <t>4.1%</t>
         </is>
       </c>
-      <c r="H1369" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1369" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1370">
@@ -45413,10 +45377,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -45455,10 +45417,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -45493,10 +45453,8 @@
           <t>€33.0B</t>
         </is>
       </c>
-      <c r="H1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -45531,10 +45489,8 @@
         </is>
       </c>
       <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1374">
@@ -45569,10 +45525,8 @@
           <t>-27.2%</t>
         </is>
       </c>
-      <c r="H1374" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1374" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1375">
@@ -45611,10 +45565,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1375" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1375" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1376">
@@ -45653,10 +45605,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1377">
@@ -45695,10 +45645,8 @@
           <t>127.08</t>
         </is>
       </c>
-      <c r="H1377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1378">
@@ -45737,10 +45685,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1379">
@@ -45763,10 +45709,8 @@
       <c r="E1379" t="inlineStr"/>
       <c r="F1379" t="inlineStr"/>
       <c r="G1379" t="inlineStr"/>
-      <c r="H1379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1380">
@@ -45801,10 +45745,8 @@
           <t>€2900.0M</t>
         </is>
       </c>
-      <c r="H1380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1380" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1381">
@@ -45827,10 +45769,8 @@
       <c r="E1381" t="inlineStr"/>
       <c r="F1381" t="inlineStr"/>
       <c r="G1381" t="inlineStr"/>
-      <c r="H1381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1382">
@@ -45861,10 +45801,8 @@
       </c>
       <c r="F1382" t="inlineStr"/>
       <c r="G1382" t="inlineStr"/>
-      <c r="H1382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -45895,10 +45833,8 @@
       </c>
       <c r="F1383" t="inlineStr"/>
       <c r="G1383" t="inlineStr"/>
-      <c r="H1383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1384">
@@ -45929,10 +45865,8 @@
       </c>
       <c r="F1384" t="inlineStr"/>
       <c r="G1384" t="inlineStr"/>
-      <c r="H1384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1385">
@@ -45967,10 +45901,8 @@
         </is>
       </c>
       <c r="G1385" t="inlineStr"/>
-      <c r="H1385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1386">
@@ -46001,10 +45933,8 @@
       </c>
       <c r="F1386" t="inlineStr"/>
       <c r="G1386" t="inlineStr"/>
-      <c r="H1386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1387">
@@ -46043,10 +45973,8 @@
           <t>1.48M</t>
         </is>
       </c>
-      <c r="H1387" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1387" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1388">
@@ -46085,10 +46013,8 @@
           <t>1.32M</t>
         </is>
       </c>
-      <c r="H1388" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1388" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1389">
@@ -46123,10 +46049,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H1389" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1389" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1390">
@@ -46161,10 +46085,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1390" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1390" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1391">
@@ -46187,10 +46109,8 @@
       <c r="E1391" t="inlineStr"/>
       <c r="F1391" t="inlineStr"/>
       <c r="G1391" t="inlineStr"/>
-      <c r="H1391" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1391" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1392">
@@ -46229,10 +46149,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1392" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1392" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1393">
@@ -46271,10 +46189,8 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H1393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1393" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1394">
@@ -46309,10 +46225,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1394" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1395">
@@ -46351,10 +46265,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1396">
@@ -46389,10 +46301,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1396" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1397">
@@ -46423,10 +46333,8 @@
       </c>
       <c r="F1397" t="inlineStr"/>
       <c r="G1397" t="inlineStr"/>
-      <c r="H1397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1397" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1398">
@@ -46457,10 +46365,8 @@
       </c>
       <c r="F1398" t="inlineStr"/>
       <c r="G1398" t="inlineStr"/>
-      <c r="H1398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1399">
@@ -46509,10 +46415,8 @@
         </is>
       </c>
       <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1400" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1401">
@@ -46543,10 +46447,8 @@
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -46577,10 +46479,8 @@
       </c>
       <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -46669,10 +46569,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1407">
@@ -46707,10 +46605,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1408">
@@ -46745,10 +46641,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1409">
@@ -46783,10 +46677,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1410">
@@ -46817,10 +46709,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -46855,10 +46745,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -46889,10 +46777,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1413">
@@ -46927,10 +46813,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1414">
@@ -46961,10 +46845,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1415">
@@ -46999,10 +46881,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1416">
@@ -47033,10 +46913,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1417">
@@ -47067,10 +46945,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1418">
@@ -47097,10 +46973,8 @@
       </c>
       <c r="F1418" t="inlineStr"/>
       <c r="G1418" t="inlineStr"/>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -47127,10 +47001,8 @@
       </c>
       <c r="F1419" t="inlineStr"/>
       <c r="G1419" t="inlineStr"/>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1420">
@@ -47161,10 +47033,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1421">
@@ -47195,10 +47065,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1422">
@@ -47225,10 +47093,8 @@
       </c>
       <c r="F1422" t="inlineStr"/>
       <c r="G1422" t="inlineStr"/>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -47255,10 +47121,8 @@
       </c>
       <c r="F1423" t="inlineStr"/>
       <c r="G1423" t="inlineStr"/>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1424">
@@ -47285,10 +47149,8 @@
       </c>
       <c r="F1424" t="inlineStr"/>
       <c r="G1424" t="inlineStr"/>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1425">
@@ -47311,10 +47173,8 @@
       <c r="E1425" t="inlineStr"/>
       <c r="F1425" t="inlineStr"/>
       <c r="G1425" t="inlineStr"/>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1426">
@@ -47345,10 +47205,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -47379,10 +47237,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -47401,10 +47257,8 @@
       <c r="E1428" t="inlineStr"/>
       <c r="F1428" t="inlineStr"/>
       <c r="G1428" t="inlineStr"/>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1429">
@@ -47427,10 +47281,8 @@
       </c>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1430">
@@ -47457,10 +47309,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -47479,10 +47329,8 @@
       <c r="E1431" t="inlineStr"/>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr"/>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -47509,10 +47357,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -47539,10 +47385,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1434">
@@ -47561,10 +47405,8 @@
       <c r="E1434" t="inlineStr"/>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr"/>
-      <c r="H1434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1435">
@@ -47613,10 +47455,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1437">
@@ -47647,10 +47487,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1438">
@@ -47681,10 +47519,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1439">
@@ -47711,10 +47547,8 @@
       </c>
       <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="inlineStr"/>
-      <c r="H1439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1440">
@@ -47741,10 +47575,8 @@
       </c>
       <c r="F1440" t="inlineStr"/>
       <c r="G1440" t="inlineStr"/>
-      <c r="H1440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1441">
@@ -47771,10 +47603,8 @@
       </c>
       <c r="F1441" t="inlineStr"/>
       <c r="G1441" t="inlineStr"/>
-      <c r="H1441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1442">
@@ -47805,10 +47635,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1442" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1442" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1443">
@@ -47843,10 +47671,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1443" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1443" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1444">
@@ -47881,10 +47707,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1444" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1444" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1445">
@@ -47915,10 +47739,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1445" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1445" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1446">
@@ -47953,10 +47775,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1447">
@@ -47991,10 +47811,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1448">
@@ -48025,10 +47843,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1449">
@@ -48059,10 +47875,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1450">
@@ -48093,10 +47907,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1451">
@@ -48127,10 +47939,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1452">
@@ -48165,10 +47975,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1452" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1452" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1453">
@@ -48203,10 +48011,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1453" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1453" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1454">
@@ -48241,10 +48047,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1455">
@@ -48271,10 +48075,8 @@
       </c>
       <c r="F1455" t="inlineStr"/>
       <c r="G1455" t="inlineStr"/>
-      <c r="H1455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1456">
@@ -48301,10 +48103,8 @@
       </c>
       <c r="F1456" t="inlineStr"/>
       <c r="G1456" t="inlineStr"/>
-      <c r="H1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1457">
@@ -48335,10 +48135,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1457" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1458">
@@ -48369,10 +48167,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1459">
@@ -48407,10 +48203,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1459" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1459" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1460">
@@ -48441,10 +48235,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1460" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1460" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1461">
@@ -48479,10 +48271,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1461" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1461" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1462">
@@ -48513,10 +48303,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1463">
@@ -48551,10 +48339,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1464">
@@ -48589,10 +48375,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1465">
@@ -48619,10 +48403,8 @@
       </c>
       <c r="F1465" t="inlineStr"/>
       <c r="G1465" t="inlineStr"/>
-      <c r="H1465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1466">
@@ -48649,10 +48431,8 @@
       </c>
       <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr"/>
-      <c r="H1466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1466" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1467">
@@ -48679,10 +48459,8 @@
       </c>
       <c r="F1467" t="inlineStr"/>
       <c r="G1467" t="inlineStr"/>
-      <c r="H1467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1468">
@@ -48709,10 +48487,8 @@
       </c>
       <c r="F1468" t="inlineStr"/>
       <c r="G1468" t="inlineStr"/>
-      <c r="H1468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1469">
@@ -48731,10 +48507,8 @@
       <c r="E1469" t="inlineStr"/>
       <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr"/>
-      <c r="H1469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1469" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1470">
@@ -48779,10 +48553,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1471" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1471" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1472">
@@ -48813,10 +48585,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1472" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1473">
@@ -48851,10 +48621,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1473" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1474">
@@ -48885,10 +48653,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1474" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1474" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1475">
@@ -48919,10 +48685,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1475" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1475" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1476">
@@ -48953,10 +48717,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1477">
@@ -48987,10 +48749,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1478">
@@ -49017,10 +48777,8 @@
       </c>
       <c r="F1478" t="inlineStr"/>
       <c r="G1478" t="inlineStr"/>
-      <c r="H1478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1479">
@@ -49051,10 +48809,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1480">
@@ -49085,10 +48841,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1481">
@@ -49115,10 +48869,8 @@
       </c>
       <c r="F1481" t="inlineStr"/>
       <c r="G1481" t="inlineStr"/>
-      <c r="H1481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1482">
@@ -49145,10 +48897,8 @@
       </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
-      <c r="H1482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1482" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1483">
@@ -49175,10 +48925,8 @@
       </c>
       <c r="F1483" t="inlineStr"/>
       <c r="G1483" t="inlineStr"/>
-      <c r="H1483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1484">
@@ -49205,10 +48953,8 @@
       </c>
       <c r="F1484" t="inlineStr"/>
       <c r="G1484" t="inlineStr"/>
-      <c r="H1484" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1484" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1485">
@@ -49235,10 +48981,8 @@
       </c>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr"/>
-      <c r="H1485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1486">
@@ -49265,10 +49009,8 @@
       </c>
       <c r="F1486" t="inlineStr"/>
       <c r="G1486" t="inlineStr"/>
-      <c r="H1486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1487">
@@ -49295,10 +49037,8 @@
       </c>
       <c r="F1487" t="inlineStr"/>
       <c r="G1487" t="inlineStr"/>
-      <c r="H1487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1488">
@@ -49325,10 +49065,8 @@
       </c>
       <c r="F1488" t="inlineStr"/>
       <c r="G1488" t="inlineStr"/>
-      <c r="H1488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1489">
@@ -49359,10 +49097,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1490">
@@ -49393,10 +49129,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1491">
@@ -49427,10 +49161,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1492">
@@ -49461,10 +49193,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1493">
@@ -49491,10 +49221,8 @@
       </c>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr"/>
-      <c r="H1493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1493" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1494">
@@ -49529,10 +49257,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1495">
@@ -49555,10 +49281,8 @@
       <c r="E1495" t="inlineStr"/>
       <c r="F1495" t="inlineStr"/>
       <c r="G1495" t="inlineStr"/>
-      <c r="H1495" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1495" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1496">
@@ -49585,10 +49309,8 @@
       </c>
       <c r="F1496" t="inlineStr"/>
       <c r="G1496" t="inlineStr"/>
-      <c r="H1496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1497">
@@ -49615,10 +49337,8 @@
       </c>
       <c r="F1497" t="inlineStr"/>
       <c r="G1497" t="inlineStr"/>
-      <c r="H1497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1498">
@@ -49663,10 +49383,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1500">
@@ -49697,10 +49415,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1500" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1500" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1501">
@@ -49727,10 +49443,8 @@
       </c>
       <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr"/>
-      <c r="H1501" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1501" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1502">
@@ -49765,10 +49479,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1502" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1502" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1503">
@@ -49803,10 +49515,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1503" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1504">
@@ -49841,10 +49551,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1504" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1504" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1505">
@@ -49879,10 +49587,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1505" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1506">
@@ -49909,10 +49615,8 @@
       </c>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr"/>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1507">
@@ -49947,10 +49651,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1508">
@@ -49977,10 +49679,8 @@
       </c>
       <c r="F1508" t="inlineStr"/>
       <c r="G1508" t="inlineStr"/>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1509">
@@ -50007,10 +49707,8 @@
       </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr"/>
-      <c r="H1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1510">
@@ -50037,10 +49735,8 @@
       </c>
       <c r="F1510" t="inlineStr"/>
       <c r="G1510" t="inlineStr"/>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1511">
@@ -50067,10 +49763,8 @@
       </c>
       <c r="F1511" t="inlineStr"/>
       <c r="G1511" t="inlineStr"/>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1512">
@@ -50101,10 +49795,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1513">
@@ -50135,10 +49827,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1514">
@@ -50169,10 +49859,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1515">
@@ -50203,10 +49891,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1516">
@@ -50233,10 +49919,8 @@
       </c>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr"/>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1517">
@@ -50263,10 +49947,8 @@
       </c>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="inlineStr"/>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1518">
@@ -50297,10 +49979,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1518" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1518" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1519">
@@ -50335,10 +50015,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1519" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1519" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1520">
@@ -50369,10 +50047,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1521">
@@ -50399,10 +50075,8 @@
       </c>
       <c r="F1521" t="inlineStr"/>
       <c r="G1521" t="inlineStr"/>
-      <c r="H1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1522">
@@ -50429,10 +50103,8 @@
       </c>
       <c r="F1522" t="inlineStr"/>
       <c r="G1522" t="inlineStr"/>
-      <c r="H1522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1523">
@@ -50459,10 +50131,8 @@
       </c>
       <c r="F1523" t="inlineStr"/>
       <c r="G1523" t="inlineStr"/>
-      <c r="H1523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1524">
@@ -50489,10 +50159,8 @@
       </c>
       <c r="F1524" t="inlineStr"/>
       <c r="G1524" t="inlineStr"/>
-      <c r="H1524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1525">
@@ -50519,10 +50187,8 @@
       </c>
       <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="inlineStr"/>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1526">
@@ -50549,10 +50215,8 @@
       </c>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1527">
@@ -50579,10 +50243,8 @@
       </c>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr"/>
-      <c r="H1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1528">
@@ -50609,10 +50271,8 @@
       </c>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr"/>
-      <c r="H1528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1528" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1529">
@@ -50643,10 +50303,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1529" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1530">
@@ -50677,10 +50335,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1530" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1531">
@@ -50715,10 +50371,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1531" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1531" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1532">
@@ -50749,10 +50403,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1532" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1533">
@@ -50783,10 +50435,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1533" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1534">
@@ -50821,10 +50471,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1534" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1534" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1535">
@@ -50851,10 +50499,8 @@
       </c>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr"/>
-      <c r="H1535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1536">
@@ -50885,10 +50531,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1537">
@@ -50919,10 +50563,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1538">
@@ -50953,10 +50595,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1539">
@@ -50987,10 +50627,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1540">
@@ -51025,10 +50663,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1540" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1540" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1541">
@@ -51063,10 +50699,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1541" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1541" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1542">
@@ -51089,10 +50723,8 @@
       <c r="E1542" t="inlineStr"/>
       <c r="F1542" t="inlineStr"/>
       <c r="G1542" t="inlineStr"/>
-      <c r="H1542" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1542" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1543">
@@ -51123,10 +50755,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1544">
@@ -51161,10 +50791,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1544" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1544" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1545">
@@ -51195,10 +50823,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1546">
@@ -51229,10 +50855,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1547">
@@ -51267,10 +50891,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1547" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1547" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1548">
@@ -51297,10 +50919,8 @@
       </c>
       <c r="F1548" t="inlineStr"/>
       <c r="G1548" t="inlineStr"/>
-      <c r="H1548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1549">
@@ -51327,10 +50947,8 @@
       </c>
       <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr"/>
-      <c r="H1549" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1549" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1550">
@@ -51357,10 +50975,8 @@
       </c>
       <c r="F1550" t="inlineStr"/>
       <c r="G1550" t="inlineStr"/>
-      <c r="H1550" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1550" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1551">
@@ -51387,10 +51003,8 @@
       </c>
       <c r="F1551" t="inlineStr"/>
       <c r="G1551" t="inlineStr"/>
-      <c r="H1551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1552">
@@ -51417,10 +51031,8 @@
       </c>
       <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr"/>
-      <c r="H1552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1553">
@@ -51447,10 +51059,8 @@
       </c>
       <c r="F1553" t="inlineStr"/>
       <c r="G1553" t="inlineStr"/>
-      <c r="H1553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1554">
@@ -51477,10 +51087,8 @@
       </c>
       <c r="F1554" t="inlineStr"/>
       <c r="G1554" t="inlineStr"/>
-      <c r="H1554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1554" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1555">
@@ -51507,10 +51115,8 @@
       </c>
       <c r="F1555" t="inlineStr"/>
       <c r="G1555" t="inlineStr"/>
-      <c r="H1555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1555" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1556">
@@ -51537,10 +51143,8 @@
       </c>
       <c r="F1556" t="inlineStr"/>
       <c r="G1556" t="inlineStr"/>
-      <c r="H1556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1556" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1557">
@@ -51567,10 +51171,8 @@
       </c>
       <c r="F1557" t="inlineStr"/>
       <c r="G1557" t="inlineStr"/>
-      <c r="H1557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1557" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1558">
@@ -51597,10 +51199,8 @@
       </c>
       <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr"/>
-      <c r="H1558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1559">
@@ -51627,10 +51227,8 @@
       </c>
       <c r="F1559" t="inlineStr"/>
       <c r="G1559" t="inlineStr"/>
-      <c r="H1559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1560">
@@ -51657,10 +51255,8 @@
       </c>
       <c r="F1560" t="inlineStr"/>
       <c r="G1560" t="inlineStr"/>
-      <c r="H1560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1561">
@@ -51687,10 +51283,8 @@
       </c>
       <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr"/>
-      <c r="H1561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1562">
@@ -51717,10 +51311,8 @@
       </c>
       <c r="F1562" t="inlineStr"/>
       <c r="G1562" t="inlineStr"/>
-      <c r="H1562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1563">
@@ -51747,10 +51339,8 @@
       </c>
       <c r="F1563" t="inlineStr"/>
       <c r="G1563" t="inlineStr"/>
-      <c r="H1563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1564">
@@ -51773,10 +51363,8 @@
       </c>
       <c r="F1564" t="inlineStr"/>
       <c r="G1564" t="inlineStr"/>
-      <c r="H1564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1565">
@@ -51803,256 +51391,290 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1566" t="inlineStr"/>
-      <c r="C1566" t="inlineStr"/>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C1566" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D1566" t="inlineStr"/>
-      <c r="E1566" t="inlineStr"/>
+      <c r="E1566" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr"/>
-      <c r="H1566" t="inlineStr"/>
+      <c r="G1566" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H1566" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F1567" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F1567" t="inlineStr">
+        <is>
+          <t>42.1</t>
+        </is>
+      </c>
       <c r="G1567" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="H1567" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>$6.83T</t>
-        </is>
-      </c>
-      <c r="F1568" t="inlineStr"/>
-      <c r="G1568" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F1568" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="G1568" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="H1568" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F1569" t="inlineStr"/>
       <c r="G1569" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1570" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F1570" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="G1570" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="H1570" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F1571" t="inlineStr"/>
       <c r="G1571" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="H1571" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F1572" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F1572" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1573" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F1573" t="inlineStr"/>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="H1573" t="inlineStr">
@@ -52064,75 +51686,83 @@
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1574" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F1574" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G1574" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1575" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F1575" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="G1575" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
@@ -52142,23 +51772,23 @@
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1576" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="G1576" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="H1576" t="inlineStr">
@@ -52170,135 +51800,127 @@
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1577" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="G1577" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1578" t="inlineStr"/>
       <c r="G1578" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="H1578" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>ECB President Lagarde Speech</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
-      <c r="E1579" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+      <c r="E1579" t="inlineStr"/>
       <c r="F1579" t="inlineStr"/>
-      <c r="G1579" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G1579" t="inlineStr"/>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
       <c r="E1580" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1580" t="inlineStr"/>
       <c r="G1580" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>91.4</t>
         </is>
       </c>
       <c r="H1580" t="inlineStr">
@@ -52310,61 +51932,61 @@
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
-      <c r="E1581" t="inlineStr">
-        <is>
-          <t>0.25%</t>
-        </is>
-      </c>
-      <c r="F1581" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1581" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1581" t="inlineStr"/>
+      <c r="F1581" t="inlineStr"/>
+      <c r="G1581" t="inlineStr"/>
       <c r="H1581" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
-      <c r="E1582" t="inlineStr"/>
-      <c r="F1582" t="inlineStr"/>
-      <c r="G1582" t="inlineStr"/>
+      <c r="E1582" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="F1582" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="G1582" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
       <c r="H1582" t="inlineStr">
         <is>
           <t>2</t>
@@ -52374,23 +51996,23 @@
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>$625.87B</t>
         </is>
       </c>
       <c r="F1583" t="inlineStr"/>
@@ -52404,199 +52026,203 @@
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1584" t="inlineStr"/>
       <c r="G1584" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1584" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1585" t="inlineStr"/>
       <c r="G1585" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1585" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1586" t="inlineStr"/>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1586" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1587" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1587" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1587" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1587" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1588" t="inlineStr"/>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1588" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1589" t="inlineStr"/>
       <c r="G1589" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1589" t="inlineStr">
@@ -52608,33 +52234,29 @@
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1590" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1590" t="inlineStr"/>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1590" t="inlineStr">
@@ -52646,33 +52268,29 @@
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1591" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1591" t="inlineStr"/>
       <c r="G1591" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1591" t="inlineStr">
@@ -52684,67 +52302,67 @@
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1592" t="inlineStr"/>
       <c r="G1592" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1592" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1593" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1593" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1593" t="inlineStr">
@@ -52756,29 +52374,29 @@
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1594" t="inlineStr"/>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr">
@@ -52790,33 +52408,33 @@
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1595" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1595" t="inlineStr">
@@ -52828,215 +52446,215 @@
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1596" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1596" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1596" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1596" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1597" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1597" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1597" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1598" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1598" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1599" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1599" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1599" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1600" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1600" t="inlineStr"/>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr"/>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1601" t="inlineStr">
@@ -53048,57 +52666,57 @@
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1602" t="inlineStr"/>
-      <c r="E1602" t="inlineStr"/>
+      <c r="E1602" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr"/>
       <c r="H1602" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr"/>
-      <c r="G1603" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1603" t="inlineStr"/>
       <c r="H1603" t="inlineStr">
         <is>
           <t>3</t>
@@ -53108,65 +52726,45 @@
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1604" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1604" t="inlineStr">
-        <is>
-          <t>CBI Distributive TradesJAN</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1604" t="inlineStr"/>
+      <c r="C1604" t="inlineStr"/>
       <c r="D1604" t="inlineStr"/>
-      <c r="E1604" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1604" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="G1604" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="H1604" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E1604" t="inlineStr"/>
+      <c r="F1604" t="inlineStr"/>
+      <c r="G1604" t="inlineStr"/>
+      <c r="H1604" t="inlineStr"/>
     </row>
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>$625.87B</t>
+          <t>-4.7%</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr"/>
-      <c r="G1605" t="inlineStr"/>
+      <c r="G1605" t="inlineStr">
+        <is>
+          <t>-5.0%</t>
+        </is>
+      </c>
       <c r="H1605" t="inlineStr">
         <is>
           <t>3</t>
@@ -53176,31 +52774,27 @@
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr"/>
-      <c r="G1606" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1606" t="inlineStr"/>
       <c r="H1606" t="inlineStr">
         <is>
           <t>3</t>
@@ -53210,31 +52804,27 @@
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr"/>
-      <c r="G1607" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1607" t="inlineStr"/>
       <c r="H1607" t="inlineStr">
         <is>
           <t>3</t>
@@ -53244,31 +52834,27 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr"/>
-      <c r="G1608" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1608" t="inlineStr"/>
       <c r="H1608" t="inlineStr">
         <is>
           <t>3</t>
@@ -53278,313 +52864,257 @@
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
-      <c r="E1609" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1609" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1609" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1609" t="inlineStr"/>
+      <c r="F1609" t="inlineStr"/>
+      <c r="G1609" t="inlineStr"/>
       <c r="H1609" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
-      <c r="E1610" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1610" t="inlineStr"/>
       <c r="F1610" t="inlineStr"/>
-      <c r="G1610" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1610" t="inlineStr"/>
       <c r="H1610" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr"/>
-      <c r="G1611" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1611" t="inlineStr"/>
       <c r="H1611" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr"/>
-      <c r="G1612" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1612" t="inlineStr"/>
       <c r="H1612" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr"/>
-      <c r="G1613" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1613" t="inlineStr"/>
       <c r="H1613" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr"/>
-      <c r="G1614" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1614" t="inlineStr"/>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1615" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1615" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+          <t>84.4</t>
+        </is>
+      </c>
+      <c r="F1615" t="inlineStr"/>
+      <c r="G1615" t="inlineStr"/>
       <c r="H1615" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:15 PM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
-      <c r="E1616" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="E1616" t="inlineStr"/>
       <c r="F1616" t="inlineStr"/>
-      <c r="G1616" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1616" t="inlineStr"/>
       <c r="H1616" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1617" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>43.5K</t>
+        </is>
+      </c>
+      <c r="F1617" t="inlineStr"/>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
@@ -53596,33 +53126,29 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1618" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1618" t="inlineStr"/>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1618" t="inlineStr">
@@ -53634,33 +53160,29 @@
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1619" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1619" t="inlineStr"/>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1619" t="inlineStr">
@@ -53672,35 +53194,27 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1620" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1620" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1620" t="inlineStr"/>
+      <c r="G1620" t="inlineStr"/>
       <c r="H1620" t="inlineStr">
         <is>
           <t>3</t>
@@ -53710,35 +53224,27 @@
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1621" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1621" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1621" t="inlineStr"/>
+      <c r="G1621" t="inlineStr"/>
       <c r="H1621" t="inlineStr">
         <is>
           <t>3</t>
@@ -53748,63 +53254,63 @@
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>$-0.133B</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr"/>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1623" t="inlineStr">
@@ -53816,7 +53322,7 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
@@ -53826,47 +53332,55 @@
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1624" t="inlineStr"/>
-      <c r="G1624" t="inlineStr"/>
+      <c r="G1624" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
       <c r="H1624" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
       <c r="E1625" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1625" t="inlineStr"/>
-      <c r="G1625" t="inlineStr"/>
+      <c r="G1625" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1625" t="inlineStr">
         <is>
           <t>3</t>
@@ -53876,45 +53390,49 @@
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1626" t="inlineStr"/>
-      <c r="C1626" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1626" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1626" t="inlineStr">
+        <is>
+          <t>12-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1626" t="inlineStr"/>
       <c r="E1626" t="inlineStr"/>
       <c r="F1626" t="inlineStr"/>
       <c r="G1626" t="inlineStr"/>
-      <c r="H1626" t="inlineStr"/>
+      <c r="H1626" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
-      <c r="E1627" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1627" t="inlineStr"/>
       <c r="F1627" t="inlineStr"/>
-      <c r="G1627" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1627" t="inlineStr"/>
       <c r="H1627" t="inlineStr">
         <is>
           <t>3</t>
@@ -53924,25 +53442,21 @@
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1628" t="inlineStr"/>
       <c r="F1628" t="inlineStr"/>
       <c r="G1628" t="inlineStr"/>
       <c r="H1628" t="inlineStr">
@@ -53954,103 +53468,103 @@
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
-      <c r="E1629" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1629" t="inlineStr"/>
       <c r="F1629" t="inlineStr"/>
       <c r="G1629" t="inlineStr"/>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
-      <c r="E1630" t="inlineStr">
-        <is>
-          <t>3.46%</t>
-        </is>
-      </c>
+      <c r="E1630" t="inlineStr"/>
       <c r="F1630" t="inlineStr"/>
-      <c r="G1630" t="inlineStr"/>
+      <c r="G1630" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1630" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
-      <c r="E1631" t="inlineStr"/>
+      <c r="E1631" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
       <c r="F1631" t="inlineStr"/>
       <c r="G1631" t="inlineStr"/>
       <c r="H1631" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
@@ -54066,55 +53580,47 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
-      <c r="E1633" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1633" t="inlineStr"/>
       <c r="F1633" t="inlineStr"/>
       <c r="G1633" t="inlineStr"/>
       <c r="H1633" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
-      <c r="E1634" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1634" t="inlineStr"/>
       <c r="F1634" t="inlineStr"/>
       <c r="G1634" t="inlineStr"/>
       <c r="H1634" t="inlineStr">
@@ -54126,57 +53632,53 @@
     <row r="1635">
       <c r="A1635" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
-      <c r="E1635" t="inlineStr">
-        <is>
-          <t>84.7</t>
-        </is>
-      </c>
+      <c r="E1635" t="inlineStr"/>
       <c r="F1635" t="inlineStr"/>
       <c r="G1635" t="inlineStr"/>
       <c r="H1635" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1636">
-      <c r="A1636" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1636" t="inlineStr"/>
       <c r="B1636" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1636" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1636" t="inlineStr"/>
       <c r="E1636" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1636" t="inlineStr"/>
-      <c r="G1636" t="inlineStr"/>
+      <c r="G1636" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1636" t="inlineStr">
         <is>
           <t>3</t>
@@ -54184,29 +53686,33 @@
       </c>
     </row>
     <row r="1637">
-      <c r="A1637" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1637" t="inlineStr"/>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>84.4</t>
-        </is>
-      </c>
-      <c r="F1637" t="inlineStr"/>
-      <c r="G1637" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1637" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1637" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1637" t="inlineStr">
         <is>
           <t>3</t>
@@ -54216,89 +53722,77 @@
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
-        </is>
-      </c>
-      <c r="B1638" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C1638" t="inlineStr">
-        <is>
-          <t>EU Bond Auction</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1638" t="inlineStr"/>
+      <c r="C1638" t="inlineStr"/>
       <c r="D1638" t="inlineStr"/>
       <c r="E1638" t="inlineStr"/>
       <c r="F1638" t="inlineStr"/>
       <c r="G1638" t="inlineStr"/>
-      <c r="H1638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1638" t="inlineStr"/>
     </row>
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr"/>
       <c r="E1639" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1639" t="inlineStr"/>
       <c r="G1639" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H1639" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1640" t="inlineStr"/>
       <c r="G1640" t="inlineStr">
         <is>
-          <t>2875K</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1640" t="inlineStr">
@@ -54310,31 +53804,27 @@
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1641" t="inlineStr"/>
-      <c r="G1641" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="G1641" t="inlineStr"/>
       <c r="H1641" t="inlineStr">
         <is>
           <t>3</t>
@@ -54344,27 +53834,31 @@
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1642" t="inlineStr"/>
-      <c r="G1642" t="inlineStr"/>
+      <c r="G1642" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="H1642" t="inlineStr">
         <is>
           <t>3</t>
@@ -54374,27 +53868,31 @@
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1643" t="inlineStr"/>
-      <c r="G1643" t="inlineStr"/>
+      <c r="G1643" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1643" t="inlineStr">
         <is>
           <t>3</t>
@@ -54404,63 +53902,63 @@
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1644" t="inlineStr"/>
       <c r="G1644" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H1644" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1645" t="inlineStr"/>
       <c r="G1645" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1645" t="inlineStr">
@@ -54472,31 +53970,27 @@
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr"/>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1646" t="inlineStr"/>
-      <c r="G1646" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
+      <c r="G1646" t="inlineStr"/>
       <c r="H1646" t="inlineStr">
         <is>
           <t>2</t>
@@ -54506,614 +54000,34 @@
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1647" t="inlineStr"/>
       <c r="E1647" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1647" t="inlineStr"/>
       <c r="G1647" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1647" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1648">
-      <c r="A1648" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1648" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1648" t="inlineStr">
-        <is>
-          <t>12-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D1648" t="inlineStr"/>
-      <c r="E1648" t="inlineStr"/>
-      <c r="F1648" t="inlineStr"/>
-      <c r="G1648" t="inlineStr"/>
-      <c r="H1648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1649">
-      <c r="A1649" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1649" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1649" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D1649" t="inlineStr"/>
-      <c r="E1649" t="inlineStr"/>
-      <c r="F1649" t="inlineStr"/>
-      <c r="G1649" t="inlineStr"/>
-      <c r="H1649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1650">
-      <c r="A1650" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1650" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1650" t="inlineStr">
-        <is>
-          <t>6-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D1650" t="inlineStr"/>
-      <c r="E1650" t="inlineStr"/>
-      <c r="F1650" t="inlineStr"/>
-      <c r="G1650" t="inlineStr"/>
-      <c r="H1650" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1651">
-      <c r="A1651" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1651" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1651" t="inlineStr">
-        <is>
-          <t>New Home SalesDEC</t>
-        </is>
-      </c>
-      <c r="D1651" t="inlineStr"/>
-      <c r="E1651" t="inlineStr"/>
-      <c r="F1651" t="inlineStr"/>
-      <c r="G1651" t="inlineStr"/>
-      <c r="H1651" t="inlineStr">
-        <is>
           <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1652">
-      <c r="A1652" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1652" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1652" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1652" t="inlineStr"/>
-      <c r="E1652" t="inlineStr"/>
-      <c r="F1652" t="inlineStr"/>
-      <c r="G1652" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1652" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1653">
-      <c r="A1653" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1653" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1653" t="inlineStr">
-        <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1653" t="inlineStr"/>
-      <c r="E1653" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="F1653" t="inlineStr"/>
-      <c r="G1653" t="inlineStr"/>
-      <c r="H1653" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1654">
-      <c r="A1654" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1654" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1654" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1654" t="inlineStr"/>
-      <c r="E1654" t="inlineStr"/>
-      <c r="F1654" t="inlineStr"/>
-      <c r="G1654" t="inlineStr"/>
-      <c r="H1654" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1655">
-      <c r="A1655" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1655" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1655" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1655" t="inlineStr"/>
-      <c r="E1655" t="inlineStr"/>
-      <c r="F1655" t="inlineStr"/>
-      <c r="G1655" t="inlineStr"/>
-      <c r="H1655" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1656">
-      <c r="A1656" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1656" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1656" t="inlineStr">
-        <is>
-          <t>2-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1656" t="inlineStr"/>
-      <c r="E1656" t="inlineStr"/>
-      <c r="F1656" t="inlineStr"/>
-      <c r="G1656" t="inlineStr"/>
-      <c r="H1656" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1657">
-      <c r="A1657" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1657" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1657" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1657" t="inlineStr"/>
-      <c r="E1657" t="inlineStr"/>
-      <c r="F1657" t="inlineStr"/>
-      <c r="G1657" t="inlineStr"/>
-      <c r="H1657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1658">
-      <c r="A1658" t="inlineStr"/>
-      <c r="B1658" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1658" t="inlineStr">
-        <is>
-          <t>Building Permits FinalDEC</t>
-        </is>
-      </c>
-      <c r="D1658" t="inlineStr"/>
-      <c r="E1658" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1658" t="inlineStr"/>
-      <c r="G1658" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
-      <c r="H1658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1659">
-      <c r="A1659" t="inlineStr"/>
-      <c r="B1659" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1659" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D1659" t="inlineStr"/>
-      <c r="E1659" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1659" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1659" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H1659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1660">
-      <c r="A1660" t="inlineStr">
-        <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1660" t="inlineStr"/>
-      <c r="C1660" t="inlineStr"/>
-      <c r="D1660" t="inlineStr"/>
-      <c r="E1660" t="inlineStr"/>
-      <c r="F1660" t="inlineStr"/>
-      <c r="G1660" t="inlineStr"/>
-      <c r="H1660" t="inlineStr"/>
-    </row>
-    <row r="1661">
-      <c r="A1661" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1661" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1661" t="inlineStr">
-        <is>
-          <t>NAB Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D1661" t="inlineStr"/>
-      <c r="E1661" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F1661" t="inlineStr"/>
-      <c r="G1661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H1661" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1662">
-      <c r="A1662" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B1662" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1662" t="inlineStr">
-        <is>
-          <t>Unemployment Rate PrelQ4</t>
-        </is>
-      </c>
-      <c r="D1662" t="inlineStr"/>
-      <c r="E1662" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F1662" t="inlineStr"/>
-      <c r="G1662" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
-      <c r="H1662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1663">
-      <c r="A1663" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1663" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1663" t="inlineStr">
-        <is>
-          <t>6-Month T-Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1663" t="inlineStr"/>
-      <c r="E1663" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
-      <c r="F1663" t="inlineStr"/>
-      <c r="G1663" t="inlineStr"/>
-      <c r="H1663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1664">
-      <c r="A1664" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1664" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1664" t="inlineStr">
-        <is>
-          <t>Export Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1664" t="inlineStr"/>
-      <c r="E1664" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
-      <c r="F1664" t="inlineStr"/>
-      <c r="G1664" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="H1664" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1665">
-      <c r="A1665" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1665" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1665" t="inlineStr">
-        <is>
-          <t>Import Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1665" t="inlineStr"/>
-      <c r="E1665" t="inlineStr">
-        <is>
-          <t>-5.1%</t>
-        </is>
-      </c>
-      <c r="F1665" t="inlineStr"/>
-      <c r="G1665" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="H1665" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1666">
-      <c r="A1666" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1666" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1666" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1666" t="inlineStr"/>
-      <c r="E1666" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F1666" t="inlineStr"/>
-      <c r="G1666" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H1666" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1667">
-      <c r="A1667" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B1667" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1667" t="inlineStr">
-        <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1667" t="inlineStr"/>
-      <c r="E1667" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="F1667" t="inlineStr"/>
-      <c r="G1667" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H1667" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1668"/>
+  <dimension ref="A1:H1646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46555,10 +46555,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1406">
@@ -46593,10 +46591,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1407">
@@ -46631,10 +46627,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1408">
@@ -46665,10 +46659,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -46703,10 +46695,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -46737,10 +46727,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -46775,10 +46763,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -46809,10 +46795,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1413">
@@ -46847,10 +46831,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1414">
@@ -46881,10 +46863,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1415">
@@ -46915,10 +46895,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1416">
@@ -46945,10 +46923,8 @@
       </c>
       <c r="F1416" t="inlineStr"/>
       <c r="G1416" t="inlineStr"/>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1417">
@@ -46975,10 +46951,8 @@
       </c>
       <c r="F1417" t="inlineStr"/>
       <c r="G1417" t="inlineStr"/>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1418">
@@ -47009,10 +46983,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -47043,10 +47015,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1420">
@@ -47073,10 +47043,8 @@
       </c>
       <c r="F1420" t="inlineStr"/>
       <c r="G1420" t="inlineStr"/>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1421">
@@ -47103,10 +47071,8 @@
       </c>
       <c r="F1421" t="inlineStr"/>
       <c r="G1421" t="inlineStr"/>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1422">
@@ -47133,10 +47099,8 @@
       </c>
       <c r="F1422" t="inlineStr"/>
       <c r="G1422" t="inlineStr"/>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -47159,10 +47123,8 @@
       <c r="E1423" t="inlineStr"/>
       <c r="F1423" t="inlineStr"/>
       <c r="G1423" t="inlineStr"/>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1424">
@@ -47193,10 +47155,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1425">
@@ -47227,10 +47187,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1426">
@@ -47249,10 +47207,8 @@
       <c r="E1426" t="inlineStr"/>
       <c r="F1426" t="inlineStr"/>
       <c r="G1426" t="inlineStr"/>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -47275,10 +47231,8 @@
       </c>
       <c r="F1427" t="inlineStr"/>
       <c r="G1427" t="inlineStr"/>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -47305,10 +47259,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1429">
@@ -47327,10 +47279,8 @@
       <c r="E1429" t="inlineStr"/>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1430">
@@ -47357,10 +47307,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -47387,10 +47335,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -47409,10 +47355,8 @@
       <c r="E1432" t="inlineStr"/>
       <c r="F1432" t="inlineStr"/>
       <c r="G1432" t="inlineStr"/>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -47461,10 +47405,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1435">
@@ -47495,10 +47437,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1436">
@@ -47529,10 +47469,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1437">
@@ -47559,10 +47497,8 @@
       </c>
       <c r="F1437" t="inlineStr"/>
       <c r="G1437" t="inlineStr"/>
-      <c r="H1437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1438">
@@ -47589,10 +47525,8 @@
       </c>
       <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr"/>
-      <c r="H1438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1439">
@@ -47619,10 +47553,8 @@
       </c>
       <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="inlineStr"/>
-      <c r="H1439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1440">
@@ -47653,10 +47585,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1440" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1440" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1441">
@@ -47691,10 +47621,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1441" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1441" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1442">
@@ -47729,10 +47657,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1442" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1442" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1443">
@@ -47763,10 +47689,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1443" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1443" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1444">
@@ -47801,10 +47725,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1445">
@@ -47839,10 +47761,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1446">
@@ -47873,10 +47793,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1447">
@@ -47907,10 +47825,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1448">
@@ -47941,10 +47857,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1449">
@@ -47975,10 +47889,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1450">
@@ -48013,10 +47925,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1450" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1450" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1451">
@@ -48051,10 +47961,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1451" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1451" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1452">
@@ -48089,10 +47997,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1453">
@@ -48119,10 +48025,8 @@
       </c>
       <c r="F1453" t="inlineStr"/>
       <c r="G1453" t="inlineStr"/>
-      <c r="H1453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1454">
@@ -48149,10 +48053,8 @@
       </c>
       <c r="F1454" t="inlineStr"/>
       <c r="G1454" t="inlineStr"/>
-      <c r="H1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1455">
@@ -48183,10 +48085,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1456">
@@ -48217,10 +48117,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1457">
@@ -48255,10 +48153,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1457" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1457" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1458">
@@ -48289,10 +48185,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1458" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1458" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1459">
@@ -48327,10 +48221,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1459" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1459" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1460">
@@ -48361,10 +48253,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1460" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1461">
@@ -48399,10 +48289,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1461" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1462">
@@ -48437,10 +48325,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1463">
@@ -48467,10 +48353,8 @@
       </c>
       <c r="F1463" t="inlineStr"/>
       <c r="G1463" t="inlineStr"/>
-      <c r="H1463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1464">
@@ -48497,10 +48381,8 @@
       </c>
       <c r="F1464" t="inlineStr"/>
       <c r="G1464" t="inlineStr"/>
-      <c r="H1464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1465">
@@ -48527,10 +48409,8 @@
       </c>
       <c r="F1465" t="inlineStr"/>
       <c r="G1465" t="inlineStr"/>
-      <c r="H1465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1466">
@@ -48557,10 +48437,8 @@
       </c>
       <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr"/>
-      <c r="H1466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1466" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1467">
@@ -48579,10 +48457,8 @@
       <c r="E1467" t="inlineStr"/>
       <c r="F1467" t="inlineStr"/>
       <c r="G1467" t="inlineStr"/>
-      <c r="H1467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1468">
@@ -48627,10 +48503,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1469" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1469" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1470">
@@ -48661,10 +48535,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1470" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1471">
@@ -48699,10 +48571,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1471" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1471" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1472">
@@ -48733,10 +48603,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1472" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1472" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1473">
@@ -48767,10 +48635,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1473" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1473" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1474">
@@ -48801,10 +48667,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1474" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1475">
@@ -48835,10 +48699,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1475" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1476">
@@ -48865,10 +48727,8 @@
       </c>
       <c r="F1476" t="inlineStr"/>
       <c r="G1476" t="inlineStr"/>
-      <c r="H1476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1477">
@@ -48899,10 +48759,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1478">
@@ -48933,10 +48791,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1479">
@@ -48963,10 +48819,8 @@
       </c>
       <c r="F1479" t="inlineStr"/>
       <c r="G1479" t="inlineStr"/>
-      <c r="H1479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1480">
@@ -48993,10 +48847,8 @@
       </c>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr"/>
-      <c r="H1480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1481">
@@ -49023,10 +48875,8 @@
       </c>
       <c r="F1481" t="inlineStr"/>
       <c r="G1481" t="inlineStr"/>
-      <c r="H1481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1482">
@@ -49053,10 +48903,8 @@
       </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
-      <c r="H1482" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1482" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1483">
@@ -49083,10 +48931,8 @@
       </c>
       <c r="F1483" t="inlineStr"/>
       <c r="G1483" t="inlineStr"/>
-      <c r="H1483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1484">
@@ -49113,10 +48959,8 @@
       </c>
       <c r="F1484" t="inlineStr"/>
       <c r="G1484" t="inlineStr"/>
-      <c r="H1484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1484" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1485">
@@ -49143,10 +48987,8 @@
       </c>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr"/>
-      <c r="H1485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1486">
@@ -49173,10 +49015,8 @@
       </c>
       <c r="F1486" t="inlineStr"/>
       <c r="G1486" t="inlineStr"/>
-      <c r="H1486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1487">
@@ -49207,10 +49047,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1488">
@@ -49241,10 +49079,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1489">
@@ -49275,10 +49111,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1490">
@@ -49309,10 +49143,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1491">
@@ -49339,10 +49171,8 @@
       </c>
       <c r="F1491" t="inlineStr"/>
       <c r="G1491" t="inlineStr"/>
-      <c r="H1491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1492">
@@ -49377,10 +49207,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1493">
@@ -49403,10 +49231,8 @@
       <c r="E1493" t="inlineStr"/>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr"/>
-      <c r="H1493" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1493" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1494">
@@ -49433,10 +49259,8 @@
       </c>
       <c r="F1494" t="inlineStr"/>
       <c r="G1494" t="inlineStr"/>
-      <c r="H1494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1495">
@@ -49463,10 +49287,8 @@
       </c>
       <c r="F1495" t="inlineStr"/>
       <c r="G1495" t="inlineStr"/>
-      <c r="H1495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1496">
@@ -49511,10 +49333,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1498">
@@ -49545,10 +49365,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1498" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1498" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1499">
@@ -49575,10 +49393,8 @@
       </c>
       <c r="F1499" t="inlineStr"/>
       <c r="G1499" t="inlineStr"/>
-      <c r="H1499" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1499" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1500">
@@ -49613,10 +49429,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1500" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1500" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1501">
@@ -49651,10 +49465,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1501" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1502">
@@ -49689,10 +49501,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1502" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1502" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1503">
@@ -49727,10 +49537,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1503" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1503" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1504">
@@ -49757,10 +49565,8 @@
       </c>
       <c r="F1504" t="inlineStr"/>
       <c r="G1504" t="inlineStr"/>
-      <c r="H1504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1504" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1505">
@@ -49795,10 +49601,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1505" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1506">
@@ -49825,10 +49629,8 @@
       </c>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr"/>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1507">
@@ -49855,10 +49657,8 @@
       </c>
       <c r="F1507" t="inlineStr"/>
       <c r="G1507" t="inlineStr"/>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1508">
@@ -49885,10 +49685,8 @@
       </c>
       <c r="F1508" t="inlineStr"/>
       <c r="G1508" t="inlineStr"/>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1509">
@@ -49915,10 +49713,8 @@
       </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr"/>
-      <c r="H1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1510">
@@ -49949,10 +49745,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1511">
@@ -49983,10 +49777,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1512">
@@ -50017,10 +49809,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1513">
@@ -50051,10 +49841,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1514">
@@ -50081,10 +49869,8 @@
       </c>
       <c r="F1514" t="inlineStr"/>
       <c r="G1514" t="inlineStr"/>
-      <c r="H1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1515">
@@ -50111,10 +49897,8 @@
       </c>
       <c r="F1515" t="inlineStr"/>
       <c r="G1515" t="inlineStr"/>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1516">
@@ -50145,10 +49929,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1516" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1517">
@@ -50183,10 +49965,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1517" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1518">
@@ -50217,10 +49997,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1519">
@@ -50247,10 +50025,8 @@
       </c>
       <c r="F1519" t="inlineStr"/>
       <c r="G1519" t="inlineStr"/>
-      <c r="H1519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1519" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1520">
@@ -50277,10 +50053,8 @@
       </c>
       <c r="F1520" t="inlineStr"/>
       <c r="G1520" t="inlineStr"/>
-      <c r="H1520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1521">
@@ -50307,10 +50081,8 @@
       </c>
       <c r="F1521" t="inlineStr"/>
       <c r="G1521" t="inlineStr"/>
-      <c r="H1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1522">
@@ -50337,10 +50109,8 @@
       </c>
       <c r="F1522" t="inlineStr"/>
       <c r="G1522" t="inlineStr"/>
-      <c r="H1522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1523">
@@ -50367,10 +50137,8 @@
       </c>
       <c r="F1523" t="inlineStr"/>
       <c r="G1523" t="inlineStr"/>
-      <c r="H1523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1524">
@@ -50397,10 +50165,8 @@
       </c>
       <c r="F1524" t="inlineStr"/>
       <c r="G1524" t="inlineStr"/>
-      <c r="H1524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1525">
@@ -50427,10 +50193,8 @@
       </c>
       <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="inlineStr"/>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1526">
@@ -50457,10 +50221,8 @@
       </c>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1527">
@@ -50491,10 +50253,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1528">
@@ -50525,10 +50285,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1528" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1528" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1529">
@@ -50563,10 +50321,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1529" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1529" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1530">
@@ -50597,10 +50353,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1530" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1531">
@@ -50631,10 +50385,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1531" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1531" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1532">
@@ -50669,10 +50421,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1532" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1532" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1533">
@@ -50699,10 +50449,8 @@
       </c>
       <c r="F1533" t="inlineStr"/>
       <c r="G1533" t="inlineStr"/>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1534">
@@ -50733,10 +50481,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1535">
@@ -50767,10 +50513,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1536">
@@ -50801,10 +50545,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1537">
@@ -50835,10 +50577,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1538">
@@ -50873,10 +50613,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1538" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1538" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1539">
@@ -50911,10 +50649,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1539" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1539" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1540">
@@ -50937,10 +50673,8 @@
       <c r="E1540" t="inlineStr"/>
       <c r="F1540" t="inlineStr"/>
       <c r="G1540" t="inlineStr"/>
-      <c r="H1540" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1540" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1541">
@@ -50971,10 +50705,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1542">
@@ -51009,10 +50741,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1542" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1542" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1543">
@@ -51043,10 +50773,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1544">
@@ -51077,10 +50805,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1545">
@@ -51115,10 +50841,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1545" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1545" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1546">
@@ -51145,10 +50869,8 @@
       </c>
       <c r="F1546" t="inlineStr"/>
       <c r="G1546" t="inlineStr"/>
-      <c r="H1546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1547">
@@ -51175,10 +50897,8 @@
       </c>
       <c r="F1547" t="inlineStr"/>
       <c r="G1547" t="inlineStr"/>
-      <c r="H1547" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1547" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1548">
@@ -51205,10 +50925,8 @@
       </c>
       <c r="F1548" t="inlineStr"/>
       <c r="G1548" t="inlineStr"/>
-      <c r="H1548" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1548" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1549">
@@ -51235,10 +50953,8 @@
       </c>
       <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr"/>
-      <c r="H1549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1550">
@@ -51265,10 +50981,8 @@
       </c>
       <c r="F1550" t="inlineStr"/>
       <c r="G1550" t="inlineStr"/>
-      <c r="H1550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1551">
@@ -51295,10 +51009,8 @@
       </c>
       <c r="F1551" t="inlineStr"/>
       <c r="G1551" t="inlineStr"/>
-      <c r="H1551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1552">
@@ -51325,10 +51037,8 @@
       </c>
       <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr"/>
-      <c r="H1552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1553">
@@ -51355,10 +51065,8 @@
       </c>
       <c r="F1553" t="inlineStr"/>
       <c r="G1553" t="inlineStr"/>
-      <c r="H1553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1554">
@@ -51385,10 +51093,8 @@
       </c>
       <c r="F1554" t="inlineStr"/>
       <c r="G1554" t="inlineStr"/>
-      <c r="H1554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1554" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1555">
@@ -51415,10 +51121,8 @@
       </c>
       <c r="F1555" t="inlineStr"/>
       <c r="G1555" t="inlineStr"/>
-      <c r="H1555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1555" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1556">
@@ -51445,10 +51149,8 @@
       </c>
       <c r="F1556" t="inlineStr"/>
       <c r="G1556" t="inlineStr"/>
-      <c r="H1556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1556" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1557">
@@ -51475,10 +51177,8 @@
       </c>
       <c r="F1557" t="inlineStr"/>
       <c r="G1557" t="inlineStr"/>
-      <c r="H1557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1557" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1558">
@@ -51505,10 +51205,8 @@
       </c>
       <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr"/>
-      <c r="H1558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1559">
@@ -51535,10 +51233,8 @@
       </c>
       <c r="F1559" t="inlineStr"/>
       <c r="G1559" t="inlineStr"/>
-      <c r="H1559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1560">
@@ -51565,10 +51261,8 @@
       </c>
       <c r="F1560" t="inlineStr"/>
       <c r="G1560" t="inlineStr"/>
-      <c r="H1560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1561">
@@ -51595,10 +51289,8 @@
       </c>
       <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr"/>
-      <c r="H1561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1562">
@@ -51621,10 +51313,8 @@
       </c>
       <c r="F1562" t="inlineStr"/>
       <c r="G1562" t="inlineStr"/>
-      <c r="H1562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1563">
@@ -51651,256 +51341,290 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1564" t="inlineStr"/>
-      <c r="C1564" t="inlineStr"/>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C1564" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D1564" t="inlineStr"/>
-      <c r="E1564" t="inlineStr"/>
+      <c r="E1564" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1564" t="inlineStr"/>
-      <c r="G1564" t="inlineStr"/>
-      <c r="H1564" t="inlineStr"/>
+      <c r="G1564" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H1564" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F1565" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F1565" t="inlineStr">
+        <is>
+          <t>42.1</t>
+        </is>
+      </c>
       <c r="G1565" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="H1565" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
       <c r="E1566" t="inlineStr">
         <is>
-          <t>$6.83T</t>
-        </is>
-      </c>
-      <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F1566" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="G1566" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="H1566" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F1567" t="inlineStr"/>
       <c r="G1567" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H1567" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1568" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F1568" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="G1568" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="H1568" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F1569" t="inlineStr"/>
       <c r="G1569" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F1570" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F1570" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="G1570" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1570" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1571" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F1571" t="inlineStr"/>
       <c r="G1571" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="H1571" t="inlineStr">
@@ -51912,75 +51636,83 @@
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1572" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F1572" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1573" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F1573" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H1573" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
@@ -51990,23 +51722,23 @@
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1574" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="G1574" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="H1574" t="inlineStr">
@@ -52018,135 +51750,127 @@
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1575" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="G1575" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1576" t="inlineStr"/>
       <c r="G1576" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="H1576" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>ECB President Lagarde Speech</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
-      <c r="E1577" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+      <c r="E1577" t="inlineStr"/>
       <c r="F1577" t="inlineStr"/>
-      <c r="G1577" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G1577" t="inlineStr"/>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1578" t="inlineStr"/>
       <c r="G1578" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>91.4</t>
         </is>
       </c>
       <c r="H1578" t="inlineStr">
@@ -52158,61 +51882,61 @@
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
-      <c r="E1579" t="inlineStr">
-        <is>
-          <t>0.25%</t>
-        </is>
-      </c>
-      <c r="F1579" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1579" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1579" t="inlineStr"/>
+      <c r="F1579" t="inlineStr"/>
+      <c r="G1579" t="inlineStr"/>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
-      <c r="E1580" t="inlineStr"/>
-      <c r="F1580" t="inlineStr"/>
-      <c r="G1580" t="inlineStr"/>
+      <c r="E1580" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="F1580" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="G1580" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
       <c r="H1580" t="inlineStr">
         <is>
           <t>2</t>
@@ -52222,23 +51946,23 @@
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>$625.87B</t>
         </is>
       </c>
       <c r="F1581" t="inlineStr"/>
@@ -52252,199 +51976,203 @@
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
       <c r="E1582" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1582" t="inlineStr"/>
       <c r="G1582" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1582" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1583" t="inlineStr"/>
       <c r="G1583" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1583" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1584" t="inlineStr"/>
       <c r="G1584" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1584" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1585" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1585" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1585" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1585" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1586" t="inlineStr"/>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1586" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1587" t="inlineStr"/>
       <c r="G1587" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1587" t="inlineStr">
@@ -52456,33 +52184,29 @@
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1588" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1588" t="inlineStr"/>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1588" t="inlineStr">
@@ -52494,33 +52218,29 @@
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1589" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1589" t="inlineStr"/>
       <c r="G1589" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1589" t="inlineStr">
@@ -52532,67 +52252,67 @@
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1590" t="inlineStr"/>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1590" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1591" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1591" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1591" t="inlineStr">
@@ -52604,29 +52324,29 @@
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1592" t="inlineStr"/>
       <c r="G1592" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1592" t="inlineStr">
@@ -52638,33 +52358,33 @@
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1593" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1593" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1593" t="inlineStr">
@@ -52676,215 +52396,215 @@
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1594" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1594" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1595" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1595" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1596" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1596" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1596" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1597" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1597" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1597" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1598" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1598" t="inlineStr"/>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1598" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1599" t="inlineStr"/>
       <c r="G1599" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1599" t="inlineStr">
@@ -52896,57 +52616,57 @@
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
-      <c r="E1600" t="inlineStr"/>
+      <c r="E1600" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1600" t="inlineStr"/>
       <c r="G1600" t="inlineStr"/>
       <c r="H1600" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr"/>
-      <c r="G1601" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1601" t="inlineStr"/>
       <c r="H1601" t="inlineStr">
         <is>
           <t>3</t>
@@ -52956,87 +52676,71 @@
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1602" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1602" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr"/>
+      <c r="C1602" t="inlineStr"/>
       <c r="D1602" t="inlineStr"/>
       <c r="E1602" t="inlineStr"/>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr"/>
-      <c r="H1602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1602" t="inlineStr"/>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1603" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1603" t="inlineStr"/>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1603" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>$625.87B</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr"/>
@@ -53050,31 +52754,27 @@
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr"/>
-      <c r="G1605" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1605" t="inlineStr"/>
       <c r="H1605" t="inlineStr">
         <is>
           <t>3</t>
@@ -53084,31 +52784,27 @@
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr"/>
-      <c r="G1606" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1606" t="inlineStr"/>
       <c r="H1606" t="inlineStr">
         <is>
           <t>3</t>
@@ -53118,31 +52814,23 @@
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
-      <c r="E1607" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1607" t="inlineStr"/>
       <c r="F1607" t="inlineStr"/>
-      <c r="G1607" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1607" t="inlineStr"/>
       <c r="H1607" t="inlineStr">
         <is>
           <t>3</t>
@@ -53152,69 +52840,53 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
-      <c r="E1608" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1608" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1608" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1608" t="inlineStr"/>
+      <c r="F1608" t="inlineStr"/>
+      <c r="G1608" t="inlineStr"/>
       <c r="H1608" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr"/>
-      <c r="G1609" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1609" t="inlineStr"/>
       <c r="H1609" t="inlineStr">
         <is>
           <t>2</t>
@@ -53224,31 +52896,27 @@
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr"/>
-      <c r="G1610" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1610" t="inlineStr"/>
       <c r="H1610" t="inlineStr">
         <is>
           <t>3</t>
@@ -53258,169 +52926,145 @@
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr"/>
-      <c r="G1611" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1611" t="inlineStr"/>
       <c r="H1611" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr"/>
-      <c r="G1612" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1612" t="inlineStr"/>
       <c r="H1612" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr"/>
-      <c r="G1613" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1613" t="inlineStr"/>
       <c r="H1613" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:15 PM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
-      <c r="E1614" t="inlineStr">
-        <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1614" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1614" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+      <c r="E1614" t="inlineStr"/>
+      <c r="F1614" t="inlineStr"/>
+      <c r="G1614" t="inlineStr"/>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>43.5K</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr"/>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
@@ -53432,71 +53076,63 @@
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1616" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1616" t="inlineStr"/>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1616" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1617" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1617" t="inlineStr"/>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
@@ -53508,35 +53144,27 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1618" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="G1618" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1618" t="inlineStr"/>
+      <c r="G1618" t="inlineStr"/>
       <c r="H1618" t="inlineStr">
         <is>
           <t>3</t>
@@ -53546,35 +53174,27 @@
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1619" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1619" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1619" t="inlineStr"/>
+      <c r="G1619" t="inlineStr"/>
       <c r="H1619" t="inlineStr">
         <is>
           <t>3</t>
@@ -53584,67 +53204,63 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1620" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>$-0.133B</t>
+        </is>
+      </c>
+      <c r="F1620" t="inlineStr"/>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1620" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr"/>
       <c r="G1621" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1621" t="inlineStr">
@@ -53656,7 +53272,7 @@
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
@@ -53666,51 +53282,55 @@
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr"/>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
-      <c r="G1623" t="inlineStr"/>
+      <c r="G1623" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1623" t="inlineStr">
         <is>
           <t>3</t>
@@ -53720,25 +53340,21 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
-      <c r="E1624" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
+      <c r="E1624" t="inlineStr"/>
       <c r="F1624" t="inlineStr"/>
       <c r="G1624" t="inlineStr"/>
       <c r="H1624" t="inlineStr">
@@ -53750,45 +53366,49 @@
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1625" t="inlineStr"/>
-      <c r="C1625" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1625" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1625" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1625" t="inlineStr"/>
       <c r="E1625" t="inlineStr"/>
       <c r="F1625" t="inlineStr"/>
       <c r="G1625" t="inlineStr"/>
-      <c r="H1625" t="inlineStr"/>
+      <c r="H1625" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
-      <c r="E1626" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1626" t="inlineStr"/>
       <c r="F1626" t="inlineStr"/>
-      <c r="G1626" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1626" t="inlineStr"/>
       <c r="H1626" t="inlineStr">
         <is>
           <t>3</t>
@@ -53798,107 +53418,103 @@
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
-      <c r="E1627" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1627" t="inlineStr"/>
       <c r="F1627" t="inlineStr"/>
       <c r="G1627" t="inlineStr"/>
       <c r="H1627" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1628" t="inlineStr"/>
       <c r="F1628" t="inlineStr"/>
-      <c r="G1628" t="inlineStr"/>
+      <c r="G1628" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1628" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1629" t="inlineStr"/>
       <c r="G1629" t="inlineStr"/>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
@@ -53914,17 +53530,17 @@
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
@@ -53940,55 +53556,47 @@
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
-      <c r="E1632" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1632" t="inlineStr"/>
       <c r="F1632" t="inlineStr"/>
       <c r="G1632" t="inlineStr"/>
       <c r="H1632" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
-      <c r="E1633" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1633" t="inlineStr"/>
       <c r="F1633" t="inlineStr"/>
       <c r="G1633" t="inlineStr"/>
       <c r="H1633" t="inlineStr">
@@ -53998,59 +53606,63 @@
       </c>
     </row>
     <row r="1634">
-      <c r="A1634" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1634" t="inlineStr"/>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
       <c r="E1634" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1634" t="inlineStr"/>
-      <c r="G1634" t="inlineStr"/>
+      <c r="G1634" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1634" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1635">
-      <c r="A1635" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1635" t="inlineStr"/>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
       <c r="E1635" t="inlineStr">
         <is>
-          <t>85.1</t>
-        </is>
-      </c>
-      <c r="F1635" t="inlineStr"/>
-      <c r="G1635" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1635" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1635" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1635" t="inlineStr">
         <is>
           <t>3</t>
@@ -54060,121 +53672,109 @@
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1636" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1636" t="inlineStr">
-        <is>
-          <t>Ifo ExpectationsJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1636" t="inlineStr"/>
+      <c r="C1636" t="inlineStr"/>
       <c r="D1636" t="inlineStr"/>
-      <c r="E1636" t="inlineStr">
-        <is>
-          <t>84.4</t>
-        </is>
-      </c>
+      <c r="E1636" t="inlineStr"/>
       <c r="F1636" t="inlineStr"/>
       <c r="G1636" t="inlineStr"/>
-      <c r="H1636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1636" t="inlineStr"/>
     </row>
     <row r="1637">
       <c r="A1637" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
-      <c r="E1637" t="inlineStr"/>
+      <c r="E1637" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1637" t="inlineStr"/>
-      <c r="G1637" t="inlineStr"/>
+      <c r="G1637" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1637" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1638" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1638" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1638" t="inlineStr"/>
       <c r="E1638" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1638" t="inlineStr"/>
       <c r="G1638" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1638" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr"/>
       <c r="E1639" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1639" t="inlineStr"/>
-      <c r="G1639" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1639" t="inlineStr"/>
       <c r="H1639" t="inlineStr">
         <is>
           <t>3</t>
@@ -54184,29 +53784,29 @@
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1640" t="inlineStr"/>
       <c r="G1640" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1640" t="inlineStr">
@@ -54218,27 +53818,31 @@
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1641" t="inlineStr"/>
-      <c r="G1641" t="inlineStr"/>
+      <c r="G1641" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1641" t="inlineStr">
         <is>
           <t>3</t>
@@ -54248,27 +53852,31 @@
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1642" t="inlineStr"/>
-      <c r="G1642" t="inlineStr"/>
+      <c r="G1642" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1642" t="inlineStr">
         <is>
           <t>3</t>
@@ -54278,97 +53886,93 @@
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1643" t="inlineStr"/>
       <c r="G1643" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1643" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1644" t="inlineStr"/>
-      <c r="G1644" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1644" t="inlineStr"/>
       <c r="H1644" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1645" t="inlineStr"/>
       <c r="G1645" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1645" t="inlineStr">
@@ -54380,678 +53984,30 @@
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr"/>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1646" t="inlineStr"/>
-      <c r="G1646" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1646" t="inlineStr"/>
       <c r="H1646" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1647">
-      <c r="A1647" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1647" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1647" t="inlineStr">
-        <is>
-          <t>12-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D1647" t="inlineStr"/>
-      <c r="E1647" t="inlineStr"/>
-      <c r="F1647" t="inlineStr"/>
-      <c r="G1647" t="inlineStr"/>
-      <c r="H1647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1648">
-      <c r="A1648" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1648" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1648" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D1648" t="inlineStr"/>
-      <c r="E1648" t="inlineStr"/>
-      <c r="F1648" t="inlineStr"/>
-      <c r="G1648" t="inlineStr"/>
-      <c r="H1648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1649">
-      <c r="A1649" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1649" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1649" t="inlineStr">
-        <is>
-          <t>6-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D1649" t="inlineStr"/>
-      <c r="E1649" t="inlineStr"/>
-      <c r="F1649" t="inlineStr"/>
-      <c r="G1649" t="inlineStr"/>
-      <c r="H1649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1650">
-      <c r="A1650" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1650" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1650" t="inlineStr">
-        <is>
-          <t>New Home SalesDEC</t>
-        </is>
-      </c>
-      <c r="D1650" t="inlineStr"/>
-      <c r="E1650" t="inlineStr"/>
-      <c r="F1650" t="inlineStr"/>
-      <c r="G1650" t="inlineStr"/>
-      <c r="H1650" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1651">
-      <c r="A1651" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1651" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1651" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1651" t="inlineStr"/>
-      <c r="E1651" t="inlineStr"/>
-      <c r="F1651" t="inlineStr"/>
-      <c r="G1651" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1652">
-      <c r="A1652" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1652" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1652" t="inlineStr">
-        <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1652" t="inlineStr"/>
-      <c r="E1652" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="F1652" t="inlineStr"/>
-      <c r="G1652" t="inlineStr"/>
-      <c r="H1652" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1653">
-      <c r="A1653" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1653" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1653" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1653" t="inlineStr"/>
-      <c r="E1653" t="inlineStr"/>
-      <c r="F1653" t="inlineStr"/>
-      <c r="G1653" t="inlineStr"/>
-      <c r="H1653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1654">
-      <c r="A1654" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1654" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1654" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1654" t="inlineStr"/>
-      <c r="E1654" t="inlineStr"/>
-      <c r="F1654" t="inlineStr"/>
-      <c r="G1654" t="inlineStr"/>
-      <c r="H1654" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1655">
-      <c r="A1655" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1655" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1655" t="inlineStr">
-        <is>
-          <t>2-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1655" t="inlineStr"/>
-      <c r="E1655" t="inlineStr"/>
-      <c r="F1655" t="inlineStr"/>
-      <c r="G1655" t="inlineStr"/>
-      <c r="H1655" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1656">
-      <c r="A1656" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1656" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1656" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1656" t="inlineStr"/>
-      <c r="E1656" t="inlineStr"/>
-      <c r="F1656" t="inlineStr"/>
-      <c r="G1656" t="inlineStr"/>
-      <c r="H1656" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1657">
-      <c r="A1657" t="inlineStr"/>
-      <c r="B1657" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1657" t="inlineStr">
-        <is>
-          <t>Building Permits FinalDEC</t>
-        </is>
-      </c>
-      <c r="D1657" t="inlineStr"/>
-      <c r="E1657" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1657" t="inlineStr"/>
-      <c r="G1657" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
-      <c r="H1657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1658">
-      <c r="A1658" t="inlineStr"/>
-      <c r="B1658" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1658" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D1658" t="inlineStr"/>
-      <c r="E1658" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1658" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1658" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H1658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1659">
-      <c r="A1659" t="inlineStr">
-        <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1659" t="inlineStr"/>
-      <c r="C1659" t="inlineStr"/>
-      <c r="D1659" t="inlineStr"/>
-      <c r="E1659" t="inlineStr"/>
-      <c r="F1659" t="inlineStr"/>
-      <c r="G1659" t="inlineStr"/>
-      <c r="H1659" t="inlineStr"/>
-    </row>
-    <row r="1660">
-      <c r="A1660" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1660" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1660" t="inlineStr">
-        <is>
-          <t>NAB Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D1660" t="inlineStr"/>
-      <c r="E1660" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F1660" t="inlineStr"/>
-      <c r="G1660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H1660" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1661">
-      <c r="A1661" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B1661" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1661" t="inlineStr">
-        <is>
-          <t>Unemployment Rate PrelQ4</t>
-        </is>
-      </c>
-      <c r="D1661" t="inlineStr"/>
-      <c r="E1661" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F1661" t="inlineStr"/>
-      <c r="G1661" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
-      <c r="H1661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1662">
-      <c r="A1662" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1662" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1662" t="inlineStr">
-        <is>
-          <t>6-Month T-Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1662" t="inlineStr"/>
-      <c r="E1662" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
-      <c r="F1662" t="inlineStr"/>
-      <c r="G1662" t="inlineStr"/>
-      <c r="H1662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1663">
-      <c r="A1663" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1663" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1663" t="inlineStr">
-        <is>
-          <t>Export Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1663" t="inlineStr"/>
-      <c r="E1663" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
-      <c r="F1663" t="inlineStr"/>
-      <c r="G1663" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="H1663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1664">
-      <c r="A1664" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1664" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1664" t="inlineStr">
-        <is>
-          <t>Import Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1664" t="inlineStr"/>
-      <c r="E1664" t="inlineStr">
-        <is>
-          <t>-5.1%</t>
-        </is>
-      </c>
-      <c r="F1664" t="inlineStr"/>
-      <c r="G1664" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="H1664" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1665">
-      <c r="A1665" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1665" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1665" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1665" t="inlineStr"/>
-      <c r="E1665" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F1665" t="inlineStr"/>
-      <c r="G1665" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H1665" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1666">
-      <c r="A1666" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B1666" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1666" t="inlineStr">
-        <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1666" t="inlineStr"/>
-      <c r="E1666" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="F1666" t="inlineStr"/>
-      <c r="G1666" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H1666" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1667">
-      <c r="A1667" t="inlineStr">
-        <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
-      <c r="B1667" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1667" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1667" t="inlineStr"/>
-      <c r="E1667" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="F1667" t="inlineStr"/>
-      <c r="G1667" t="inlineStr"/>
-      <c r="H1667" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1668">
-      <c r="A1668" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B1668" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1668" t="inlineStr">
-        <is>
-          <t>Unemployment RateQ4</t>
-        </is>
-      </c>
-      <c r="D1668" t="inlineStr"/>
-      <c r="E1668" t="inlineStr">
-        <is>
-          <t>11.21%</t>
-        </is>
-      </c>
-      <c r="F1668" t="inlineStr"/>
-      <c r="G1668" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
-      <c r="H1668" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1646"/>
+  <dimension ref="A1:H1627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51373,10 +51373,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1565">
@@ -51411,10 +51409,8 @@
           <t>42.2</t>
         </is>
       </c>
-      <c r="H1565" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1565" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1566">
@@ -51449,10 +51445,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H1566" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1566" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1567">
@@ -51483,10 +51477,8 @@
           <t>48</t>
         </is>
       </c>
-      <c r="H1567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1568">
@@ -51521,10 +51513,8 @@
           <t>42.3</t>
         </is>
       </c>
-      <c r="H1568" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1568" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1569">
@@ -51555,10 +51545,8 @@
           <t>47.8</t>
         </is>
       </c>
-      <c r="H1569" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1569" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1570">
@@ -51593,10 +51581,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1570" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1570" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1571">
@@ -51627,10 +51613,8 @@
           <t>49.4</t>
         </is>
       </c>
-      <c r="H1571" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1571" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1572">
@@ -51665,10 +51649,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1572" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1572" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1573">
@@ -51703,10 +51685,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H1573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1573" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1574">
@@ -51741,10 +51721,8 @@
           <t>47.2</t>
         </is>
       </c>
-      <c r="H1574" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1574" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1575">
@@ -51779,10 +51757,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1575" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1575" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1576">
@@ -51813,10 +51789,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H1576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1577">
@@ -51839,10 +51813,8 @@
       <c r="E1577" t="inlineStr"/>
       <c r="F1577" t="inlineStr"/>
       <c r="G1577" t="inlineStr"/>
-      <c r="H1577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1577" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1578">
@@ -51873,10 +51845,8 @@
           <t>91.4</t>
         </is>
       </c>
-      <c r="H1578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1578" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1579">
@@ -51899,10 +51869,8 @@
       <c r="E1579" t="inlineStr"/>
       <c r="F1579" t="inlineStr"/>
       <c r="G1579" t="inlineStr"/>
-      <c r="H1579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1579" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1580">
@@ -51937,10 +51905,8 @@
           <t>-11</t>
         </is>
       </c>
-      <c r="H1580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1581">
@@ -51967,10 +51933,8 @@
       </c>
       <c r="F1581" t="inlineStr"/>
       <c r="G1581" t="inlineStr"/>
-      <c r="H1581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1582">
@@ -52001,10 +51965,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H1582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1583">
@@ -52035,10 +51997,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1584">
@@ -52069,10 +52029,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1584" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1585">
@@ -52107,10 +52065,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1586">
@@ -52141,10 +52097,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1586" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1586" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1587">
@@ -52175,10 +52129,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1587" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1588">
@@ -52209,10 +52161,8 @@
           <t>55.3</t>
         </is>
       </c>
-      <c r="H1588" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1588" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1589">
@@ -52243,10 +52193,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H1589" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1589" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1590">
@@ -52277,10 +52225,8 @@
           <t>56.6</t>
         </is>
       </c>
-      <c r="H1590" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1590" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1591">
@@ -52315,10 +52261,8 @@
           <t>4.1M</t>
         </is>
       </c>
-      <c r="H1591" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1591" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1592">
@@ -52349,10 +52293,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1592" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1592" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1593">
@@ -52387,10 +52329,8 @@
           <t>73.2</t>
         </is>
       </c>
-      <c r="H1593" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1593" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1594">
@@ -52425,10 +52365,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1595">
@@ -52463,10 +52401,8 @@
           <t>70.2</t>
         </is>
       </c>
-      <c r="H1595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1595" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1596">
@@ -52501,10 +52437,8 @@
           <t>77.9</t>
         </is>
       </c>
-      <c r="H1596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1596" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1597">
@@ -52539,10 +52473,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1597" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1598">
@@ -52573,10 +52505,8 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="H1598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1598" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1599">
@@ -52607,10 +52537,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1600">
@@ -52637,10 +52565,8 @@
       </c>
       <c r="F1600" t="inlineStr"/>
       <c r="G1600" t="inlineStr"/>
-      <c r="H1600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1601">
@@ -52667,54 +52593,56 @@
       </c>
       <c r="F1601" t="inlineStr"/>
       <c r="G1601" t="inlineStr"/>
-      <c r="H1601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1602" t="inlineStr"/>
-      <c r="C1602" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1602" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1602" t="inlineStr"/>
       <c r="E1602" t="inlineStr"/>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr"/>
-      <c r="H1602" t="inlineStr"/>
+      <c r="H1602" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
-      <c r="E1603" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1603" t="inlineStr"/>
       <c r="F1603" t="inlineStr"/>
-      <c r="G1603" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1603" t="inlineStr"/>
       <c r="H1603" t="inlineStr">
         <is>
           <t>3</t>
@@ -52724,107 +52652,103 @@
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
-      <c r="E1604" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1604" t="inlineStr"/>
       <c r="F1604" t="inlineStr"/>
       <c r="G1604" t="inlineStr"/>
       <c r="H1604" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
-      <c r="E1605" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1605" t="inlineStr"/>
       <c r="F1605" t="inlineStr"/>
-      <c r="G1605" t="inlineStr"/>
+      <c r="G1605" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1605" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr"/>
       <c r="G1606" t="inlineStr"/>
       <c r="H1606" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
@@ -52840,17 +52764,17 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
@@ -52866,55 +52790,47 @@
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
-      <c r="E1609" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1609" t="inlineStr"/>
       <c r="F1609" t="inlineStr"/>
       <c r="G1609" t="inlineStr"/>
       <c r="H1609" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
-      <c r="E1610" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1610" t="inlineStr"/>
       <c r="F1610" t="inlineStr"/>
       <c r="G1610" t="inlineStr"/>
       <c r="H1610" t="inlineStr">
@@ -52924,59 +52840,63 @@
       </c>
     </row>
     <row r="1611">
-      <c r="A1611" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1611" t="inlineStr"/>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr"/>
-      <c r="G1611" t="inlineStr"/>
+      <c r="G1611" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1611" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1612">
-      <c r="A1612" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1612" t="inlineStr"/>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>85.1</t>
-        </is>
-      </c>
-      <c r="F1612" t="inlineStr"/>
-      <c r="G1612" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1612" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1612" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1612" t="inlineStr">
         <is>
           <t>3</t>
@@ -52986,121 +52906,109 @@
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1613" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1613" t="inlineStr">
-        <is>
-          <t>Ifo ExpectationsJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1613" t="inlineStr"/>
+      <c r="C1613" t="inlineStr"/>
       <c r="D1613" t="inlineStr"/>
-      <c r="E1613" t="inlineStr">
-        <is>
-          <t>84.4</t>
-        </is>
-      </c>
+      <c r="E1613" t="inlineStr"/>
       <c r="F1613" t="inlineStr"/>
       <c r="G1613" t="inlineStr"/>
-      <c r="H1613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1613" t="inlineStr"/>
     </row>
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
-      <c r="E1614" t="inlineStr"/>
+      <c r="E1614" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1614" t="inlineStr"/>
-      <c r="G1614" t="inlineStr"/>
+      <c r="G1614" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr"/>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr"/>
-      <c r="G1616" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1616" t="inlineStr"/>
       <c r="H1616" t="inlineStr">
         <is>
           <t>3</t>
@@ -53110,29 +53018,29 @@
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr"/>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
@@ -53144,27 +53052,31 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1618" t="inlineStr"/>
-      <c r="G1618" t="inlineStr"/>
+      <c r="G1618" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1618" t="inlineStr">
         <is>
           <t>3</t>
@@ -53174,27 +53086,31 @@
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1619" t="inlineStr"/>
-      <c r="G1619" t="inlineStr"/>
+      <c r="G1619" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1619" t="inlineStr">
         <is>
           <t>3</t>
@@ -53204,97 +53120,93 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1620" t="inlineStr"/>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1620" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr"/>
-      <c r="G1621" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1621" t="inlineStr"/>
       <c r="H1621" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr"/>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
@@ -53306,31 +53218,27 @@
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
-      <c r="G1623" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1623" t="inlineStr"/>
       <c r="H1623" t="inlineStr">
         <is>
           <t>3</t>
@@ -53340,17 +53248,17 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
@@ -53366,17 +53274,17 @@
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
@@ -53392,17 +53300,17 @@
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
@@ -53418,594 +53326,28 @@
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
-      <c r="E1627" t="inlineStr"/>
+      <c r="E1627" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1627" t="inlineStr"/>
       <c r="G1627" t="inlineStr"/>
       <c r="H1627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1628">
-      <c r="A1628" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1628" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1628" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr"/>
-      <c r="F1628" t="inlineStr"/>
-      <c r="G1628" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1628" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1629">
-      <c r="A1629" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1629" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1629" t="inlineStr">
-        <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1629" t="inlineStr"/>
-      <c r="E1629" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="F1629" t="inlineStr"/>
-      <c r="G1629" t="inlineStr"/>
-      <c r="H1629" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1630">
-      <c r="A1630" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1630" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1630" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1630" t="inlineStr"/>
-      <c r="E1630" t="inlineStr"/>
-      <c r="F1630" t="inlineStr"/>
-      <c r="G1630" t="inlineStr"/>
-      <c r="H1630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1631">
-      <c r="A1631" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1631" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1631" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1631" t="inlineStr"/>
-      <c r="E1631" t="inlineStr"/>
-      <c r="F1631" t="inlineStr"/>
-      <c r="G1631" t="inlineStr"/>
-      <c r="H1631" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1632">
-      <c r="A1632" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1632" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1632" t="inlineStr">
-        <is>
-          <t>2-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1632" t="inlineStr"/>
-      <c r="E1632" t="inlineStr"/>
-      <c r="F1632" t="inlineStr"/>
-      <c r="G1632" t="inlineStr"/>
-      <c r="H1632" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1633">
-      <c r="A1633" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1633" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1633" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1633" t="inlineStr"/>
-      <c r="E1633" t="inlineStr"/>
-      <c r="F1633" t="inlineStr"/>
-      <c r="G1633" t="inlineStr"/>
-      <c r="H1633" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1634">
-      <c r="A1634" t="inlineStr"/>
-      <c r="B1634" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1634" t="inlineStr">
-        <is>
-          <t>Building Permits FinalDEC</t>
-        </is>
-      </c>
-      <c r="D1634" t="inlineStr"/>
-      <c r="E1634" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1634" t="inlineStr"/>
-      <c r="G1634" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
-      <c r="H1634" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1635">
-      <c r="A1635" t="inlineStr"/>
-      <c r="B1635" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1635" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D1635" t="inlineStr"/>
-      <c r="E1635" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1635" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1635" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H1635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1636">
-      <c r="A1636" t="inlineStr">
-        <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1636" t="inlineStr"/>
-      <c r="C1636" t="inlineStr"/>
-      <c r="D1636" t="inlineStr"/>
-      <c r="E1636" t="inlineStr"/>
-      <c r="F1636" t="inlineStr"/>
-      <c r="G1636" t="inlineStr"/>
-      <c r="H1636" t="inlineStr"/>
-    </row>
-    <row r="1637">
-      <c r="A1637" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1637" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1637" t="inlineStr">
-        <is>
-          <t>NAB Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D1637" t="inlineStr"/>
-      <c r="E1637" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F1637" t="inlineStr"/>
-      <c r="G1637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H1637" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1638">
-      <c r="A1638" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B1638" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1638" t="inlineStr">
-        <is>
-          <t>Unemployment Rate PrelQ4</t>
-        </is>
-      </c>
-      <c r="D1638" t="inlineStr"/>
-      <c r="E1638" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F1638" t="inlineStr"/>
-      <c r="G1638" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
-      <c r="H1638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1639">
-      <c r="A1639" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1639" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1639" t="inlineStr">
-        <is>
-          <t>6-Month T-Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1639" t="inlineStr"/>
-      <c r="E1639" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
-      <c r="F1639" t="inlineStr"/>
-      <c r="G1639" t="inlineStr"/>
-      <c r="H1639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1640">
-      <c r="A1640" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1640" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1640" t="inlineStr">
-        <is>
-          <t>Export Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1640" t="inlineStr"/>
-      <c r="E1640" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
-      <c r="F1640" t="inlineStr"/>
-      <c r="G1640" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="H1640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1641">
-      <c r="A1641" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1641" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1641" t="inlineStr">
-        <is>
-          <t>Import Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1641" t="inlineStr"/>
-      <c r="E1641" t="inlineStr">
-        <is>
-          <t>-5.1%</t>
-        </is>
-      </c>
-      <c r="F1641" t="inlineStr"/>
-      <c r="G1641" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="H1641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1642">
-      <c r="A1642" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1642" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1642" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1642" t="inlineStr"/>
-      <c r="E1642" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F1642" t="inlineStr"/>
-      <c r="G1642" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H1642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1643">
-      <c r="A1643" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B1643" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1643" t="inlineStr">
-        <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1643" t="inlineStr"/>
-      <c r="E1643" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="F1643" t="inlineStr"/>
-      <c r="G1643" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H1643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1644">
-      <c r="A1644" t="inlineStr">
-        <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
-      <c r="B1644" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1644" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1644" t="inlineStr"/>
-      <c r="E1644" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="F1644" t="inlineStr"/>
-      <c r="G1644" t="inlineStr"/>
-      <c r="H1644" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1645">
-      <c r="A1645" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B1645" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1645" t="inlineStr">
-        <is>
-          <t>Unemployment RateQ4</t>
-        </is>
-      </c>
-      <c r="D1645" t="inlineStr"/>
-      <c r="E1645" t="inlineStr">
-        <is>
-          <t>11.21%</t>
-        </is>
-      </c>
-      <c r="F1645" t="inlineStr"/>
-      <c r="G1645" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
-      <c r="H1645" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1646">
-      <c r="A1646" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1646" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1646" t="inlineStr">
-        <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D1646" t="inlineStr"/>
-      <c r="E1646" t="inlineStr">
-        <is>
-          <t>0.745%</t>
-        </is>
-      </c>
-      <c r="F1646" t="inlineStr"/>
-      <c r="G1646" t="inlineStr"/>
-      <c r="H1646" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1675"/>
+  <dimension ref="A1:H1652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46415,10 +46415,8 @@
         </is>
       </c>
       <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1400" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1401">
@@ -46449,10 +46447,8 @@
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -46483,10 +46479,8 @@
       </c>
       <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -46575,10 +46569,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1407">
@@ -46613,10 +46605,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1408">
@@ -46651,10 +46641,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1409">
@@ -46689,10 +46677,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1410">
@@ -46723,10 +46709,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -46761,10 +46745,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -46795,10 +46777,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1413">
@@ -46833,10 +46813,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1414">
@@ -46867,10 +46845,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1415">
@@ -46905,10 +46881,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1416">
@@ -46939,10 +46913,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1417">
@@ -46973,10 +46945,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1418">
@@ -47003,10 +46973,8 @@
       </c>
       <c r="F1418" t="inlineStr"/>
       <c r="G1418" t="inlineStr"/>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -47033,10 +47001,8 @@
       </c>
       <c r="F1419" t="inlineStr"/>
       <c r="G1419" t="inlineStr"/>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1420">
@@ -47067,10 +47033,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1421">
@@ -47101,10 +47065,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1422">
@@ -47131,10 +47093,8 @@
       </c>
       <c r="F1422" t="inlineStr"/>
       <c r="G1422" t="inlineStr"/>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -47161,10 +47121,8 @@
       </c>
       <c r="F1423" t="inlineStr"/>
       <c r="G1423" t="inlineStr"/>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1424">
@@ -47191,10 +47149,8 @@
       </c>
       <c r="F1424" t="inlineStr"/>
       <c r="G1424" t="inlineStr"/>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1425">
@@ -47217,10 +47173,8 @@
       <c r="E1425" t="inlineStr"/>
       <c r="F1425" t="inlineStr"/>
       <c r="G1425" t="inlineStr"/>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1426">
@@ -47251,10 +47205,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -47285,10 +47237,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -47307,10 +47257,8 @@
       <c r="E1428" t="inlineStr"/>
       <c r="F1428" t="inlineStr"/>
       <c r="G1428" t="inlineStr"/>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1429">
@@ -47333,10 +47281,8 @@
       </c>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1430">
@@ -47363,10 +47309,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -47385,10 +47329,8 @@
       <c r="E1431" t="inlineStr"/>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr"/>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -47415,10 +47357,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -47445,10 +47385,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1434">
@@ -47467,10 +47405,8 @@
       <c r="E1434" t="inlineStr"/>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr"/>
-      <c r="H1434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1435">
@@ -47519,10 +47455,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1437">
@@ -47553,10 +47487,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1438">
@@ -47587,10 +47519,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1439">
@@ -47617,10 +47547,8 @@
       </c>
       <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="inlineStr"/>
-      <c r="H1439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1440">
@@ -47647,10 +47575,8 @@
       </c>
       <c r="F1440" t="inlineStr"/>
       <c r="G1440" t="inlineStr"/>
-      <c r="H1440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1441">
@@ -47677,10 +47603,8 @@
       </c>
       <c r="F1441" t="inlineStr"/>
       <c r="G1441" t="inlineStr"/>
-      <c r="H1441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1442">
@@ -47711,10 +47635,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1442" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1442" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1443">
@@ -47749,10 +47671,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1443" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1443" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1444">
@@ -47787,10 +47707,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1444" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1444" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1445">
@@ -47821,10 +47739,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1445" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1445" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1446">
@@ -47859,10 +47775,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1447">
@@ -47897,10 +47811,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1448">
@@ -47931,10 +47843,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1449">
@@ -47965,10 +47875,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1450">
@@ -47999,10 +47907,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1451">
@@ -48033,10 +47939,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1452">
@@ -48071,10 +47975,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1452" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1452" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1453">
@@ -48109,10 +48011,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1453" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1453" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1454">
@@ -48147,10 +48047,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1455">
@@ -48177,10 +48075,8 @@
       </c>
       <c r="F1455" t="inlineStr"/>
       <c r="G1455" t="inlineStr"/>
-      <c r="H1455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1456">
@@ -48207,10 +48103,8 @@
       </c>
       <c r="F1456" t="inlineStr"/>
       <c r="G1456" t="inlineStr"/>
-      <c r="H1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1457">
@@ -48241,10 +48135,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1457" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1458">
@@ -48275,10 +48167,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1459">
@@ -48313,10 +48203,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1459" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1459" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1460">
@@ -48347,10 +48235,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1460" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1460" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1461">
@@ -48385,10 +48271,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1461" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1461" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1462">
@@ -48419,10 +48303,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1463">
@@ -48457,10 +48339,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1464">
@@ -48495,10 +48375,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1465">
@@ -48525,10 +48403,8 @@
       </c>
       <c r="F1465" t="inlineStr"/>
       <c r="G1465" t="inlineStr"/>
-      <c r="H1465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1466">
@@ -48555,10 +48431,8 @@
       </c>
       <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr"/>
-      <c r="H1466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1466" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1467">
@@ -48585,10 +48459,8 @@
       </c>
       <c r="F1467" t="inlineStr"/>
       <c r="G1467" t="inlineStr"/>
-      <c r="H1467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1468">
@@ -48615,10 +48487,8 @@
       </c>
       <c r="F1468" t="inlineStr"/>
       <c r="G1468" t="inlineStr"/>
-      <c r="H1468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1469">
@@ -48637,10 +48507,8 @@
       <c r="E1469" t="inlineStr"/>
       <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr"/>
-      <c r="H1469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1469" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1470">
@@ -48685,10 +48553,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1471" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1471" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1472">
@@ -48719,10 +48585,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1472" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1473">
@@ -48757,10 +48621,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1473" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1474">
@@ -48791,10 +48653,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1474" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1474" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1475">
@@ -48825,10 +48685,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1475" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1475" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1476">
@@ -48859,10 +48717,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1477">
@@ -48893,10 +48749,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1478">
@@ -48923,10 +48777,8 @@
       </c>
       <c r="F1478" t="inlineStr"/>
       <c r="G1478" t="inlineStr"/>
-      <c r="H1478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1479">
@@ -48957,10 +48809,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1480">
@@ -48991,10 +48841,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1481">
@@ -49021,10 +48869,8 @@
       </c>
       <c r="F1481" t="inlineStr"/>
       <c r="G1481" t="inlineStr"/>
-      <c r="H1481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1482">
@@ -49051,10 +48897,8 @@
       </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
-      <c r="H1482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1482" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1483">
@@ -49081,10 +48925,8 @@
       </c>
       <c r="F1483" t="inlineStr"/>
       <c r="G1483" t="inlineStr"/>
-      <c r="H1483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1484">
@@ -49111,10 +48953,8 @@
       </c>
       <c r="F1484" t="inlineStr"/>
       <c r="G1484" t="inlineStr"/>
-      <c r="H1484" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1484" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1485">
@@ -49141,10 +48981,8 @@
       </c>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr"/>
-      <c r="H1485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1486">
@@ -49171,10 +49009,8 @@
       </c>
       <c r="F1486" t="inlineStr"/>
       <c r="G1486" t="inlineStr"/>
-      <c r="H1486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1487">
@@ -49201,10 +49037,8 @@
       </c>
       <c r="F1487" t="inlineStr"/>
       <c r="G1487" t="inlineStr"/>
-      <c r="H1487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1488">
@@ -49231,10 +49065,8 @@
       </c>
       <c r="F1488" t="inlineStr"/>
       <c r="G1488" t="inlineStr"/>
-      <c r="H1488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1489">
@@ -49265,10 +49097,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1490">
@@ -49299,10 +49129,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1491">
@@ -49333,10 +49161,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1492">
@@ -49367,10 +49193,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1493">
@@ -49397,10 +49221,8 @@
       </c>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr"/>
-      <c r="H1493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1493" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1494">
@@ -49435,10 +49257,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1495">
@@ -49461,10 +49281,8 @@
       <c r="E1495" t="inlineStr"/>
       <c r="F1495" t="inlineStr"/>
       <c r="G1495" t="inlineStr"/>
-      <c r="H1495" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1495" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1496">
@@ -49491,10 +49309,8 @@
       </c>
       <c r="F1496" t="inlineStr"/>
       <c r="G1496" t="inlineStr"/>
-      <c r="H1496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1497">
@@ -49521,10 +49337,8 @@
       </c>
       <c r="F1497" t="inlineStr"/>
       <c r="G1497" t="inlineStr"/>
-      <c r="H1497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1498">
@@ -49569,10 +49383,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1500">
@@ -49603,10 +49415,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1500" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1500" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1501">
@@ -49633,10 +49443,8 @@
       </c>
       <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr"/>
-      <c r="H1501" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1501" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1502">
@@ -49671,10 +49479,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1502" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1502" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1503">
@@ -49709,10 +49515,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1503" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1504">
@@ -49747,10 +49551,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1504" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1504" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1505">
@@ -49785,10 +49587,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1505" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1506">
@@ -49815,10 +49615,8 @@
       </c>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr"/>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1507">
@@ -49853,10 +49651,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1508">
@@ -49883,10 +49679,8 @@
       </c>
       <c r="F1508" t="inlineStr"/>
       <c r="G1508" t="inlineStr"/>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1509">
@@ -49913,10 +49707,8 @@
       </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr"/>
-      <c r="H1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1510">
@@ -49943,10 +49735,8 @@
       </c>
       <c r="F1510" t="inlineStr"/>
       <c r="G1510" t="inlineStr"/>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1511">
@@ -49973,10 +49763,8 @@
       </c>
       <c r="F1511" t="inlineStr"/>
       <c r="G1511" t="inlineStr"/>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1512">
@@ -50007,10 +49795,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1513">
@@ -50041,10 +49827,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1514">
@@ -50075,10 +49859,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1515">
@@ -50109,10 +49891,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1516">
@@ -50139,10 +49919,8 @@
       </c>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr"/>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1517">
@@ -50169,10 +49947,8 @@
       </c>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="inlineStr"/>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1518">
@@ -50203,10 +49979,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1518" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1518" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1519">
@@ -50241,10 +50015,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1519" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1519" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1520">
@@ -50275,10 +50047,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1521">
@@ -50305,10 +50075,8 @@
       </c>
       <c r="F1521" t="inlineStr"/>
       <c r="G1521" t="inlineStr"/>
-      <c r="H1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1522">
@@ -50335,10 +50103,8 @@
       </c>
       <c r="F1522" t="inlineStr"/>
       <c r="G1522" t="inlineStr"/>
-      <c r="H1522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1523">
@@ -50365,10 +50131,8 @@
       </c>
       <c r="F1523" t="inlineStr"/>
       <c r="G1523" t="inlineStr"/>
-      <c r="H1523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1524">
@@ -50395,10 +50159,8 @@
       </c>
       <c r="F1524" t="inlineStr"/>
       <c r="G1524" t="inlineStr"/>
-      <c r="H1524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1525">
@@ -50425,10 +50187,8 @@
       </c>
       <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="inlineStr"/>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1526">
@@ -50455,10 +50215,8 @@
       </c>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1527">
@@ -50485,10 +50243,8 @@
       </c>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr"/>
-      <c r="H1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1528">
@@ -50515,10 +50271,8 @@
       </c>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr"/>
-      <c r="H1528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1528" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1529">
@@ -50549,10 +50303,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1529" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1530">
@@ -50583,10 +50335,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1530" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1531">
@@ -50621,10 +50371,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1531" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1531" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1532">
@@ -50655,10 +50403,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1532" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1533">
@@ -50689,10 +50435,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1533" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1534">
@@ -50727,10 +50471,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1534" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1534" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1535">
@@ -50757,10 +50499,8 @@
       </c>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr"/>
-      <c r="H1535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1536">
@@ -50791,10 +50531,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1537">
@@ -50825,10 +50563,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1538">
@@ -50859,10 +50595,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1539">
@@ -50893,10 +50627,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1540">
@@ -50931,10 +50663,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1540" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1540" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1541">
@@ -50969,10 +50699,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1541" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1541" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1542">
@@ -50995,10 +50723,8 @@
       <c r="E1542" t="inlineStr"/>
       <c r="F1542" t="inlineStr"/>
       <c r="G1542" t="inlineStr"/>
-      <c r="H1542" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1542" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1543">
@@ -51029,10 +50755,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1544">
@@ -51067,10 +50791,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1544" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1544" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1545">
@@ -51101,10 +50823,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1546">
@@ -51135,10 +50855,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1547">
@@ -51173,10 +50891,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1547" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1547" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1548">
@@ -51203,10 +50919,8 @@
       </c>
       <c r="F1548" t="inlineStr"/>
       <c r="G1548" t="inlineStr"/>
-      <c r="H1548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1549">
@@ -51233,10 +50947,8 @@
       </c>
       <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr"/>
-      <c r="H1549" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1549" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1550">
@@ -51263,10 +50975,8 @@
       </c>
       <c r="F1550" t="inlineStr"/>
       <c r="G1550" t="inlineStr"/>
-      <c r="H1550" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1550" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1551">
@@ -51293,10 +51003,8 @@
       </c>
       <c r="F1551" t="inlineStr"/>
       <c r="G1551" t="inlineStr"/>
-      <c r="H1551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1552">
@@ -51323,10 +51031,8 @@
       </c>
       <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr"/>
-      <c r="H1552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1553">
@@ -51353,10 +51059,8 @@
       </c>
       <c r="F1553" t="inlineStr"/>
       <c r="G1553" t="inlineStr"/>
-      <c r="H1553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1554">
@@ -51383,10 +51087,8 @@
       </c>
       <c r="F1554" t="inlineStr"/>
       <c r="G1554" t="inlineStr"/>
-      <c r="H1554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1554" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1555">
@@ -51413,10 +51115,8 @@
       </c>
       <c r="F1555" t="inlineStr"/>
       <c r="G1555" t="inlineStr"/>
-      <c r="H1555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1555" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1556">
@@ -51443,10 +51143,8 @@
       </c>
       <c r="F1556" t="inlineStr"/>
       <c r="G1556" t="inlineStr"/>
-      <c r="H1556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1556" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1557">
@@ -51473,10 +51171,8 @@
       </c>
       <c r="F1557" t="inlineStr"/>
       <c r="G1557" t="inlineStr"/>
-      <c r="H1557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1557" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1558">
@@ -51503,10 +51199,8 @@
       </c>
       <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr"/>
-      <c r="H1558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1559">
@@ -51533,10 +51227,8 @@
       </c>
       <c r="F1559" t="inlineStr"/>
       <c r="G1559" t="inlineStr"/>
-      <c r="H1559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1560">
@@ -51563,10 +51255,8 @@
       </c>
       <c r="F1560" t="inlineStr"/>
       <c r="G1560" t="inlineStr"/>
-      <c r="H1560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1561">
@@ -51593,10 +51283,8 @@
       </c>
       <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr"/>
-      <c r="H1561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1562">
@@ -51623,10 +51311,8 @@
       </c>
       <c r="F1562" t="inlineStr"/>
       <c r="G1562" t="inlineStr"/>
-      <c r="H1562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1563">
@@ -51653,10 +51339,8 @@
       </c>
       <c r="F1563" t="inlineStr"/>
       <c r="G1563" t="inlineStr"/>
-      <c r="H1563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1564">
@@ -51679,10 +51363,8 @@
       </c>
       <c r="F1564" t="inlineStr"/>
       <c r="G1564" t="inlineStr"/>
-      <c r="H1564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1565">
@@ -51709,256 +51391,290 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1566" t="inlineStr"/>
-      <c r="C1566" t="inlineStr"/>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C1566" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D1566" t="inlineStr"/>
-      <c r="E1566" t="inlineStr"/>
+      <c r="E1566" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr"/>
-      <c r="H1566" t="inlineStr"/>
+      <c r="G1566" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H1566" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F1567" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F1567" t="inlineStr">
+        <is>
+          <t>42.1</t>
+        </is>
+      </c>
       <c r="G1567" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="H1567" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>$6.83T</t>
-        </is>
-      </c>
-      <c r="F1568" t="inlineStr"/>
-      <c r="G1568" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F1568" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="G1568" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="H1568" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F1569" t="inlineStr"/>
       <c r="G1569" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1570" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F1570" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="G1570" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="H1570" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F1571" t="inlineStr"/>
       <c r="G1571" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="H1571" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F1572" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F1572" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1573" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F1573" t="inlineStr"/>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="H1573" t="inlineStr">
@@ -51970,75 +51686,83 @@
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1574" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F1574" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G1574" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1575" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F1575" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="G1575" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
@@ -52048,23 +51772,23 @@
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1576" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="G1576" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="H1576" t="inlineStr">
@@ -52076,135 +51800,127 @@
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1577" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="G1577" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1578" t="inlineStr"/>
       <c r="G1578" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="H1578" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>ECB President Lagarde Speech</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
-      <c r="E1579" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+      <c r="E1579" t="inlineStr"/>
       <c r="F1579" t="inlineStr"/>
-      <c r="G1579" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G1579" t="inlineStr"/>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
       <c r="E1580" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1580" t="inlineStr"/>
       <c r="G1580" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>91.4</t>
         </is>
       </c>
       <c r="H1580" t="inlineStr">
@@ -52216,61 +51932,61 @@
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
-      <c r="E1581" t="inlineStr">
-        <is>
-          <t>0.25%</t>
-        </is>
-      </c>
-      <c r="F1581" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1581" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1581" t="inlineStr"/>
+      <c r="F1581" t="inlineStr"/>
+      <c r="G1581" t="inlineStr"/>
       <c r="H1581" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
-      <c r="E1582" t="inlineStr"/>
-      <c r="F1582" t="inlineStr"/>
-      <c r="G1582" t="inlineStr"/>
+      <c r="E1582" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="F1582" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="G1582" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
       <c r="H1582" t="inlineStr">
         <is>
           <t>2</t>
@@ -52280,23 +51996,23 @@
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>$625.87B</t>
         </is>
       </c>
       <c r="F1583" t="inlineStr"/>
@@ -52310,199 +52026,203 @@
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1584" t="inlineStr"/>
       <c r="G1584" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1584" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1585" t="inlineStr"/>
       <c r="G1585" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1585" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1586" t="inlineStr"/>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1586" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1587" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1587" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1587" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1587" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1588" t="inlineStr"/>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1588" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1589" t="inlineStr"/>
       <c r="G1589" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1589" t="inlineStr">
@@ -52514,33 +52234,29 @@
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1590" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1590" t="inlineStr"/>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1590" t="inlineStr">
@@ -52552,33 +52268,29 @@
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1591" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1591" t="inlineStr"/>
       <c r="G1591" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1591" t="inlineStr">
@@ -52590,67 +52302,67 @@
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1592" t="inlineStr"/>
       <c r="G1592" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1592" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1593" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1593" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1593" t="inlineStr">
@@ -52662,29 +52374,29 @@
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1594" t="inlineStr"/>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr">
@@ -52696,33 +52408,33 @@
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1595" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1595" t="inlineStr">
@@ -52734,215 +52446,215 @@
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1596" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1596" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1596" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1596" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1597" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1597" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1597" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1598" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1598" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1599" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1599" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1599" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1600" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1600" t="inlineStr"/>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr"/>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1601" t="inlineStr">
@@ -52954,57 +52666,57 @@
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1602" t="inlineStr"/>
-      <c r="E1602" t="inlineStr"/>
+      <c r="E1602" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr"/>
       <c r="H1602" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr"/>
-      <c r="G1603" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1603" t="inlineStr"/>
       <c r="H1603" t="inlineStr">
         <is>
           <t>3</t>
@@ -53014,87 +52726,71 @@
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1604" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1604" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1604" t="inlineStr"/>
+      <c r="C1604" t="inlineStr"/>
       <c r="D1604" t="inlineStr"/>
       <c r="E1604" t="inlineStr"/>
       <c r="F1604" t="inlineStr"/>
       <c r="G1604" t="inlineStr"/>
-      <c r="H1604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1604" t="inlineStr"/>
     </row>
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1605" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1605" t="inlineStr"/>
       <c r="G1605" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1605" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>$625.87B</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr"/>
@@ -53108,31 +52804,27 @@
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr"/>
-      <c r="G1607" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1607" t="inlineStr"/>
       <c r="H1607" t="inlineStr">
         <is>
           <t>3</t>
@@ -53142,31 +52834,27 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr"/>
-      <c r="G1608" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1608" t="inlineStr"/>
       <c r="H1608" t="inlineStr">
         <is>
           <t>3</t>
@@ -53176,31 +52864,23 @@
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
-      <c r="E1609" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1609" t="inlineStr"/>
       <c r="F1609" t="inlineStr"/>
-      <c r="G1609" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1609" t="inlineStr"/>
       <c r="H1609" t="inlineStr">
         <is>
           <t>3</t>
@@ -53210,69 +52890,53 @@
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
-      <c r="E1610" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1610" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1610" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1610" t="inlineStr"/>
+      <c r="F1610" t="inlineStr"/>
+      <c r="G1610" t="inlineStr"/>
       <c r="H1610" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr"/>
-      <c r="G1611" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1611" t="inlineStr"/>
       <c r="H1611" t="inlineStr">
         <is>
           <t>2</t>
@@ -53282,31 +52946,27 @@
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr"/>
-      <c r="G1612" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1612" t="inlineStr"/>
       <c r="H1612" t="inlineStr">
         <is>
           <t>3</t>
@@ -53316,169 +52976,145 @@
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr"/>
-      <c r="G1613" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1613" t="inlineStr"/>
       <c r="H1613" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr"/>
-      <c r="G1614" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1614" t="inlineStr"/>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr"/>
-      <c r="G1615" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1615" t="inlineStr"/>
       <c r="H1615" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:15 PM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
-      <c r="E1616" t="inlineStr">
-        <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1616" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1616" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+      <c r="E1616" t="inlineStr"/>
+      <c r="F1616" t="inlineStr"/>
+      <c r="G1616" t="inlineStr"/>
       <c r="H1616" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>43.5K</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr"/>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
@@ -53490,71 +53126,63 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1618" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1618" t="inlineStr"/>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1618" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1619" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1619" t="inlineStr"/>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1619" t="inlineStr">
@@ -53566,35 +53194,27 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1620" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="G1620" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1620" t="inlineStr"/>
+      <c r="G1620" t="inlineStr"/>
       <c r="H1620" t="inlineStr">
         <is>
           <t>3</t>
@@ -53604,35 +53224,27 @@
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1621" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1621" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1621" t="inlineStr"/>
+      <c r="G1621" t="inlineStr"/>
       <c r="H1621" t="inlineStr">
         <is>
           <t>3</t>
@@ -53642,67 +53254,63 @@
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1622" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>$-0.133B</t>
+        </is>
+      </c>
+      <c r="F1622" t="inlineStr"/>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1623" t="inlineStr">
@@ -53714,7 +53322,7 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
@@ -53724,51 +53332,55 @@
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1624" t="inlineStr"/>
       <c r="G1624" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="H1624" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
       <c r="E1625" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1625" t="inlineStr"/>
-      <c r="G1625" t="inlineStr"/>
+      <c r="G1625" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1625" t="inlineStr">
         <is>
           <t>3</t>
@@ -53778,25 +53390,21 @@
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
-      <c r="E1626" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
+      <c r="E1626" t="inlineStr"/>
       <c r="F1626" t="inlineStr"/>
       <c r="G1626" t="inlineStr"/>
       <c r="H1626" t="inlineStr">
@@ -53808,45 +53416,49 @@
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1627" t="inlineStr"/>
-      <c r="C1627" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1627" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1627" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1627" t="inlineStr"/>
       <c r="E1627" t="inlineStr"/>
       <c r="F1627" t="inlineStr"/>
       <c r="G1627" t="inlineStr"/>
-      <c r="H1627" t="inlineStr"/>
+      <c r="H1627" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1628" t="inlineStr"/>
       <c r="F1628" t="inlineStr"/>
-      <c r="G1628" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1628" t="inlineStr"/>
       <c r="H1628" t="inlineStr">
         <is>
           <t>3</t>
@@ -53856,107 +53468,103 @@
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
-      <c r="E1629" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1629" t="inlineStr"/>
       <c r="F1629" t="inlineStr"/>
       <c r="G1629" t="inlineStr"/>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
-      <c r="E1630" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1630" t="inlineStr"/>
       <c r="F1630" t="inlineStr"/>
-      <c r="G1630" t="inlineStr"/>
+      <c r="G1630" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1630" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
       <c r="E1631" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1631" t="inlineStr"/>
       <c r="G1631" t="inlineStr"/>
       <c r="H1631" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
@@ -53972,17 +53580,17 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
@@ -53998,55 +53606,47 @@
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
-      <c r="E1634" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1634" t="inlineStr"/>
       <c r="F1634" t="inlineStr"/>
       <c r="G1634" t="inlineStr"/>
       <c r="H1634" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1635">
       <c r="A1635" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
-      <c r="E1635" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1635" t="inlineStr"/>
       <c r="F1635" t="inlineStr"/>
       <c r="G1635" t="inlineStr"/>
       <c r="H1635" t="inlineStr">
@@ -54056,59 +53656,63 @@
       </c>
     </row>
     <row r="1636">
-      <c r="A1636" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1636" t="inlineStr"/>
       <c r="B1636" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1636" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1636" t="inlineStr"/>
       <c r="E1636" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1636" t="inlineStr"/>
-      <c r="G1636" t="inlineStr"/>
+      <c r="G1636" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1636" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1637">
-      <c r="A1637" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1637" t="inlineStr"/>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>85.1</t>
-        </is>
-      </c>
-      <c r="F1637" t="inlineStr"/>
-      <c r="G1637" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1637" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1637" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1637" t="inlineStr">
         <is>
           <t>3</t>
@@ -54118,121 +53722,109 @@
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1638" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1638" t="inlineStr">
-        <is>
-          <t>Ifo ExpectationsJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1638" t="inlineStr"/>
+      <c r="C1638" t="inlineStr"/>
       <c r="D1638" t="inlineStr"/>
-      <c r="E1638" t="inlineStr">
-        <is>
-          <t>84.4</t>
-        </is>
-      </c>
+      <c r="E1638" t="inlineStr"/>
       <c r="F1638" t="inlineStr"/>
       <c r="G1638" t="inlineStr"/>
-      <c r="H1638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1638" t="inlineStr"/>
     </row>
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr"/>
-      <c r="E1639" t="inlineStr"/>
+      <c r="E1639" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1639" t="inlineStr"/>
-      <c r="G1639" t="inlineStr"/>
+      <c r="G1639" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1639" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1640" t="inlineStr"/>
       <c r="G1640" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1640" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1641" t="inlineStr"/>
-      <c r="G1641" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1641" t="inlineStr"/>
       <c r="H1641" t="inlineStr">
         <is>
           <t>3</t>
@@ -54242,29 +53834,29 @@
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1642" t="inlineStr"/>
       <c r="G1642" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1642" t="inlineStr">
@@ -54276,27 +53868,31 @@
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1643" t="inlineStr"/>
-      <c r="G1643" t="inlineStr"/>
+      <c r="G1643" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1643" t="inlineStr">
         <is>
           <t>3</t>
@@ -54306,27 +53902,31 @@
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1644" t="inlineStr"/>
-      <c r="G1644" t="inlineStr"/>
+      <c r="G1644" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1644" t="inlineStr">
         <is>
           <t>3</t>
@@ -54336,97 +53936,93 @@
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1645" t="inlineStr"/>
       <c r="G1645" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1645" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr"/>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1646" t="inlineStr"/>
-      <c r="G1646" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1646" t="inlineStr"/>
       <c r="H1646" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1647" t="inlineStr"/>
       <c r="E1647" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1647" t="inlineStr"/>
       <c r="G1647" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1647" t="inlineStr">
@@ -54438,31 +54034,27 @@
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1648" t="inlineStr"/>
       <c r="E1648" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1648" t="inlineStr"/>
-      <c r="G1648" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1648" t="inlineStr"/>
       <c r="H1648" t="inlineStr">
         <is>
           <t>3</t>
@@ -54472,17 +54064,17 @@
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1649" t="inlineStr"/>
@@ -54498,17 +54090,17 @@
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1650" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1650" t="inlineStr"/>
@@ -54524,17 +54116,17 @@
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1651" t="inlineStr"/>
@@ -54550,702 +54142,28 @@
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1652" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1652" t="inlineStr"/>
-      <c r="E1652" t="inlineStr"/>
+      <c r="E1652" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1652" t="inlineStr"/>
       <c r="G1652" t="inlineStr"/>
       <c r="H1652" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1653">
-      <c r="A1653" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1653" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1653" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1653" t="inlineStr"/>
-      <c r="E1653" t="inlineStr"/>
-      <c r="F1653" t="inlineStr"/>
-      <c r="G1653" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1653" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1654">
-      <c r="A1654" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1654" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1654" t="inlineStr">
-        <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1654" t="inlineStr"/>
-      <c r="E1654" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="F1654" t="inlineStr"/>
-      <c r="G1654" t="inlineStr"/>
-      <c r="H1654" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1655">
-      <c r="A1655" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1655" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1655" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1655" t="inlineStr"/>
-      <c r="E1655" t="inlineStr"/>
-      <c r="F1655" t="inlineStr"/>
-      <c r="G1655" t="inlineStr"/>
-      <c r="H1655" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1656">
-      <c r="A1656" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1656" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1656" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1656" t="inlineStr"/>
-      <c r="E1656" t="inlineStr"/>
-      <c r="F1656" t="inlineStr"/>
-      <c r="G1656" t="inlineStr"/>
-      <c r="H1656" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1657">
-      <c r="A1657" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1657" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1657" t="inlineStr">
-        <is>
-          <t>2-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1657" t="inlineStr"/>
-      <c r="E1657" t="inlineStr"/>
-      <c r="F1657" t="inlineStr"/>
-      <c r="G1657" t="inlineStr"/>
-      <c r="H1657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1658">
-      <c r="A1658" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1658" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1658" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1658" t="inlineStr"/>
-      <c r="E1658" t="inlineStr"/>
-      <c r="F1658" t="inlineStr"/>
-      <c r="G1658" t="inlineStr"/>
-      <c r="H1658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1659">
-      <c r="A1659" t="inlineStr"/>
-      <c r="B1659" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1659" t="inlineStr">
-        <is>
-          <t>Building Permits FinalDEC</t>
-        </is>
-      </c>
-      <c r="D1659" t="inlineStr"/>
-      <c r="E1659" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1659" t="inlineStr"/>
-      <c r="G1659" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
-      <c r="H1659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1660">
-      <c r="A1660" t="inlineStr"/>
-      <c r="B1660" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1660" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D1660" t="inlineStr"/>
-      <c r="E1660" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1660" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1660" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H1660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1661">
-      <c r="A1661" t="inlineStr">
-        <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1661" t="inlineStr"/>
-      <c r="C1661" t="inlineStr"/>
-      <c r="D1661" t="inlineStr"/>
-      <c r="E1661" t="inlineStr"/>
-      <c r="F1661" t="inlineStr"/>
-      <c r="G1661" t="inlineStr"/>
-      <c r="H1661" t="inlineStr"/>
-    </row>
-    <row r="1662">
-      <c r="A1662" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1662" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1662" t="inlineStr">
-        <is>
-          <t>NAB Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D1662" t="inlineStr"/>
-      <c r="E1662" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F1662" t="inlineStr"/>
-      <c r="G1662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H1662" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1663">
-      <c r="A1663" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B1663" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1663" t="inlineStr">
-        <is>
-          <t>Unemployment Rate PrelQ4</t>
-        </is>
-      </c>
-      <c r="D1663" t="inlineStr"/>
-      <c r="E1663" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F1663" t="inlineStr"/>
-      <c r="G1663" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
-      <c r="H1663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1664">
-      <c r="A1664" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1664" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1664" t="inlineStr">
-        <is>
-          <t>6-Month T-Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1664" t="inlineStr"/>
-      <c r="E1664" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
-      <c r="F1664" t="inlineStr"/>
-      <c r="G1664" t="inlineStr"/>
-      <c r="H1664" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1665">
-      <c r="A1665" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1665" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1665" t="inlineStr">
-        <is>
-          <t>Export Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1665" t="inlineStr"/>
-      <c r="E1665" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
-      <c r="F1665" t="inlineStr"/>
-      <c r="G1665" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="H1665" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1666">
-      <c r="A1666" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1666" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1666" t="inlineStr">
-        <is>
-          <t>Import Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1666" t="inlineStr"/>
-      <c r="E1666" t="inlineStr">
-        <is>
-          <t>-5.1%</t>
-        </is>
-      </c>
-      <c r="F1666" t="inlineStr"/>
-      <c r="G1666" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="H1666" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1667">
-      <c r="A1667" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1667" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1667" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1667" t="inlineStr"/>
-      <c r="E1667" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F1667" t="inlineStr"/>
-      <c r="G1667" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H1667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1668">
-      <c r="A1668" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B1668" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1668" t="inlineStr">
-        <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1668" t="inlineStr"/>
-      <c r="E1668" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="F1668" t="inlineStr"/>
-      <c r="G1668" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H1668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1669">
-      <c r="A1669" t="inlineStr">
-        <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
-      <c r="B1669" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1669" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1669" t="inlineStr"/>
-      <c r="E1669" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="F1669" t="inlineStr"/>
-      <c r="G1669" t="inlineStr"/>
-      <c r="H1669" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1670">
-      <c r="A1670" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B1670" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1670" t="inlineStr">
-        <is>
-          <t>Unemployment RateQ4</t>
-        </is>
-      </c>
-      <c r="D1670" t="inlineStr"/>
-      <c r="E1670" t="inlineStr">
-        <is>
-          <t>11.21%</t>
-        </is>
-      </c>
-      <c r="F1670" t="inlineStr"/>
-      <c r="G1670" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
-      <c r="H1670" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1671">
-      <c r="A1671" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1671" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1671" t="inlineStr">
-        <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D1671" t="inlineStr"/>
-      <c r="E1671" t="inlineStr">
-        <is>
-          <t>0.745%</t>
-        </is>
-      </c>
-      <c r="F1671" t="inlineStr"/>
-      <c r="G1671" t="inlineStr"/>
-      <c r="H1671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1672">
-      <c r="A1672" t="inlineStr">
-        <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1672" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1672" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
-      <c r="D1672" t="inlineStr"/>
-      <c r="E1672" t="inlineStr"/>
-      <c r="F1672" t="inlineStr"/>
-      <c r="G1672" t="inlineStr"/>
-      <c r="H1672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1673">
-      <c r="A1673" t="inlineStr">
-        <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1673" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1673" t="inlineStr">
-        <is>
-          <t>2-Year BTP Short Term Auction</t>
-        </is>
-      </c>
-      <c r="D1673" t="inlineStr"/>
-      <c r="E1673" t="inlineStr"/>
-      <c r="F1673" t="inlineStr"/>
-      <c r="G1673" t="inlineStr"/>
-      <c r="H1673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1674">
-      <c r="A1674" t="inlineStr">
-        <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1674" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1674" t="inlineStr">
-        <is>
-          <t>BTP€i Auction</t>
-        </is>
-      </c>
-      <c r="D1674" t="inlineStr"/>
-      <c r="E1674" t="inlineStr"/>
-      <c r="F1674" t="inlineStr"/>
-      <c r="G1674" t="inlineStr"/>
-      <c r="H1674" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1675">
-      <c r="A1675" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1675" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1675" t="inlineStr">
-        <is>
-          <t>2-Year Schatz Auction</t>
-        </is>
-      </c>
-      <c r="D1675" t="inlineStr"/>
-      <c r="E1675" t="inlineStr">
-        <is>
-          <t>2.18%</t>
-        </is>
-      </c>
-      <c r="F1675" t="inlineStr"/>
-      <c r="G1675" t="inlineStr"/>
-      <c r="H1675" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1683"/>
+  <dimension ref="A1:H1664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46555,10 +46555,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1406">
@@ -46593,10 +46591,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1407">
@@ -46631,10 +46627,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1408">
@@ -46665,10 +46659,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -46703,10 +46695,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -46737,10 +46727,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -46775,10 +46763,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -46809,10 +46795,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1413">
@@ -46847,10 +46831,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1414">
@@ -46881,10 +46863,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1415">
@@ -46915,10 +46895,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1416">
@@ -46945,10 +46923,8 @@
       </c>
       <c r="F1416" t="inlineStr"/>
       <c r="G1416" t="inlineStr"/>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1417">
@@ -46975,10 +46951,8 @@
       </c>
       <c r="F1417" t="inlineStr"/>
       <c r="G1417" t="inlineStr"/>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1418">
@@ -47009,10 +46983,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -47043,10 +47015,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1420">
@@ -47073,10 +47043,8 @@
       </c>
       <c r="F1420" t="inlineStr"/>
       <c r="G1420" t="inlineStr"/>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1421">
@@ -47103,10 +47071,8 @@
       </c>
       <c r="F1421" t="inlineStr"/>
       <c r="G1421" t="inlineStr"/>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1422">
@@ -47133,10 +47099,8 @@
       </c>
       <c r="F1422" t="inlineStr"/>
       <c r="G1422" t="inlineStr"/>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -47159,10 +47123,8 @@
       <c r="E1423" t="inlineStr"/>
       <c r="F1423" t="inlineStr"/>
       <c r="G1423" t="inlineStr"/>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1424">
@@ -47193,10 +47155,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1425">
@@ -47227,10 +47187,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1426">
@@ -47249,10 +47207,8 @@
       <c r="E1426" t="inlineStr"/>
       <c r="F1426" t="inlineStr"/>
       <c r="G1426" t="inlineStr"/>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -47275,10 +47231,8 @@
       </c>
       <c r="F1427" t="inlineStr"/>
       <c r="G1427" t="inlineStr"/>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -47305,10 +47259,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1429">
@@ -47327,10 +47279,8 @@
       <c r="E1429" t="inlineStr"/>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1430">
@@ -47357,10 +47307,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -47387,10 +47335,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -47409,10 +47355,8 @@
       <c r="E1432" t="inlineStr"/>
       <c r="F1432" t="inlineStr"/>
       <c r="G1432" t="inlineStr"/>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -47461,10 +47405,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1435">
@@ -47495,10 +47437,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1436">
@@ -47529,10 +47469,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1437">
@@ -47559,10 +47497,8 @@
       </c>
       <c r="F1437" t="inlineStr"/>
       <c r="G1437" t="inlineStr"/>
-      <c r="H1437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1438">
@@ -47589,10 +47525,8 @@
       </c>
       <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr"/>
-      <c r="H1438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1439">
@@ -47619,10 +47553,8 @@
       </c>
       <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="inlineStr"/>
-      <c r="H1439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1440">
@@ -47653,10 +47585,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1440" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1440" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1441">
@@ -47691,10 +47621,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1441" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1441" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1442">
@@ -47729,10 +47657,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1442" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1442" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1443">
@@ -47763,10 +47689,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1443" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1443" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1444">
@@ -47801,10 +47725,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1445">
@@ -47839,10 +47761,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1446">
@@ -47873,10 +47793,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1447">
@@ -47907,10 +47825,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1448">
@@ -47941,10 +47857,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1449">
@@ -47975,10 +47889,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1450">
@@ -48013,10 +47925,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1450" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1450" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1451">
@@ -48051,10 +47961,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1451" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1451" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1452">
@@ -48089,10 +47997,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1453">
@@ -48119,10 +48025,8 @@
       </c>
       <c r="F1453" t="inlineStr"/>
       <c r="G1453" t="inlineStr"/>
-      <c r="H1453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1454">
@@ -48149,10 +48053,8 @@
       </c>
       <c r="F1454" t="inlineStr"/>
       <c r="G1454" t="inlineStr"/>
-      <c r="H1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1455">
@@ -48183,10 +48085,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1456">
@@ -48217,10 +48117,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1457">
@@ -48255,10 +48153,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1457" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1457" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1458">
@@ -48289,10 +48185,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1458" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1458" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1459">
@@ -48327,10 +48221,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1459" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1459" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1460">
@@ -48361,10 +48253,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1460" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1461">
@@ -48399,10 +48289,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1461" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1462">
@@ -48437,10 +48325,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1463">
@@ -48467,10 +48353,8 @@
       </c>
       <c r="F1463" t="inlineStr"/>
       <c r="G1463" t="inlineStr"/>
-      <c r="H1463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1464">
@@ -48497,10 +48381,8 @@
       </c>
       <c r="F1464" t="inlineStr"/>
       <c r="G1464" t="inlineStr"/>
-      <c r="H1464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1465">
@@ -48527,10 +48409,8 @@
       </c>
       <c r="F1465" t="inlineStr"/>
       <c r="G1465" t="inlineStr"/>
-      <c r="H1465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1466">
@@ -48557,10 +48437,8 @@
       </c>
       <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr"/>
-      <c r="H1466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1466" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1467">
@@ -48579,10 +48457,8 @@
       <c r="E1467" t="inlineStr"/>
       <c r="F1467" t="inlineStr"/>
       <c r="G1467" t="inlineStr"/>
-      <c r="H1467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1468">
@@ -48627,10 +48503,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1469" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1469" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1470">
@@ -48661,10 +48535,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1470" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1471">
@@ -48699,10 +48571,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1471" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1471" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1472">
@@ -48733,10 +48603,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1472" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1472" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1473">
@@ -48767,10 +48635,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1473" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1473" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1474">
@@ -48801,10 +48667,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1474" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1475">
@@ -48835,10 +48699,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1475" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1476">
@@ -48865,10 +48727,8 @@
       </c>
       <c r="F1476" t="inlineStr"/>
       <c r="G1476" t="inlineStr"/>
-      <c r="H1476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1477">
@@ -48899,10 +48759,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1478">
@@ -48933,10 +48791,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1479">
@@ -48963,10 +48819,8 @@
       </c>
       <c r="F1479" t="inlineStr"/>
       <c r="G1479" t="inlineStr"/>
-      <c r="H1479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1480">
@@ -48993,10 +48847,8 @@
       </c>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr"/>
-      <c r="H1480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1481">
@@ -49023,10 +48875,8 @@
       </c>
       <c r="F1481" t="inlineStr"/>
       <c r="G1481" t="inlineStr"/>
-      <c r="H1481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1482">
@@ -49053,10 +48903,8 @@
       </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
-      <c r="H1482" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1482" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1483">
@@ -49083,10 +48931,8 @@
       </c>
       <c r="F1483" t="inlineStr"/>
       <c r="G1483" t="inlineStr"/>
-      <c r="H1483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1484">
@@ -49113,10 +48959,8 @@
       </c>
       <c r="F1484" t="inlineStr"/>
       <c r="G1484" t="inlineStr"/>
-      <c r="H1484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1484" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1485">
@@ -49143,10 +48987,8 @@
       </c>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr"/>
-      <c r="H1485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1486">
@@ -49173,10 +49015,8 @@
       </c>
       <c r="F1486" t="inlineStr"/>
       <c r="G1486" t="inlineStr"/>
-      <c r="H1486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1487">
@@ -49207,10 +49047,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1488">
@@ -49241,10 +49079,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1489">
@@ -49275,10 +49111,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1490">
@@ -49309,10 +49143,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1491">
@@ -49339,10 +49171,8 @@
       </c>
       <c r="F1491" t="inlineStr"/>
       <c r="G1491" t="inlineStr"/>
-      <c r="H1491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1492">
@@ -49377,10 +49207,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1493">
@@ -49403,10 +49231,8 @@
       <c r="E1493" t="inlineStr"/>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr"/>
-      <c r="H1493" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1493" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1494">
@@ -49433,10 +49259,8 @@
       </c>
       <c r="F1494" t="inlineStr"/>
       <c r="G1494" t="inlineStr"/>
-      <c r="H1494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1495">
@@ -49463,10 +49287,8 @@
       </c>
       <c r="F1495" t="inlineStr"/>
       <c r="G1495" t="inlineStr"/>
-      <c r="H1495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1496">
@@ -49511,10 +49333,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1498">
@@ -49545,10 +49365,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1498" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1498" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1499">
@@ -49575,10 +49393,8 @@
       </c>
       <c r="F1499" t="inlineStr"/>
       <c r="G1499" t="inlineStr"/>
-      <c r="H1499" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1499" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1500">
@@ -49613,10 +49429,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1500" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1500" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1501">
@@ -49651,10 +49465,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1501" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1502">
@@ -49689,10 +49501,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1502" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1502" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1503">
@@ -49727,10 +49537,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1503" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1503" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1504">
@@ -49757,10 +49565,8 @@
       </c>
       <c r="F1504" t="inlineStr"/>
       <c r="G1504" t="inlineStr"/>
-      <c r="H1504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1504" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1505">
@@ -49795,10 +49601,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1505" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1506">
@@ -49825,10 +49629,8 @@
       </c>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr"/>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1507">
@@ -49855,10 +49657,8 @@
       </c>
       <c r="F1507" t="inlineStr"/>
       <c r="G1507" t="inlineStr"/>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1508">
@@ -49885,10 +49685,8 @@
       </c>
       <c r="F1508" t="inlineStr"/>
       <c r="G1508" t="inlineStr"/>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1509">
@@ -49915,10 +49713,8 @@
       </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr"/>
-      <c r="H1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1510">
@@ -49949,10 +49745,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1511">
@@ -49983,10 +49777,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1512">
@@ -50017,10 +49809,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1513">
@@ -50051,10 +49841,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1514">
@@ -50081,10 +49869,8 @@
       </c>
       <c r="F1514" t="inlineStr"/>
       <c r="G1514" t="inlineStr"/>
-      <c r="H1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1515">
@@ -50111,10 +49897,8 @@
       </c>
       <c r="F1515" t="inlineStr"/>
       <c r="G1515" t="inlineStr"/>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1516">
@@ -50145,10 +49929,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1516" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1517">
@@ -50183,10 +49965,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1517" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1518">
@@ -50217,10 +49997,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1519">
@@ -50247,10 +50025,8 @@
       </c>
       <c r="F1519" t="inlineStr"/>
       <c r="G1519" t="inlineStr"/>
-      <c r="H1519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1519" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1520">
@@ -50277,10 +50053,8 @@
       </c>
       <c r="F1520" t="inlineStr"/>
       <c r="G1520" t="inlineStr"/>
-      <c r="H1520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1521">
@@ -50307,10 +50081,8 @@
       </c>
       <c r="F1521" t="inlineStr"/>
       <c r="G1521" t="inlineStr"/>
-      <c r="H1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1522">
@@ -50337,10 +50109,8 @@
       </c>
       <c r="F1522" t="inlineStr"/>
       <c r="G1522" t="inlineStr"/>
-      <c r="H1522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1523">
@@ -50367,10 +50137,8 @@
       </c>
       <c r="F1523" t="inlineStr"/>
       <c r="G1523" t="inlineStr"/>
-      <c r="H1523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1524">
@@ -50397,10 +50165,8 @@
       </c>
       <c r="F1524" t="inlineStr"/>
       <c r="G1524" t="inlineStr"/>
-      <c r="H1524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1525">
@@ -50427,10 +50193,8 @@
       </c>
       <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="inlineStr"/>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1526">
@@ -50457,10 +50221,8 @@
       </c>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1527">
@@ -50491,10 +50253,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1528">
@@ -50525,10 +50285,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1528" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1528" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1529">
@@ -50563,10 +50321,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1529" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1529" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1530">
@@ -50597,10 +50353,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1530" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1531">
@@ -50631,10 +50385,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1531" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1531" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1532">
@@ -50669,10 +50421,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1532" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1532" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1533">
@@ -50699,10 +50449,8 @@
       </c>
       <c r="F1533" t="inlineStr"/>
       <c r="G1533" t="inlineStr"/>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1534">
@@ -50733,10 +50481,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1535">
@@ -50767,10 +50513,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1536">
@@ -50801,10 +50545,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1537">
@@ -50835,10 +50577,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1538">
@@ -50873,10 +50613,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1538" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1538" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1539">
@@ -50911,10 +50649,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1539" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1539" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1540">
@@ -50937,10 +50673,8 @@
       <c r="E1540" t="inlineStr"/>
       <c r="F1540" t="inlineStr"/>
       <c r="G1540" t="inlineStr"/>
-      <c r="H1540" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1540" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1541">
@@ -50971,10 +50705,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1542">
@@ -51009,10 +50741,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1542" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1542" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1543">
@@ -51043,10 +50773,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1544">
@@ -51077,10 +50805,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1545">
@@ -51115,10 +50841,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1545" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1545" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1546">
@@ -51145,10 +50869,8 @@
       </c>
       <c r="F1546" t="inlineStr"/>
       <c r="G1546" t="inlineStr"/>
-      <c r="H1546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1547">
@@ -51175,10 +50897,8 @@
       </c>
       <c r="F1547" t="inlineStr"/>
       <c r="G1547" t="inlineStr"/>
-      <c r="H1547" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1547" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1548">
@@ -51205,10 +50925,8 @@
       </c>
       <c r="F1548" t="inlineStr"/>
       <c r="G1548" t="inlineStr"/>
-      <c r="H1548" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1548" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1549">
@@ -51235,10 +50953,8 @@
       </c>
       <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr"/>
-      <c r="H1549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1550">
@@ -51265,10 +50981,8 @@
       </c>
       <c r="F1550" t="inlineStr"/>
       <c r="G1550" t="inlineStr"/>
-      <c r="H1550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1551">
@@ -51295,10 +51009,8 @@
       </c>
       <c r="F1551" t="inlineStr"/>
       <c r="G1551" t="inlineStr"/>
-      <c r="H1551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1552">
@@ -51325,10 +51037,8 @@
       </c>
       <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr"/>
-      <c r="H1552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1553">
@@ -51355,10 +51065,8 @@
       </c>
       <c r="F1553" t="inlineStr"/>
       <c r="G1553" t="inlineStr"/>
-      <c r="H1553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1554">
@@ -51385,10 +51093,8 @@
       </c>
       <c r="F1554" t="inlineStr"/>
       <c r="G1554" t="inlineStr"/>
-      <c r="H1554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1554" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1555">
@@ -51415,10 +51121,8 @@
       </c>
       <c r="F1555" t="inlineStr"/>
       <c r="G1555" t="inlineStr"/>
-      <c r="H1555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1555" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1556">
@@ -51445,10 +51149,8 @@
       </c>
       <c r="F1556" t="inlineStr"/>
       <c r="G1556" t="inlineStr"/>
-      <c r="H1556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1556" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1557">
@@ -51475,10 +51177,8 @@
       </c>
       <c r="F1557" t="inlineStr"/>
       <c r="G1557" t="inlineStr"/>
-      <c r="H1557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1557" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1558">
@@ -51505,10 +51205,8 @@
       </c>
       <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr"/>
-      <c r="H1558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1559">
@@ -51535,10 +51233,8 @@
       </c>
       <c r="F1559" t="inlineStr"/>
       <c r="G1559" t="inlineStr"/>
-      <c r="H1559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1560">
@@ -51565,10 +51261,8 @@
       </c>
       <c r="F1560" t="inlineStr"/>
       <c r="G1560" t="inlineStr"/>
-      <c r="H1560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1561">
@@ -51595,10 +51289,8 @@
       </c>
       <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr"/>
-      <c r="H1561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1562">
@@ -51621,10 +51313,8 @@
       </c>
       <c r="F1562" t="inlineStr"/>
       <c r="G1562" t="inlineStr"/>
-      <c r="H1562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1563">
@@ -51651,256 +51341,290 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1564" t="inlineStr"/>
-      <c r="C1564" t="inlineStr"/>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C1564" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D1564" t="inlineStr"/>
-      <c r="E1564" t="inlineStr"/>
+      <c r="E1564" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1564" t="inlineStr"/>
-      <c r="G1564" t="inlineStr"/>
-      <c r="H1564" t="inlineStr"/>
+      <c r="G1564" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H1564" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F1565" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F1565" t="inlineStr">
+        <is>
+          <t>42.1</t>
+        </is>
+      </c>
       <c r="G1565" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="H1565" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
       <c r="E1566" t="inlineStr">
         <is>
-          <t>$6.83T</t>
-        </is>
-      </c>
-      <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F1566" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="G1566" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="H1566" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F1567" t="inlineStr"/>
       <c r="G1567" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H1567" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1568" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F1568" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="G1568" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="H1568" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F1569" t="inlineStr"/>
       <c r="G1569" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F1570" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F1570" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="G1570" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1570" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1571" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F1571" t="inlineStr"/>
       <c r="G1571" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="H1571" t="inlineStr">
@@ -51912,75 +51636,83 @@
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1572" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F1572" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1573" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F1573" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H1573" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
@@ -51990,23 +51722,23 @@
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1574" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="G1574" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="H1574" t="inlineStr">
@@ -52018,135 +51750,127 @@
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1575" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="G1575" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1576" t="inlineStr"/>
       <c r="G1576" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="H1576" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>ECB President Lagarde Speech</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
-      <c r="E1577" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+      <c r="E1577" t="inlineStr"/>
       <c r="F1577" t="inlineStr"/>
-      <c r="G1577" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G1577" t="inlineStr"/>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1578" t="inlineStr"/>
       <c r="G1578" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>91.4</t>
         </is>
       </c>
       <c r="H1578" t="inlineStr">
@@ -52158,61 +51882,61 @@
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
-      <c r="E1579" t="inlineStr">
-        <is>
-          <t>0.25%</t>
-        </is>
-      </c>
-      <c r="F1579" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1579" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1579" t="inlineStr"/>
+      <c r="F1579" t="inlineStr"/>
+      <c r="G1579" t="inlineStr"/>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
-      <c r="E1580" t="inlineStr"/>
-      <c r="F1580" t="inlineStr"/>
-      <c r="G1580" t="inlineStr"/>
+      <c r="E1580" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="F1580" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="G1580" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
       <c r="H1580" t="inlineStr">
         <is>
           <t>2</t>
@@ -52222,23 +51946,23 @@
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>$625.87B</t>
         </is>
       </c>
       <c r="F1581" t="inlineStr"/>
@@ -52252,199 +51976,203 @@
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
       <c r="E1582" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1582" t="inlineStr"/>
       <c r="G1582" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1582" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1583" t="inlineStr"/>
       <c r="G1583" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1583" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1584" t="inlineStr"/>
       <c r="G1584" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1584" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1585" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1585" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1585" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1585" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1586" t="inlineStr"/>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1586" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1587" t="inlineStr"/>
       <c r="G1587" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1587" t="inlineStr">
@@ -52456,33 +52184,29 @@
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1588" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1588" t="inlineStr"/>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1588" t="inlineStr">
@@ -52494,33 +52218,29 @@
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1589" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1589" t="inlineStr"/>
       <c r="G1589" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1589" t="inlineStr">
@@ -52532,67 +52252,67 @@
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1590" t="inlineStr"/>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1590" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1591" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1591" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1591" t="inlineStr">
@@ -52604,29 +52324,29 @@
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1592" t="inlineStr"/>
       <c r="G1592" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1592" t="inlineStr">
@@ -52638,33 +52358,33 @@
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1593" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1593" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1593" t="inlineStr">
@@ -52676,215 +52396,215 @@
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1594" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1594" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1595" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1595" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1596" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1596" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1596" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1597" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1597" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1597" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1598" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1598" t="inlineStr"/>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1598" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1599" t="inlineStr"/>
       <c r="G1599" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1599" t="inlineStr">
@@ -52896,57 +52616,57 @@
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
-      <c r="E1600" t="inlineStr"/>
+      <c r="E1600" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1600" t="inlineStr"/>
       <c r="G1600" t="inlineStr"/>
       <c r="H1600" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr"/>
-      <c r="G1601" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1601" t="inlineStr"/>
       <c r="H1601" t="inlineStr">
         <is>
           <t>3</t>
@@ -52956,87 +52676,71 @@
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1602" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1602" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr"/>
+      <c r="C1602" t="inlineStr"/>
       <c r="D1602" t="inlineStr"/>
       <c r="E1602" t="inlineStr"/>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr"/>
-      <c r="H1602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1602" t="inlineStr"/>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1603" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1603" t="inlineStr"/>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1603" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>$625.87B</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr"/>
@@ -53050,31 +52754,27 @@
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr"/>
-      <c r="G1605" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1605" t="inlineStr"/>
       <c r="H1605" t="inlineStr">
         <is>
           <t>3</t>
@@ -53084,31 +52784,27 @@
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr"/>
-      <c r="G1606" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1606" t="inlineStr"/>
       <c r="H1606" t="inlineStr">
         <is>
           <t>3</t>
@@ -53118,31 +52814,23 @@
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
-      <c r="E1607" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1607" t="inlineStr"/>
       <c r="F1607" t="inlineStr"/>
-      <c r="G1607" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1607" t="inlineStr"/>
       <c r="H1607" t="inlineStr">
         <is>
           <t>3</t>
@@ -53152,69 +52840,53 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
-      <c r="E1608" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1608" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1608" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1608" t="inlineStr"/>
+      <c r="F1608" t="inlineStr"/>
+      <c r="G1608" t="inlineStr"/>
       <c r="H1608" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr"/>
-      <c r="G1609" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1609" t="inlineStr"/>
       <c r="H1609" t="inlineStr">
         <is>
           <t>2</t>
@@ -53224,31 +52896,27 @@
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr"/>
-      <c r="G1610" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1610" t="inlineStr"/>
       <c r="H1610" t="inlineStr">
         <is>
           <t>3</t>
@@ -53258,169 +52926,145 @@
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr"/>
-      <c r="G1611" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1611" t="inlineStr"/>
       <c r="H1611" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr"/>
-      <c r="G1612" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1612" t="inlineStr"/>
       <c r="H1612" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr"/>
-      <c r="G1613" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1613" t="inlineStr"/>
       <c r="H1613" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:15 PM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
-      <c r="E1614" t="inlineStr">
-        <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1614" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1614" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+      <c r="E1614" t="inlineStr"/>
+      <c r="F1614" t="inlineStr"/>
+      <c r="G1614" t="inlineStr"/>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>43.5K</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr"/>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
@@ -53432,71 +53076,63 @@
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1616" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1616" t="inlineStr"/>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1616" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1617" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1617" t="inlineStr"/>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
@@ -53508,35 +53144,27 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1618" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="G1618" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1618" t="inlineStr"/>
+      <c r="G1618" t="inlineStr"/>
       <c r="H1618" t="inlineStr">
         <is>
           <t>3</t>
@@ -53546,35 +53174,27 @@
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1619" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1619" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1619" t="inlineStr"/>
+      <c r="G1619" t="inlineStr"/>
       <c r="H1619" t="inlineStr">
         <is>
           <t>3</t>
@@ -53584,67 +53204,63 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1620" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>$-0.133B</t>
+        </is>
+      </c>
+      <c r="F1620" t="inlineStr"/>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1620" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr"/>
       <c r="G1621" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1621" t="inlineStr">
@@ -53656,7 +53272,7 @@
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
@@ -53666,51 +53282,55 @@
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr"/>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
-      <c r="G1623" t="inlineStr"/>
+      <c r="G1623" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1623" t="inlineStr">
         <is>
           <t>3</t>
@@ -53720,25 +53340,21 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
-      <c r="E1624" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
+      <c r="E1624" t="inlineStr"/>
       <c r="F1624" t="inlineStr"/>
       <c r="G1624" t="inlineStr"/>
       <c r="H1624" t="inlineStr">
@@ -53750,45 +53366,49 @@
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1625" t="inlineStr"/>
-      <c r="C1625" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1625" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1625" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1625" t="inlineStr"/>
       <c r="E1625" t="inlineStr"/>
       <c r="F1625" t="inlineStr"/>
       <c r="G1625" t="inlineStr"/>
-      <c r="H1625" t="inlineStr"/>
+      <c r="H1625" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
-      <c r="E1626" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1626" t="inlineStr"/>
       <c r="F1626" t="inlineStr"/>
-      <c r="G1626" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1626" t="inlineStr"/>
       <c r="H1626" t="inlineStr">
         <is>
           <t>3</t>
@@ -53798,107 +53418,103 @@
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
-      <c r="E1627" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1627" t="inlineStr"/>
       <c r="F1627" t="inlineStr"/>
       <c r="G1627" t="inlineStr"/>
       <c r="H1627" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1628" t="inlineStr"/>
       <c r="F1628" t="inlineStr"/>
-      <c r="G1628" t="inlineStr"/>
+      <c r="G1628" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1628" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1629" t="inlineStr"/>
       <c r="G1629" t="inlineStr"/>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
@@ -53914,17 +53530,17 @@
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
@@ -53940,55 +53556,47 @@
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
-      <c r="E1632" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1632" t="inlineStr"/>
       <c r="F1632" t="inlineStr"/>
       <c r="G1632" t="inlineStr"/>
       <c r="H1632" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
-      <c r="E1633" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1633" t="inlineStr"/>
       <c r="F1633" t="inlineStr"/>
       <c r="G1633" t="inlineStr"/>
       <c r="H1633" t="inlineStr">
@@ -53998,59 +53606,63 @@
       </c>
     </row>
     <row r="1634">
-      <c r="A1634" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1634" t="inlineStr"/>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
       <c r="E1634" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1634" t="inlineStr"/>
-      <c r="G1634" t="inlineStr"/>
+      <c r="G1634" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1634" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1635">
-      <c r="A1635" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1635" t="inlineStr"/>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
       <c r="E1635" t="inlineStr">
         <is>
-          <t>85.1</t>
-        </is>
-      </c>
-      <c r="F1635" t="inlineStr"/>
-      <c r="G1635" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1635" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1635" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1635" t="inlineStr">
         <is>
           <t>3</t>
@@ -54060,121 +53672,109 @@
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1636" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1636" t="inlineStr">
-        <is>
-          <t>Ifo ExpectationsJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1636" t="inlineStr"/>
+      <c r="C1636" t="inlineStr"/>
       <c r="D1636" t="inlineStr"/>
-      <c r="E1636" t="inlineStr">
-        <is>
-          <t>84.4</t>
-        </is>
-      </c>
+      <c r="E1636" t="inlineStr"/>
       <c r="F1636" t="inlineStr"/>
       <c r="G1636" t="inlineStr"/>
-      <c r="H1636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1636" t="inlineStr"/>
     </row>
     <row r="1637">
       <c r="A1637" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
-      <c r="E1637" t="inlineStr"/>
+      <c r="E1637" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1637" t="inlineStr"/>
-      <c r="G1637" t="inlineStr"/>
+      <c r="G1637" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1637" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1638" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1638" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1638" t="inlineStr"/>
       <c r="E1638" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1638" t="inlineStr"/>
       <c r="G1638" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1638" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr"/>
       <c r="E1639" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1639" t="inlineStr"/>
-      <c r="G1639" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1639" t="inlineStr"/>
       <c r="H1639" t="inlineStr">
         <is>
           <t>3</t>
@@ -54184,29 +53784,29 @@
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1640" t="inlineStr"/>
       <c r="G1640" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1640" t="inlineStr">
@@ -54218,27 +53818,31 @@
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1641" t="inlineStr"/>
-      <c r="G1641" t="inlineStr"/>
+      <c r="G1641" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1641" t="inlineStr">
         <is>
           <t>3</t>
@@ -54248,27 +53852,31 @@
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1642" t="inlineStr"/>
-      <c r="G1642" t="inlineStr"/>
+      <c r="G1642" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1642" t="inlineStr">
         <is>
           <t>3</t>
@@ -54278,97 +53886,93 @@
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1643" t="inlineStr"/>
       <c r="G1643" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1643" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1644" t="inlineStr"/>
-      <c r="G1644" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1644" t="inlineStr"/>
       <c r="H1644" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1645" t="inlineStr"/>
       <c r="G1645" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1645" t="inlineStr">
@@ -54380,31 +53984,27 @@
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr"/>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1646" t="inlineStr"/>
-      <c r="G1646" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1646" t="inlineStr"/>
       <c r="H1646" t="inlineStr">
         <is>
           <t>3</t>
@@ -54414,17 +54014,17 @@
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1647" t="inlineStr"/>
@@ -54440,17 +54040,17 @@
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1648" t="inlineStr"/>
@@ -54466,17 +54066,17 @@
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1649" t="inlineStr"/>
@@ -54492,33 +54092,37 @@
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1650" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1650" t="inlineStr"/>
-      <c r="E1650" t="inlineStr"/>
+      <c r="E1650" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1650" t="inlineStr"/>
       <c r="G1650" t="inlineStr"/>
       <c r="H1650" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
@@ -54528,27 +54132,31 @@
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1651" t="inlineStr"/>
-      <c r="E1651" t="inlineStr"/>
+      <c r="E1651" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1651" t="inlineStr"/>
       <c r="G1651" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1651" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1652" t="inlineStr">
@@ -54558,17 +54166,21 @@
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1652" t="inlineStr"/>
       <c r="E1652" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1652" t="inlineStr"/>
-      <c r="G1652" t="inlineStr"/>
+      <c r="G1652" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1652" t="inlineStr">
         <is>
           <t>2</t>
@@ -54578,7 +54190,7 @@
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1653" t="inlineStr">
@@ -54588,13 +54200,21 @@
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1653" t="inlineStr"/>
-      <c r="E1653" t="inlineStr"/>
+      <c r="E1653" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1653" t="inlineStr"/>
-      <c r="G1653" t="inlineStr"/>
+      <c r="G1653" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1653" t="inlineStr">
         <is>
           <t>3</t>
@@ -54604,7 +54224,7 @@
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr">
@@ -54614,11 +54234,15 @@
       </c>
       <c r="C1654" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1654" t="inlineStr"/>
-      <c r="E1654" t="inlineStr"/>
+      <c r="E1654" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1654" t="inlineStr"/>
       <c r="G1654" t="inlineStr"/>
       <c r="H1654" t="inlineStr">
@@ -54630,7 +54254,7 @@
     <row r="1655">
       <c r="A1655" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1655" t="inlineStr">
@@ -54640,7 +54264,7 @@
       </c>
       <c r="C1655" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1655" t="inlineStr"/>
@@ -54656,7 +54280,7 @@
     <row r="1656">
       <c r="A1656" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1656" t="inlineStr">
@@ -54666,21 +54290,29 @@
       </c>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1656" t="inlineStr"/>
-      <c r="E1656" t="inlineStr"/>
+      <c r="E1656" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1656" t="inlineStr"/>
       <c r="G1656" t="inlineStr"/>
       <c r="H1656" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1657">
-      <c r="A1657" t="inlineStr"/>
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1657" t="inlineStr">
         <is>
           <t>US</t>
@@ -54688,21 +54320,17 @@
       </c>
       <c r="C1657" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1657" t="inlineStr"/>
       <c r="E1657" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1657" t="inlineStr"/>
-      <c r="G1657" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1657" t="inlineStr"/>
       <c r="H1657" t="inlineStr">
         <is>
           <t>3</t>
@@ -54710,7 +54338,11 @@
       </c>
     </row>
     <row r="1658">
-      <c r="A1658" t="inlineStr"/>
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1658" t="inlineStr">
         <is>
           <t>US</t>
@@ -54718,25 +54350,13 @@
       </c>
       <c r="C1658" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1658" t="inlineStr"/>
-      <c r="E1658" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1658" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1658" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1658" t="inlineStr"/>
+      <c r="F1658" t="inlineStr"/>
+      <c r="G1658" t="inlineStr"/>
       <c r="H1658" t="inlineStr">
         <is>
           <t>3</t>
@@ -54746,107 +54366,107 @@
     <row r="1659">
       <c r="A1659" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1659" t="inlineStr"/>
-      <c r="C1659" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t>House Price Index YoYNOV</t>
+        </is>
+      </c>
       <c r="D1659" t="inlineStr"/>
-      <c r="E1659" t="inlineStr"/>
+      <c r="E1659" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1659" t="inlineStr"/>
       <c r="G1659" t="inlineStr"/>
-      <c r="H1659" t="inlineStr"/>
+      <c r="H1659" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1660">
       <c r="A1660" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1660" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1660" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1660" t="inlineStr"/>
       <c r="E1660" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1660" t="inlineStr"/>
-      <c r="G1660" t="inlineStr">
+      <c r="G1660" t="inlineStr"/>
+      <c r="H1660" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1660" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1661">
       <c r="A1661" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1661" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1661" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1661" t="inlineStr"/>
-      <c r="E1661" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1661" t="inlineStr"/>
       <c r="F1661" t="inlineStr"/>
-      <c r="G1661" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1661" t="inlineStr"/>
       <c r="H1661" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1662">
       <c r="A1662" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1662" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1662" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1662" t="inlineStr"/>
-      <c r="E1662" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1662" t="inlineStr"/>
       <c r="F1662" t="inlineStr"/>
       <c r="G1662" t="inlineStr"/>
       <c r="H1662" t="inlineStr">
@@ -54858,29 +54478,29 @@
     <row r="1663">
       <c r="A1663" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1663" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1663" t="inlineStr"/>
       <c r="E1663" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1663" t="inlineStr"/>
       <c r="G1663" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1663" t="inlineStr">
@@ -54892,606 +54512,32 @@
     <row r="1664">
       <c r="A1664" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1664" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1664" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1664" t="inlineStr"/>
       <c r="E1664" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1664" t="inlineStr"/>
       <c r="G1664" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1664" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1665">
-      <c r="A1665" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1665" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1665" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1665" t="inlineStr"/>
-      <c r="E1665" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F1665" t="inlineStr"/>
-      <c r="G1665" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H1665" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1666">
-      <c r="A1666" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B1666" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1666" t="inlineStr">
-        <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1666" t="inlineStr"/>
-      <c r="E1666" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="F1666" t="inlineStr"/>
-      <c r="G1666" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H1666" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1667">
-      <c r="A1667" t="inlineStr">
-        <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
-      <c r="B1667" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1667" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1667" t="inlineStr"/>
-      <c r="E1667" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="F1667" t="inlineStr"/>
-      <c r="G1667" t="inlineStr"/>
-      <c r="H1667" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1668">
-      <c r="A1668" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B1668" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1668" t="inlineStr">
-        <is>
-          <t>Unemployment RateQ4</t>
-        </is>
-      </c>
-      <c r="D1668" t="inlineStr"/>
-      <c r="E1668" t="inlineStr">
-        <is>
-          <t>11.21%</t>
-        </is>
-      </c>
-      <c r="F1668" t="inlineStr"/>
-      <c r="G1668" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
-      <c r="H1668" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1669">
-      <c r="A1669" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1669" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1669" t="inlineStr">
-        <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D1669" t="inlineStr"/>
-      <c r="E1669" t="inlineStr">
-        <is>
-          <t>0.745%</t>
-        </is>
-      </c>
-      <c r="F1669" t="inlineStr"/>
-      <c r="G1669" t="inlineStr"/>
-      <c r="H1669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1670">
-      <c r="A1670" t="inlineStr">
-        <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1670" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1670" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
-      <c r="D1670" t="inlineStr"/>
-      <c r="E1670" t="inlineStr"/>
-      <c r="F1670" t="inlineStr"/>
-      <c r="G1670" t="inlineStr"/>
-      <c r="H1670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1671">
-      <c r="A1671" t="inlineStr">
-        <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1671" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1671" t="inlineStr">
-        <is>
-          <t>2-Year BTP Short Term Auction</t>
-        </is>
-      </c>
-      <c r="D1671" t="inlineStr"/>
-      <c r="E1671" t="inlineStr"/>
-      <c r="F1671" t="inlineStr"/>
-      <c r="G1671" t="inlineStr"/>
-      <c r="H1671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1672">
-      <c r="A1672" t="inlineStr">
-        <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1672" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1672" t="inlineStr">
-        <is>
-          <t>BTP€i Auction</t>
-        </is>
-      </c>
-      <c r="D1672" t="inlineStr"/>
-      <c r="E1672" t="inlineStr"/>
-      <c r="F1672" t="inlineStr"/>
-      <c r="G1672" t="inlineStr"/>
-      <c r="H1672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1673">
-      <c r="A1673" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1673" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1673" t="inlineStr">
-        <is>
-          <t>2-Year Schatz Auction</t>
-        </is>
-      </c>
-      <c r="D1673" t="inlineStr"/>
-      <c r="E1673" t="inlineStr">
-        <is>
-          <t>2.18%</t>
-        </is>
-      </c>
-      <c r="F1673" t="inlineStr"/>
-      <c r="G1673" t="inlineStr"/>
-      <c r="H1673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1674">
-      <c r="A1674" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1674" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1674" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1674" t="inlineStr"/>
-      <c r="E1674" t="inlineStr">
-        <is>
-          <t>-1.1%</t>
-        </is>
-      </c>
-      <c r="F1674" t="inlineStr"/>
-      <c r="G1674" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H1674" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1675">
-      <c r="A1675" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1675" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1675" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1675" t="inlineStr"/>
-      <c r="E1675" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1675" t="inlineStr"/>
-      <c r="G1675" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1675" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1676">
-      <c r="A1676" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1676" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1676" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1676" t="inlineStr"/>
-      <c r="E1676" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1676" t="inlineStr"/>
-      <c r="G1676" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H1676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1677">
-      <c r="A1677" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1677" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1677" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
-        </is>
-      </c>
-      <c r="D1677" t="inlineStr"/>
-      <c r="E1677" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="F1677" t="inlineStr"/>
-      <c r="G1677" t="inlineStr"/>
-      <c r="H1677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1678">
-      <c r="A1678" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B1678" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1678" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/25</t>
-        </is>
-      </c>
-      <c r="D1678" t="inlineStr"/>
-      <c r="E1678" t="inlineStr"/>
-      <c r="F1678" t="inlineStr"/>
-      <c r="G1678" t="inlineStr"/>
-      <c r="H1678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1679">
-      <c r="A1679" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1679" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1679" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1679" t="inlineStr"/>
-      <c r="E1679" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1679" t="inlineStr"/>
-      <c r="G1679" t="inlineStr"/>
-      <c r="H1679" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1680">
-      <c r="A1680" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1680" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1680" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
-      <c r="D1680" t="inlineStr"/>
-      <c r="E1680" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
-      <c r="F1680" t="inlineStr"/>
-      <c r="G1680" t="inlineStr"/>
-      <c r="H1680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1681">
-      <c r="A1681" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1681" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1681" t="inlineStr">
-        <is>
-          <t>House Price Index MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1681" t="inlineStr"/>
-      <c r="E1681" t="inlineStr"/>
-      <c r="F1681" t="inlineStr"/>
-      <c r="G1681" t="inlineStr"/>
-      <c r="H1681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1682">
-      <c r="A1682" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1682" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1682" t="inlineStr">
-        <is>
-          <t>House Price Index YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1682" t="inlineStr"/>
-      <c r="E1682" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1682" t="inlineStr"/>
-      <c r="G1682" t="inlineStr"/>
-      <c r="H1682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1683">
-      <c r="A1683" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1683" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1683" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1683" t="inlineStr"/>
-      <c r="E1683" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1683" t="inlineStr"/>
-      <c r="G1683" t="inlineStr"/>
-      <c r="H1683" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1664"/>
+  <dimension ref="A1:H1643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51373,10 +51373,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1565">
@@ -51411,10 +51409,8 @@
           <t>42.2</t>
         </is>
       </c>
-      <c r="H1565" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1565" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1566">
@@ -51449,10 +51445,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H1566" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1566" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1567">
@@ -51483,10 +51477,8 @@
           <t>48</t>
         </is>
       </c>
-      <c r="H1567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1568">
@@ -51521,10 +51513,8 @@
           <t>42.3</t>
         </is>
       </c>
-      <c r="H1568" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1568" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1569">
@@ -51555,10 +51545,8 @@
           <t>47.8</t>
         </is>
       </c>
-      <c r="H1569" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1569" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1570">
@@ -51593,10 +51581,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1570" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1570" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1571">
@@ -51627,10 +51613,8 @@
           <t>49.4</t>
         </is>
       </c>
-      <c r="H1571" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1571" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1572">
@@ -51665,10 +51649,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1572" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1572" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1573">
@@ -51703,10 +51685,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H1573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1573" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1574">
@@ -51741,10 +51721,8 @@
           <t>47.2</t>
         </is>
       </c>
-      <c r="H1574" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1574" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1575">
@@ -51779,10 +51757,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1575" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1575" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1576">
@@ -51813,10 +51789,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H1576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1577">
@@ -51839,10 +51813,8 @@
       <c r="E1577" t="inlineStr"/>
       <c r="F1577" t="inlineStr"/>
       <c r="G1577" t="inlineStr"/>
-      <c r="H1577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1577" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1578">
@@ -51873,10 +51845,8 @@
           <t>91.4</t>
         </is>
       </c>
-      <c r="H1578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1578" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1579">
@@ -51899,10 +51869,8 @@
       <c r="E1579" t="inlineStr"/>
       <c r="F1579" t="inlineStr"/>
       <c r="G1579" t="inlineStr"/>
-      <c r="H1579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1579" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1580">
@@ -51937,10 +51905,8 @@
           <t>-11</t>
         </is>
       </c>
-      <c r="H1580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1581">
@@ -51967,10 +51933,8 @@
       </c>
       <c r="F1581" t="inlineStr"/>
       <c r="G1581" t="inlineStr"/>
-      <c r="H1581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1582">
@@ -52001,10 +51965,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H1582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1583">
@@ -52035,10 +51997,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1584">
@@ -52069,10 +52029,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1584" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1585">
@@ -52107,10 +52065,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1586">
@@ -52141,10 +52097,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1586" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1586" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1587">
@@ -52175,10 +52129,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1587" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1588">
@@ -52209,10 +52161,8 @@
           <t>55.3</t>
         </is>
       </c>
-      <c r="H1588" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1588" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1589">
@@ -52243,10 +52193,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H1589" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1589" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1590">
@@ -52277,10 +52225,8 @@
           <t>56.6</t>
         </is>
       </c>
-      <c r="H1590" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1590" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1591">
@@ -52315,10 +52261,8 @@
           <t>4.1M</t>
         </is>
       </c>
-      <c r="H1591" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1591" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1592">
@@ -52349,10 +52293,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1592" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1592" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1593">
@@ -52387,10 +52329,8 @@
           <t>73.2</t>
         </is>
       </c>
-      <c r="H1593" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1593" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1594">
@@ -52425,10 +52365,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1595">
@@ -52463,10 +52401,8 @@
           <t>70.2</t>
         </is>
       </c>
-      <c r="H1595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1595" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1596">
@@ -52501,10 +52437,8 @@
           <t>77.9</t>
         </is>
       </c>
-      <c r="H1596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1596" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1597">
@@ -52539,10 +52473,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1597" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1598">
@@ -52573,10 +52505,8 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="H1598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1598" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1599">
@@ -52607,10 +52537,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1600">
@@ -52637,10 +52565,8 @@
       </c>
       <c r="F1600" t="inlineStr"/>
       <c r="G1600" t="inlineStr"/>
-      <c r="H1600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1601">
@@ -52667,54 +52593,56 @@
       </c>
       <c r="F1601" t="inlineStr"/>
       <c r="G1601" t="inlineStr"/>
-      <c r="H1601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1602" t="inlineStr"/>
-      <c r="C1602" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1602" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1602" t="inlineStr"/>
       <c r="E1602" t="inlineStr"/>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr"/>
-      <c r="H1602" t="inlineStr"/>
+      <c r="H1602" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
-      <c r="E1603" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1603" t="inlineStr"/>
       <c r="F1603" t="inlineStr"/>
-      <c r="G1603" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1603" t="inlineStr"/>
       <c r="H1603" t="inlineStr">
         <is>
           <t>3</t>
@@ -52724,107 +52652,103 @@
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
-      <c r="E1604" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1604" t="inlineStr"/>
       <c r="F1604" t="inlineStr"/>
       <c r="G1604" t="inlineStr"/>
       <c r="H1604" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
-      <c r="E1605" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1605" t="inlineStr"/>
       <c r="F1605" t="inlineStr"/>
-      <c r="G1605" t="inlineStr"/>
+      <c r="G1605" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1605" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr"/>
       <c r="G1606" t="inlineStr"/>
       <c r="H1606" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
@@ -52840,17 +52764,17 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
@@ -52866,55 +52790,47 @@
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
-      <c r="E1609" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1609" t="inlineStr"/>
       <c r="F1609" t="inlineStr"/>
       <c r="G1609" t="inlineStr"/>
       <c r="H1609" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
-      <c r="E1610" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1610" t="inlineStr"/>
       <c r="F1610" t="inlineStr"/>
       <c r="G1610" t="inlineStr"/>
       <c r="H1610" t="inlineStr">
@@ -52924,59 +52840,63 @@
       </c>
     </row>
     <row r="1611">
-      <c r="A1611" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1611" t="inlineStr"/>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr"/>
-      <c r="G1611" t="inlineStr"/>
+      <c r="G1611" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1611" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1612">
-      <c r="A1612" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1612" t="inlineStr"/>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>85.1</t>
-        </is>
-      </c>
-      <c r="F1612" t="inlineStr"/>
-      <c r="G1612" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1612" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1612" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1612" t="inlineStr">
         <is>
           <t>3</t>
@@ -52986,121 +52906,109 @@
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1613" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1613" t="inlineStr">
-        <is>
-          <t>Ifo ExpectationsJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1613" t="inlineStr"/>
+      <c r="C1613" t="inlineStr"/>
       <c r="D1613" t="inlineStr"/>
-      <c r="E1613" t="inlineStr">
-        <is>
-          <t>84.4</t>
-        </is>
-      </c>
+      <c r="E1613" t="inlineStr"/>
       <c r="F1613" t="inlineStr"/>
       <c r="G1613" t="inlineStr"/>
-      <c r="H1613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1613" t="inlineStr"/>
     </row>
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
-      <c r="E1614" t="inlineStr"/>
+      <c r="E1614" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1614" t="inlineStr"/>
-      <c r="G1614" t="inlineStr"/>
+      <c r="G1614" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr"/>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr"/>
-      <c r="G1616" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1616" t="inlineStr"/>
       <c r="H1616" t="inlineStr">
         <is>
           <t>3</t>
@@ -53110,29 +53018,29 @@
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr"/>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
@@ -53144,27 +53052,31 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1618" t="inlineStr"/>
-      <c r="G1618" t="inlineStr"/>
+      <c r="G1618" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1618" t="inlineStr">
         <is>
           <t>3</t>
@@ -53174,27 +53086,31 @@
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1619" t="inlineStr"/>
-      <c r="G1619" t="inlineStr"/>
+      <c r="G1619" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1619" t="inlineStr">
         <is>
           <t>3</t>
@@ -53204,97 +53120,93 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1620" t="inlineStr"/>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1620" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr"/>
-      <c r="G1621" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1621" t="inlineStr"/>
       <c r="H1621" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr"/>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
@@ -53306,31 +53218,27 @@
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
-      <c r="G1623" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1623" t="inlineStr"/>
       <c r="H1623" t="inlineStr">
         <is>
           <t>3</t>
@@ -53340,17 +53248,17 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
@@ -53366,17 +53274,17 @@
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
@@ -53392,17 +53300,17 @@
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
@@ -53418,33 +53326,37 @@
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
-      <c r="E1627" t="inlineStr"/>
+      <c r="E1627" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1627" t="inlineStr"/>
       <c r="G1627" t="inlineStr"/>
       <c r="H1627" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
@@ -53454,27 +53366,31 @@
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr"/>
+      <c r="E1628" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1628" t="inlineStr"/>
       <c r="G1628" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1628" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
@@ -53484,17 +53400,21 @@
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1629" t="inlineStr"/>
-      <c r="G1629" t="inlineStr"/>
+      <c r="G1629" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1629" t="inlineStr">
         <is>
           <t>2</t>
@@ -53504,7 +53424,7 @@
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
@@ -53514,13 +53434,21 @@
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
-      <c r="E1630" t="inlineStr"/>
+      <c r="E1630" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1630" t="inlineStr"/>
-      <c r="G1630" t="inlineStr"/>
+      <c r="G1630" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1630" t="inlineStr">
         <is>
           <t>3</t>
@@ -53530,7 +53458,7 @@
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
@@ -53540,11 +53468,15 @@
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
-      <c r="E1631" t="inlineStr"/>
+      <c r="E1631" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1631" t="inlineStr"/>
       <c r="G1631" t="inlineStr"/>
       <c r="H1631" t="inlineStr">
@@ -53556,7 +53488,7 @@
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
@@ -53566,7 +53498,7 @@
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
@@ -53582,7 +53514,7 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
@@ -53592,21 +53524,29 @@
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
-      <c r="E1633" t="inlineStr"/>
+      <c r="E1633" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1633" t="inlineStr"/>
       <c r="G1633" t="inlineStr"/>
       <c r="H1633" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1634">
-      <c r="A1634" t="inlineStr"/>
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1634" t="inlineStr">
         <is>
           <t>US</t>
@@ -53614,21 +53554,17 @@
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
       <c r="E1634" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1634" t="inlineStr"/>
-      <c r="G1634" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1634" t="inlineStr"/>
       <c r="H1634" t="inlineStr">
         <is>
           <t>3</t>
@@ -53636,7 +53572,11 @@
       </c>
     </row>
     <row r="1635">
-      <c r="A1635" t="inlineStr"/>
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1635" t="inlineStr">
         <is>
           <t>US</t>
@@ -53644,25 +53584,13 @@
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
-      <c r="E1635" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1635" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1635" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1635" t="inlineStr"/>
+      <c r="F1635" t="inlineStr"/>
+      <c r="G1635" t="inlineStr"/>
       <c r="H1635" t="inlineStr">
         <is>
           <t>3</t>
@@ -53672,107 +53600,107 @@
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1636" t="inlineStr"/>
-      <c r="C1636" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1636" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1636" t="inlineStr">
+        <is>
+          <t>House Price Index YoYNOV</t>
+        </is>
+      </c>
       <c r="D1636" t="inlineStr"/>
-      <c r="E1636" t="inlineStr"/>
+      <c r="E1636" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1636" t="inlineStr"/>
       <c r="G1636" t="inlineStr"/>
-      <c r="H1636" t="inlineStr"/>
+      <c r="H1636" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1637">
       <c r="A1637" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1637" t="inlineStr"/>
-      <c r="G1637" t="inlineStr">
+      <c r="G1637" t="inlineStr"/>
+      <c r="H1637" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1637" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1638" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1638" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1638" t="inlineStr"/>
-      <c r="E1638" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1638" t="inlineStr"/>
       <c r="F1638" t="inlineStr"/>
-      <c r="G1638" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1638" t="inlineStr"/>
       <c r="H1638" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr"/>
-      <c r="E1639" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1639" t="inlineStr"/>
       <c r="F1639" t="inlineStr"/>
       <c r="G1639" t="inlineStr"/>
       <c r="H1639" t="inlineStr">
@@ -53784,29 +53712,29 @@
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1640" t="inlineStr"/>
       <c r="G1640" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1640" t="inlineStr">
@@ -53818,29 +53746,29 @@
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1641" t="inlineStr"/>
       <c r="G1641" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1641" t="inlineStr">
@@ -53852,31 +53780,27 @@
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1642" t="inlineStr"/>
-      <c r="G1642" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1642" t="inlineStr"/>
       <c r="H1642" t="inlineStr">
         <is>
           <t>3</t>
@@ -53886,658 +53810,28 @@
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1643" t="inlineStr"/>
-      <c r="G1643" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1643" t="inlineStr"/>
       <c r="H1643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1644">
-      <c r="A1644" t="inlineStr">
-        <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
-      <c r="B1644" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1644" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1644" t="inlineStr"/>
-      <c r="E1644" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="F1644" t="inlineStr"/>
-      <c r="G1644" t="inlineStr"/>
-      <c r="H1644" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1645">
-      <c r="A1645" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B1645" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1645" t="inlineStr">
-        <is>
-          <t>Unemployment RateQ4</t>
-        </is>
-      </c>
-      <c r="D1645" t="inlineStr"/>
-      <c r="E1645" t="inlineStr">
-        <is>
-          <t>11.21%</t>
-        </is>
-      </c>
-      <c r="F1645" t="inlineStr"/>
-      <c r="G1645" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
-      <c r="H1645" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1646">
-      <c r="A1646" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1646" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1646" t="inlineStr">
-        <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D1646" t="inlineStr"/>
-      <c r="E1646" t="inlineStr">
-        <is>
-          <t>0.745%</t>
-        </is>
-      </c>
-      <c r="F1646" t="inlineStr"/>
-      <c r="G1646" t="inlineStr"/>
-      <c r="H1646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1647">
-      <c r="A1647" t="inlineStr">
-        <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1647" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1647" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
-      <c r="D1647" t="inlineStr"/>
-      <c r="E1647" t="inlineStr"/>
-      <c r="F1647" t="inlineStr"/>
-      <c r="G1647" t="inlineStr"/>
-      <c r="H1647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1648">
-      <c r="A1648" t="inlineStr">
-        <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1648" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1648" t="inlineStr">
-        <is>
-          <t>2-Year BTP Short Term Auction</t>
-        </is>
-      </c>
-      <c r="D1648" t="inlineStr"/>
-      <c r="E1648" t="inlineStr"/>
-      <c r="F1648" t="inlineStr"/>
-      <c r="G1648" t="inlineStr"/>
-      <c r="H1648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1649">
-      <c r="A1649" t="inlineStr">
-        <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1649" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1649" t="inlineStr">
-        <is>
-          <t>BTP€i Auction</t>
-        </is>
-      </c>
-      <c r="D1649" t="inlineStr"/>
-      <c r="E1649" t="inlineStr"/>
-      <c r="F1649" t="inlineStr"/>
-      <c r="G1649" t="inlineStr"/>
-      <c r="H1649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1650">
-      <c r="A1650" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1650" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1650" t="inlineStr">
-        <is>
-          <t>2-Year Schatz Auction</t>
-        </is>
-      </c>
-      <c r="D1650" t="inlineStr"/>
-      <c r="E1650" t="inlineStr">
-        <is>
-          <t>2.18%</t>
-        </is>
-      </c>
-      <c r="F1650" t="inlineStr"/>
-      <c r="G1650" t="inlineStr"/>
-      <c r="H1650" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1651">
-      <c r="A1651" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1651" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1651" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1651" t="inlineStr"/>
-      <c r="E1651" t="inlineStr">
-        <is>
-          <t>-1.1%</t>
-        </is>
-      </c>
-      <c r="F1651" t="inlineStr"/>
-      <c r="G1651" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H1651" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1652">
-      <c r="A1652" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1652" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1652" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1652" t="inlineStr"/>
-      <c r="E1652" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1652" t="inlineStr"/>
-      <c r="G1652" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1652" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1653">
-      <c r="A1653" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1653" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1653" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1653" t="inlineStr"/>
-      <c r="E1653" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1653" t="inlineStr"/>
-      <c r="G1653" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H1653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1654">
-      <c r="A1654" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1654" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1654" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
-        </is>
-      </c>
-      <c r="D1654" t="inlineStr"/>
-      <c r="E1654" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="F1654" t="inlineStr"/>
-      <c r="G1654" t="inlineStr"/>
-      <c r="H1654" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1655">
-      <c r="A1655" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B1655" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1655" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/25</t>
-        </is>
-      </c>
-      <c r="D1655" t="inlineStr"/>
-      <c r="E1655" t="inlineStr"/>
-      <c r="F1655" t="inlineStr"/>
-      <c r="G1655" t="inlineStr"/>
-      <c r="H1655" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1656">
-      <c r="A1656" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1656" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1656" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1656" t="inlineStr"/>
-      <c r="E1656" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1656" t="inlineStr"/>
-      <c r="G1656" t="inlineStr"/>
-      <c r="H1656" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1657">
-      <c r="A1657" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1657" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1657" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
-      <c r="D1657" t="inlineStr"/>
-      <c r="E1657" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
-      <c r="F1657" t="inlineStr"/>
-      <c r="G1657" t="inlineStr"/>
-      <c r="H1657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1658">
-      <c r="A1658" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1658" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1658" t="inlineStr">
-        <is>
-          <t>House Price Index MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1658" t="inlineStr"/>
-      <c r="E1658" t="inlineStr"/>
-      <c r="F1658" t="inlineStr"/>
-      <c r="G1658" t="inlineStr"/>
-      <c r="H1658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1659">
-      <c r="A1659" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1659" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1659" t="inlineStr">
-        <is>
-          <t>House Price Index YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1659" t="inlineStr"/>
-      <c r="E1659" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1659" t="inlineStr"/>
-      <c r="G1659" t="inlineStr"/>
-      <c r="H1659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1660">
-      <c r="A1660" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1660" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1660" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1660" t="inlineStr"/>
-      <c r="E1660" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1660" t="inlineStr"/>
-      <c r="G1660" t="inlineStr"/>
-      <c r="H1660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1661">
-      <c r="A1661" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1661" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1661" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1661" t="inlineStr"/>
-      <c r="E1661" t="inlineStr"/>
-      <c r="F1661" t="inlineStr"/>
-      <c r="G1661" t="inlineStr"/>
-      <c r="H1661" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1662">
-      <c r="A1662" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1662" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1662" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1662" t="inlineStr"/>
-      <c r="E1662" t="inlineStr"/>
-      <c r="F1662" t="inlineStr"/>
-      <c r="G1662" t="inlineStr"/>
-      <c r="H1662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1663">
-      <c r="A1663" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1663" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1663" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1663" t="inlineStr"/>
-      <c r="E1663" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F1663" t="inlineStr"/>
-      <c r="G1663" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="H1663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1664">
-      <c r="A1664" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1664" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1664" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1664" t="inlineStr"/>
-      <c r="E1664" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="F1664" t="inlineStr"/>
-      <c r="G1664" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H1664" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1691"/>
+  <dimension ref="A1:H1671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46415,10 +46415,8 @@
         </is>
       </c>
       <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1400" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1401">
@@ -46449,10 +46447,8 @@
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -46483,10 +46479,8 @@
       </c>
       <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -46575,10 +46569,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1407">
@@ -46613,10 +46605,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1408">
@@ -46651,10 +46641,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1409">
@@ -46689,10 +46677,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1410">
@@ -46723,10 +46709,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -46761,10 +46745,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -46795,10 +46777,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1413">
@@ -46833,10 +46813,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1414">
@@ -46867,10 +46845,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1415">
@@ -46905,10 +46881,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1416">
@@ -46939,10 +46913,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1417">
@@ -46973,10 +46945,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1418">
@@ -47003,10 +46973,8 @@
       </c>
       <c r="F1418" t="inlineStr"/>
       <c r="G1418" t="inlineStr"/>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -47033,10 +47001,8 @@
       </c>
       <c r="F1419" t="inlineStr"/>
       <c r="G1419" t="inlineStr"/>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1420">
@@ -47067,10 +47033,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1421">
@@ -47101,10 +47065,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1422">
@@ -47131,10 +47093,8 @@
       </c>
       <c r="F1422" t="inlineStr"/>
       <c r="G1422" t="inlineStr"/>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -47161,10 +47121,8 @@
       </c>
       <c r="F1423" t="inlineStr"/>
       <c r="G1423" t="inlineStr"/>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1424">
@@ -47191,10 +47149,8 @@
       </c>
       <c r="F1424" t="inlineStr"/>
       <c r="G1424" t="inlineStr"/>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1425">
@@ -47217,10 +47173,8 @@
       <c r="E1425" t="inlineStr"/>
       <c r="F1425" t="inlineStr"/>
       <c r="G1425" t="inlineStr"/>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1426">
@@ -47251,10 +47205,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -47285,10 +47237,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -47307,10 +47257,8 @@
       <c r="E1428" t="inlineStr"/>
       <c r="F1428" t="inlineStr"/>
       <c r="G1428" t="inlineStr"/>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1429">
@@ -47333,10 +47281,8 @@
       </c>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1430">
@@ -47363,10 +47309,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -47385,10 +47329,8 @@
       <c r="E1431" t="inlineStr"/>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr"/>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -47415,10 +47357,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -47445,10 +47385,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1434">
@@ -47467,10 +47405,8 @@
       <c r="E1434" t="inlineStr"/>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr"/>
-      <c r="H1434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1435">
@@ -47519,10 +47455,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1437">
@@ -47553,10 +47487,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1438">
@@ -47587,10 +47519,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1439">
@@ -47617,10 +47547,8 @@
       </c>
       <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="inlineStr"/>
-      <c r="H1439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1440">
@@ -47647,10 +47575,8 @@
       </c>
       <c r="F1440" t="inlineStr"/>
       <c r="G1440" t="inlineStr"/>
-      <c r="H1440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1441">
@@ -47677,10 +47603,8 @@
       </c>
       <c r="F1441" t="inlineStr"/>
       <c r="G1441" t="inlineStr"/>
-      <c r="H1441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1442">
@@ -47711,10 +47635,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1442" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1442" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1443">
@@ -47749,10 +47671,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1443" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1443" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1444">
@@ -47787,10 +47707,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1444" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1444" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1445">
@@ -47821,10 +47739,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1445" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1445" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1446">
@@ -47859,10 +47775,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1447">
@@ -47897,10 +47811,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1448">
@@ -47931,10 +47843,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1449">
@@ -47965,10 +47875,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1450">
@@ -47999,10 +47907,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1451">
@@ -48033,10 +47939,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1452">
@@ -48071,10 +47975,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1452" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1452" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1453">
@@ -48109,10 +48011,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1453" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1453" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1454">
@@ -48147,10 +48047,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1455">
@@ -48177,10 +48075,8 @@
       </c>
       <c r="F1455" t="inlineStr"/>
       <c r="G1455" t="inlineStr"/>
-      <c r="H1455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1456">
@@ -48207,10 +48103,8 @@
       </c>
       <c r="F1456" t="inlineStr"/>
       <c r="G1456" t="inlineStr"/>
-      <c r="H1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1457">
@@ -48241,10 +48135,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1457" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1458">
@@ -48275,10 +48167,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1459">
@@ -48313,10 +48203,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1459" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1459" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1460">
@@ -48347,10 +48235,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1460" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1460" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1461">
@@ -48385,10 +48271,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1461" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1461" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1462">
@@ -48419,10 +48303,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1463">
@@ -48457,10 +48339,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1464">
@@ -48495,10 +48375,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1465">
@@ -48525,10 +48403,8 @@
       </c>
       <c r="F1465" t="inlineStr"/>
       <c r="G1465" t="inlineStr"/>
-      <c r="H1465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1466">
@@ -48555,10 +48431,8 @@
       </c>
       <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr"/>
-      <c r="H1466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1466" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1467">
@@ -48585,10 +48459,8 @@
       </c>
       <c r="F1467" t="inlineStr"/>
       <c r="G1467" t="inlineStr"/>
-      <c r="H1467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1468">
@@ -48615,10 +48487,8 @@
       </c>
       <c r="F1468" t="inlineStr"/>
       <c r="G1468" t="inlineStr"/>
-      <c r="H1468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1469">
@@ -48637,10 +48507,8 @@
       <c r="E1469" t="inlineStr"/>
       <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr"/>
-      <c r="H1469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1469" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1470">
@@ -48685,10 +48553,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1471" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1471" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1472">
@@ -48719,10 +48585,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1472" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1473">
@@ -48757,10 +48621,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1473" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1474">
@@ -48791,10 +48653,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1474" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1474" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1475">
@@ -48825,10 +48685,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1475" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1475" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1476">
@@ -48859,10 +48717,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1477">
@@ -48893,10 +48749,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1478">
@@ -48923,10 +48777,8 @@
       </c>
       <c r="F1478" t="inlineStr"/>
       <c r="G1478" t="inlineStr"/>
-      <c r="H1478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1479">
@@ -48957,10 +48809,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1480">
@@ -48991,10 +48841,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1481">
@@ -49021,10 +48869,8 @@
       </c>
       <c r="F1481" t="inlineStr"/>
       <c r="G1481" t="inlineStr"/>
-      <c r="H1481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1482">
@@ -49051,10 +48897,8 @@
       </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
-      <c r="H1482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1482" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1483">
@@ -49081,10 +48925,8 @@
       </c>
       <c r="F1483" t="inlineStr"/>
       <c r="G1483" t="inlineStr"/>
-      <c r="H1483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1484">
@@ -49111,10 +48953,8 @@
       </c>
       <c r="F1484" t="inlineStr"/>
       <c r="G1484" t="inlineStr"/>
-      <c r="H1484" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1484" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1485">
@@ -49141,10 +48981,8 @@
       </c>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr"/>
-      <c r="H1485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1486">
@@ -49171,10 +49009,8 @@
       </c>
       <c r="F1486" t="inlineStr"/>
       <c r="G1486" t="inlineStr"/>
-      <c r="H1486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1487">
@@ -49201,10 +49037,8 @@
       </c>
       <c r="F1487" t="inlineStr"/>
       <c r="G1487" t="inlineStr"/>
-      <c r="H1487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1488">
@@ -49231,10 +49065,8 @@
       </c>
       <c r="F1488" t="inlineStr"/>
       <c r="G1488" t="inlineStr"/>
-      <c r="H1488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1489">
@@ -49265,10 +49097,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1490">
@@ -49299,10 +49129,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1491">
@@ -49333,10 +49161,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1492">
@@ -49367,10 +49193,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1493">
@@ -49397,10 +49221,8 @@
       </c>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr"/>
-      <c r="H1493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1493" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1494">
@@ -49435,10 +49257,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1495">
@@ -49461,10 +49281,8 @@
       <c r="E1495" t="inlineStr"/>
       <c r="F1495" t="inlineStr"/>
       <c r="G1495" t="inlineStr"/>
-      <c r="H1495" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1495" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1496">
@@ -49491,10 +49309,8 @@
       </c>
       <c r="F1496" t="inlineStr"/>
       <c r="G1496" t="inlineStr"/>
-      <c r="H1496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1497">
@@ -49521,10 +49337,8 @@
       </c>
       <c r="F1497" t="inlineStr"/>
       <c r="G1497" t="inlineStr"/>
-      <c r="H1497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1498">
@@ -49569,10 +49383,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1500">
@@ -49603,10 +49415,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1500" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1500" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1501">
@@ -49633,10 +49443,8 @@
       </c>
       <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr"/>
-      <c r="H1501" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1501" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1502">
@@ -49671,10 +49479,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1502" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1502" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1503">
@@ -49709,10 +49515,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1503" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1504">
@@ -49747,10 +49551,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1504" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1504" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1505">
@@ -49785,10 +49587,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1505" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1506">
@@ -49815,10 +49615,8 @@
       </c>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr"/>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1507">
@@ -49853,10 +49651,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1508">
@@ -49883,10 +49679,8 @@
       </c>
       <c r="F1508" t="inlineStr"/>
       <c r="G1508" t="inlineStr"/>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1509">
@@ -49913,10 +49707,8 @@
       </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr"/>
-      <c r="H1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1510">
@@ -49943,10 +49735,8 @@
       </c>
       <c r="F1510" t="inlineStr"/>
       <c r="G1510" t="inlineStr"/>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1511">
@@ -49973,10 +49763,8 @@
       </c>
       <c r="F1511" t="inlineStr"/>
       <c r="G1511" t="inlineStr"/>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1512">
@@ -50007,10 +49795,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1513">
@@ -50041,10 +49827,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1514">
@@ -50075,10 +49859,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1515">
@@ -50109,10 +49891,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1516">
@@ -50139,10 +49919,8 @@
       </c>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr"/>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1517">
@@ -50169,10 +49947,8 @@
       </c>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="inlineStr"/>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1518">
@@ -50203,10 +49979,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1518" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1518" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1519">
@@ -50241,10 +50015,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1519" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1519" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1520">
@@ -50275,10 +50047,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1521">
@@ -50305,10 +50075,8 @@
       </c>
       <c r="F1521" t="inlineStr"/>
       <c r="G1521" t="inlineStr"/>
-      <c r="H1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1522">
@@ -50335,10 +50103,8 @@
       </c>
       <c r="F1522" t="inlineStr"/>
       <c r="G1522" t="inlineStr"/>
-      <c r="H1522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1523">
@@ -50365,10 +50131,8 @@
       </c>
       <c r="F1523" t="inlineStr"/>
       <c r="G1523" t="inlineStr"/>
-      <c r="H1523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1524">
@@ -50395,10 +50159,8 @@
       </c>
       <c r="F1524" t="inlineStr"/>
       <c r="G1524" t="inlineStr"/>
-      <c r="H1524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1525">
@@ -50425,10 +50187,8 @@
       </c>
       <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="inlineStr"/>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1526">
@@ -50455,10 +50215,8 @@
       </c>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1527">
@@ -50485,10 +50243,8 @@
       </c>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr"/>
-      <c r="H1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1528">
@@ -50515,10 +50271,8 @@
       </c>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr"/>
-      <c r="H1528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1528" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1529">
@@ -50549,10 +50303,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1529" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1530">
@@ -50583,10 +50335,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1530" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1531">
@@ -50621,10 +50371,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1531" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1531" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1532">
@@ -50655,10 +50403,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1532" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1533">
@@ -50689,10 +50435,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1533" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1534">
@@ -50727,10 +50471,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1534" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1534" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1535">
@@ -50757,10 +50499,8 @@
       </c>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr"/>
-      <c r="H1535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1536">
@@ -50791,10 +50531,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1537">
@@ -50825,10 +50563,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1538">
@@ -50859,10 +50595,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1539">
@@ -50893,10 +50627,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1540">
@@ -50931,10 +50663,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1540" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1540" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1541">
@@ -50969,10 +50699,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1541" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1541" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1542">
@@ -50995,10 +50723,8 @@
       <c r="E1542" t="inlineStr"/>
       <c r="F1542" t="inlineStr"/>
       <c r="G1542" t="inlineStr"/>
-      <c r="H1542" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1542" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1543">
@@ -51029,10 +50755,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1544">
@@ -51067,10 +50791,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1544" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1544" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1545">
@@ -51101,10 +50823,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1546">
@@ -51135,10 +50855,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1547">
@@ -51173,10 +50891,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1547" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1547" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1548">
@@ -51203,10 +50919,8 @@
       </c>
       <c r="F1548" t="inlineStr"/>
       <c r="G1548" t="inlineStr"/>
-      <c r="H1548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1549">
@@ -51233,10 +50947,8 @@
       </c>
       <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr"/>
-      <c r="H1549" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1549" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1550">
@@ -51263,10 +50975,8 @@
       </c>
       <c r="F1550" t="inlineStr"/>
       <c r="G1550" t="inlineStr"/>
-      <c r="H1550" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1550" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1551">
@@ -51293,10 +51003,8 @@
       </c>
       <c r="F1551" t="inlineStr"/>
       <c r="G1551" t="inlineStr"/>
-      <c r="H1551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1552">
@@ -51323,10 +51031,8 @@
       </c>
       <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr"/>
-      <c r="H1552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1553">
@@ -51353,10 +51059,8 @@
       </c>
       <c r="F1553" t="inlineStr"/>
       <c r="G1553" t="inlineStr"/>
-      <c r="H1553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1554">
@@ -51383,10 +51087,8 @@
       </c>
       <c r="F1554" t="inlineStr"/>
       <c r="G1554" t="inlineStr"/>
-      <c r="H1554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1554" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1555">
@@ -51413,10 +51115,8 @@
       </c>
       <c r="F1555" t="inlineStr"/>
       <c r="G1555" t="inlineStr"/>
-      <c r="H1555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1555" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1556">
@@ -51443,10 +51143,8 @@
       </c>
       <c r="F1556" t="inlineStr"/>
       <c r="G1556" t="inlineStr"/>
-      <c r="H1556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1556" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1557">
@@ -51473,10 +51171,8 @@
       </c>
       <c r="F1557" t="inlineStr"/>
       <c r="G1557" t="inlineStr"/>
-      <c r="H1557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1557" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1558">
@@ -51503,10 +51199,8 @@
       </c>
       <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr"/>
-      <c r="H1558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1559">
@@ -51533,10 +51227,8 @@
       </c>
       <c r="F1559" t="inlineStr"/>
       <c r="G1559" t="inlineStr"/>
-      <c r="H1559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1560">
@@ -51563,10 +51255,8 @@
       </c>
       <c r="F1560" t="inlineStr"/>
       <c r="G1560" t="inlineStr"/>
-      <c r="H1560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1561">
@@ -51593,10 +51283,8 @@
       </c>
       <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr"/>
-      <c r="H1561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1562">
@@ -51623,10 +51311,8 @@
       </c>
       <c r="F1562" t="inlineStr"/>
       <c r="G1562" t="inlineStr"/>
-      <c r="H1562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1563">
@@ -51653,10 +51339,8 @@
       </c>
       <c r="F1563" t="inlineStr"/>
       <c r="G1563" t="inlineStr"/>
-      <c r="H1563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1564">
@@ -51679,10 +51363,8 @@
       </c>
       <c r="F1564" t="inlineStr"/>
       <c r="G1564" t="inlineStr"/>
-      <c r="H1564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1565">
@@ -51709,256 +51391,290 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1566" t="inlineStr"/>
-      <c r="C1566" t="inlineStr"/>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C1566" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D1566" t="inlineStr"/>
-      <c r="E1566" t="inlineStr"/>
+      <c r="E1566" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr"/>
-      <c r="H1566" t="inlineStr"/>
+      <c r="G1566" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H1566" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F1567" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F1567" t="inlineStr">
+        <is>
+          <t>42.1</t>
+        </is>
+      </c>
       <c r="G1567" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="H1567" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>$6.83T</t>
-        </is>
-      </c>
-      <c r="F1568" t="inlineStr"/>
-      <c r="G1568" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F1568" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="G1568" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="H1568" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F1569" t="inlineStr"/>
       <c r="G1569" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1570" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F1570" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="G1570" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="H1570" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F1571" t="inlineStr"/>
       <c r="G1571" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="H1571" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F1572" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F1572" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1573" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F1573" t="inlineStr"/>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="H1573" t="inlineStr">
@@ -51970,75 +51686,83 @@
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1574" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F1574" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G1574" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1575" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F1575" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="G1575" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
@@ -52048,23 +51772,23 @@
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1576" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="G1576" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="H1576" t="inlineStr">
@@ -52076,135 +51800,127 @@
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1577" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="G1577" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1578" t="inlineStr"/>
       <c r="G1578" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="H1578" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>ECB President Lagarde Speech</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
-      <c r="E1579" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+      <c r="E1579" t="inlineStr"/>
       <c r="F1579" t="inlineStr"/>
-      <c r="G1579" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G1579" t="inlineStr"/>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
       <c r="E1580" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1580" t="inlineStr"/>
       <c r="G1580" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>91.4</t>
         </is>
       </c>
       <c r="H1580" t="inlineStr">
@@ -52216,61 +51932,61 @@
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
-      <c r="E1581" t="inlineStr">
-        <is>
-          <t>0.25%</t>
-        </is>
-      </c>
-      <c r="F1581" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1581" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1581" t="inlineStr"/>
+      <c r="F1581" t="inlineStr"/>
+      <c r="G1581" t="inlineStr"/>
       <c r="H1581" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
-      <c r="E1582" t="inlineStr"/>
-      <c r="F1582" t="inlineStr"/>
-      <c r="G1582" t="inlineStr"/>
+      <c r="E1582" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="F1582" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="G1582" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
       <c r="H1582" t="inlineStr">
         <is>
           <t>2</t>
@@ -52280,23 +51996,23 @@
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>$625.87B</t>
         </is>
       </c>
       <c r="F1583" t="inlineStr"/>
@@ -52310,199 +52026,203 @@
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1584" t="inlineStr"/>
       <c r="G1584" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1584" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1585" t="inlineStr"/>
       <c r="G1585" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1585" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1586" t="inlineStr"/>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1586" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1587" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1587" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1587" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1587" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1588" t="inlineStr"/>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1588" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1589" t="inlineStr"/>
       <c r="G1589" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1589" t="inlineStr">
@@ -52514,33 +52234,29 @@
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1590" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1590" t="inlineStr"/>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1590" t="inlineStr">
@@ -52552,33 +52268,29 @@
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1591" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1591" t="inlineStr"/>
       <c r="G1591" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1591" t="inlineStr">
@@ -52590,67 +52302,67 @@
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1592" t="inlineStr"/>
       <c r="G1592" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1592" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1593" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1593" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1593" t="inlineStr">
@@ -52662,29 +52374,29 @@
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1594" t="inlineStr"/>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr">
@@ -52696,33 +52408,33 @@
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1595" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1595" t="inlineStr">
@@ -52734,215 +52446,215 @@
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1596" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1596" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1596" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1596" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1597" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1597" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1597" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1598" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1598" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1599" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1599" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1599" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1600" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1600" t="inlineStr"/>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr"/>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1601" t="inlineStr">
@@ -52954,57 +52666,57 @@
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1602" t="inlineStr"/>
-      <c r="E1602" t="inlineStr"/>
+      <c r="E1602" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr"/>
       <c r="H1602" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr"/>
-      <c r="G1603" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1603" t="inlineStr"/>
       <c r="H1603" t="inlineStr">
         <is>
           <t>3</t>
@@ -53014,87 +52726,71 @@
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1604" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1604" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1604" t="inlineStr"/>
+      <c r="C1604" t="inlineStr"/>
       <c r="D1604" t="inlineStr"/>
       <c r="E1604" t="inlineStr"/>
       <c r="F1604" t="inlineStr"/>
       <c r="G1604" t="inlineStr"/>
-      <c r="H1604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1604" t="inlineStr"/>
     </row>
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1605" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1605" t="inlineStr"/>
       <c r="G1605" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1605" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>$625.87B</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr"/>
@@ -53108,31 +52804,27 @@
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr"/>
-      <c r="G1607" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1607" t="inlineStr"/>
       <c r="H1607" t="inlineStr">
         <is>
           <t>3</t>
@@ -53142,31 +52834,27 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr"/>
-      <c r="G1608" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1608" t="inlineStr"/>
       <c r="H1608" t="inlineStr">
         <is>
           <t>3</t>
@@ -53176,31 +52864,23 @@
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
-      <c r="E1609" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1609" t="inlineStr"/>
       <c r="F1609" t="inlineStr"/>
-      <c r="G1609" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1609" t="inlineStr"/>
       <c r="H1609" t="inlineStr">
         <is>
           <t>3</t>
@@ -53210,69 +52890,53 @@
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
-      <c r="E1610" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1610" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1610" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1610" t="inlineStr"/>
+      <c r="F1610" t="inlineStr"/>
+      <c r="G1610" t="inlineStr"/>
       <c r="H1610" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr"/>
-      <c r="G1611" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1611" t="inlineStr"/>
       <c r="H1611" t="inlineStr">
         <is>
           <t>2</t>
@@ -53282,31 +52946,27 @@
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr"/>
-      <c r="G1612" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1612" t="inlineStr"/>
       <c r="H1612" t="inlineStr">
         <is>
           <t>3</t>
@@ -53316,169 +52976,145 @@
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr"/>
-      <c r="G1613" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1613" t="inlineStr"/>
       <c r="H1613" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr"/>
-      <c r="G1614" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1614" t="inlineStr"/>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr"/>
-      <c r="G1615" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1615" t="inlineStr"/>
       <c r="H1615" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:15 PM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
-      <c r="E1616" t="inlineStr">
-        <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1616" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1616" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+      <c r="E1616" t="inlineStr"/>
+      <c r="F1616" t="inlineStr"/>
+      <c r="G1616" t="inlineStr"/>
       <c r="H1616" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>43.5K</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr"/>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
@@ -53490,71 +53126,63 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1618" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1618" t="inlineStr"/>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1618" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1619" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1619" t="inlineStr"/>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1619" t="inlineStr">
@@ -53566,35 +53194,27 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1620" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="G1620" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1620" t="inlineStr"/>
+      <c r="G1620" t="inlineStr"/>
       <c r="H1620" t="inlineStr">
         <is>
           <t>3</t>
@@ -53604,35 +53224,27 @@
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1621" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1621" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1621" t="inlineStr"/>
+      <c r="G1621" t="inlineStr"/>
       <c r="H1621" t="inlineStr">
         <is>
           <t>3</t>
@@ -53642,67 +53254,63 @@
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1622" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>$-0.133B</t>
+        </is>
+      </c>
+      <c r="F1622" t="inlineStr"/>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1623" t="inlineStr">
@@ -53714,7 +53322,7 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
@@ -53724,51 +53332,55 @@
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1624" t="inlineStr"/>
       <c r="G1624" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="H1624" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
       <c r="E1625" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1625" t="inlineStr"/>
-      <c r="G1625" t="inlineStr"/>
+      <c r="G1625" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1625" t="inlineStr">
         <is>
           <t>3</t>
@@ -53778,25 +53390,21 @@
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
-      <c r="E1626" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
+      <c r="E1626" t="inlineStr"/>
       <c r="F1626" t="inlineStr"/>
       <c r="G1626" t="inlineStr"/>
       <c r="H1626" t="inlineStr">
@@ -53808,45 +53416,49 @@
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1627" t="inlineStr"/>
-      <c r="C1627" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1627" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1627" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1627" t="inlineStr"/>
       <c r="E1627" t="inlineStr"/>
       <c r="F1627" t="inlineStr"/>
       <c r="G1627" t="inlineStr"/>
-      <c r="H1627" t="inlineStr"/>
+      <c r="H1627" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1628" t="inlineStr"/>
       <c r="F1628" t="inlineStr"/>
-      <c r="G1628" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1628" t="inlineStr"/>
       <c r="H1628" t="inlineStr">
         <is>
           <t>3</t>
@@ -53856,107 +53468,103 @@
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
-      <c r="E1629" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1629" t="inlineStr"/>
       <c r="F1629" t="inlineStr"/>
       <c r="G1629" t="inlineStr"/>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
-      <c r="E1630" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1630" t="inlineStr"/>
       <c r="F1630" t="inlineStr"/>
-      <c r="G1630" t="inlineStr"/>
+      <c r="G1630" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1630" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
       <c r="E1631" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1631" t="inlineStr"/>
       <c r="G1631" t="inlineStr"/>
       <c r="H1631" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
@@ -53972,17 +53580,17 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
@@ -53998,55 +53606,47 @@
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
-      <c r="E1634" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1634" t="inlineStr"/>
       <c r="F1634" t="inlineStr"/>
       <c r="G1634" t="inlineStr"/>
       <c r="H1634" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1635">
       <c r="A1635" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
-      <c r="E1635" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1635" t="inlineStr"/>
       <c r="F1635" t="inlineStr"/>
       <c r="G1635" t="inlineStr"/>
       <c r="H1635" t="inlineStr">
@@ -54056,59 +53656,63 @@
       </c>
     </row>
     <row r="1636">
-      <c r="A1636" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1636" t="inlineStr"/>
       <c r="B1636" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1636" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1636" t="inlineStr"/>
       <c r="E1636" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1636" t="inlineStr"/>
-      <c r="G1636" t="inlineStr"/>
+      <c r="G1636" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1636" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1637">
-      <c r="A1637" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1637" t="inlineStr"/>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>85.1</t>
-        </is>
-      </c>
-      <c r="F1637" t="inlineStr"/>
-      <c r="G1637" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1637" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1637" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1637" t="inlineStr">
         <is>
           <t>3</t>
@@ -54118,121 +53722,109 @@
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1638" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1638" t="inlineStr">
-        <is>
-          <t>Ifo ExpectationsJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1638" t="inlineStr"/>
+      <c r="C1638" t="inlineStr"/>
       <c r="D1638" t="inlineStr"/>
-      <c r="E1638" t="inlineStr">
-        <is>
-          <t>84.4</t>
-        </is>
-      </c>
+      <c r="E1638" t="inlineStr"/>
       <c r="F1638" t="inlineStr"/>
       <c r="G1638" t="inlineStr"/>
-      <c r="H1638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1638" t="inlineStr"/>
     </row>
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr"/>
-      <c r="E1639" t="inlineStr"/>
+      <c r="E1639" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1639" t="inlineStr"/>
-      <c r="G1639" t="inlineStr"/>
+      <c r="G1639" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1639" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1640" t="inlineStr"/>
       <c r="G1640" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1640" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1641" t="inlineStr"/>
-      <c r="G1641" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1641" t="inlineStr"/>
       <c r="H1641" t="inlineStr">
         <is>
           <t>3</t>
@@ -54242,29 +53834,29 @@
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1642" t="inlineStr"/>
       <c r="G1642" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1642" t="inlineStr">
@@ -54276,27 +53868,31 @@
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1643" t="inlineStr"/>
-      <c r="G1643" t="inlineStr"/>
+      <c r="G1643" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1643" t="inlineStr">
         <is>
           <t>3</t>
@@ -54306,27 +53902,31 @@
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1644" t="inlineStr"/>
-      <c r="G1644" t="inlineStr"/>
+      <c r="G1644" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1644" t="inlineStr">
         <is>
           <t>3</t>
@@ -54336,97 +53936,93 @@
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1645" t="inlineStr"/>
       <c r="G1645" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1645" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr"/>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1646" t="inlineStr"/>
-      <c r="G1646" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1646" t="inlineStr"/>
       <c r="H1646" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1647" t="inlineStr"/>
       <c r="E1647" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1647" t="inlineStr"/>
       <c r="G1647" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1647" t="inlineStr">
@@ -54438,31 +54034,27 @@
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1648" t="inlineStr"/>
       <c r="E1648" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1648" t="inlineStr"/>
-      <c r="G1648" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1648" t="inlineStr"/>
       <c r="H1648" t="inlineStr">
         <is>
           <t>3</t>
@@ -54472,17 +54064,17 @@
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1649" t="inlineStr"/>
@@ -54498,17 +54090,17 @@
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1650" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1650" t="inlineStr"/>
@@ -54524,17 +54116,17 @@
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1651" t="inlineStr"/>
@@ -54550,33 +54142,37 @@
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1652" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1652" t="inlineStr"/>
-      <c r="E1652" t="inlineStr"/>
+      <c r="E1652" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1652" t="inlineStr"/>
       <c r="G1652" t="inlineStr"/>
       <c r="H1652" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1653" t="inlineStr">
@@ -54586,27 +54182,31 @@
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1653" t="inlineStr"/>
-      <c r="E1653" t="inlineStr"/>
+      <c r="E1653" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1653" t="inlineStr"/>
       <c r="G1653" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1653" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr">
@@ -54616,17 +54216,21 @@
       </c>
       <c r="C1654" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1654" t="inlineStr"/>
       <c r="E1654" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1654" t="inlineStr"/>
-      <c r="G1654" t="inlineStr"/>
+      <c r="G1654" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1654" t="inlineStr">
         <is>
           <t>2</t>
@@ -54636,7 +54240,7 @@
     <row r="1655">
       <c r="A1655" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1655" t="inlineStr">
@@ -54646,13 +54250,21 @@
       </c>
       <c r="C1655" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1655" t="inlineStr"/>
-      <c r="E1655" t="inlineStr"/>
+      <c r="E1655" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1655" t="inlineStr"/>
-      <c r="G1655" t="inlineStr"/>
+      <c r="G1655" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1655" t="inlineStr">
         <is>
           <t>3</t>
@@ -54662,7 +54274,7 @@
     <row r="1656">
       <c r="A1656" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1656" t="inlineStr">
@@ -54672,11 +54284,15 @@
       </c>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1656" t="inlineStr"/>
-      <c r="E1656" t="inlineStr"/>
+      <c r="E1656" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1656" t="inlineStr"/>
       <c r="G1656" t="inlineStr"/>
       <c r="H1656" t="inlineStr">
@@ -54688,7 +54304,7 @@
     <row r="1657">
       <c r="A1657" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1657" t="inlineStr">
@@ -54698,7 +54314,7 @@
       </c>
       <c r="C1657" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1657" t="inlineStr"/>
@@ -54714,7 +54330,7 @@
     <row r="1658">
       <c r="A1658" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1658" t="inlineStr">
@@ -54724,21 +54340,29 @@
       </c>
       <c r="C1658" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1658" t="inlineStr"/>
-      <c r="E1658" t="inlineStr"/>
+      <c r="E1658" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1658" t="inlineStr"/>
       <c r="G1658" t="inlineStr"/>
       <c r="H1658" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1659">
-      <c r="A1659" t="inlineStr"/>
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1659" t="inlineStr">
         <is>
           <t>US</t>
@@ -54746,21 +54370,17 @@
       </c>
       <c r="C1659" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1659" t="inlineStr"/>
       <c r="E1659" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1659" t="inlineStr"/>
-      <c r="G1659" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1659" t="inlineStr"/>
       <c r="H1659" t="inlineStr">
         <is>
           <t>3</t>
@@ -54768,7 +54388,11 @@
       </c>
     </row>
     <row r="1660">
-      <c r="A1660" t="inlineStr"/>
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1660" t="inlineStr">
         <is>
           <t>US</t>
@@ -54776,25 +54400,13 @@
       </c>
       <c r="C1660" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1660" t="inlineStr"/>
-      <c r="E1660" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1660" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1660" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1660" t="inlineStr"/>
+      <c r="F1660" t="inlineStr"/>
+      <c r="G1660" t="inlineStr"/>
       <c r="H1660" t="inlineStr">
         <is>
           <t>3</t>
@@ -54804,107 +54416,107 @@
     <row r="1661">
       <c r="A1661" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1661" t="inlineStr"/>
-      <c r="C1661" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1661" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1661" t="inlineStr">
+        <is>
+          <t>House Price Index YoYNOV</t>
+        </is>
+      </c>
       <c r="D1661" t="inlineStr"/>
-      <c r="E1661" t="inlineStr"/>
+      <c r="E1661" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1661" t="inlineStr"/>
       <c r="G1661" t="inlineStr"/>
-      <c r="H1661" t="inlineStr"/>
+      <c r="H1661" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1662">
       <c r="A1662" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1662" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1662" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1662" t="inlineStr"/>
       <c r="E1662" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1662" t="inlineStr"/>
-      <c r="G1662" t="inlineStr">
+      <c r="G1662" t="inlineStr"/>
+      <c r="H1662" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1662" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1663">
       <c r="A1663" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1663" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1663" t="inlineStr"/>
-      <c r="E1663" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1663" t="inlineStr"/>
       <c r="F1663" t="inlineStr"/>
-      <c r="G1663" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1663" t="inlineStr"/>
       <c r="H1663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1664">
       <c r="A1664" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1664" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1664" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1664" t="inlineStr"/>
-      <c r="E1664" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1664" t="inlineStr"/>
       <c r="F1664" t="inlineStr"/>
       <c r="G1664" t="inlineStr"/>
       <c r="H1664" t="inlineStr">
@@ -54916,29 +54528,29 @@
     <row r="1665">
       <c r="A1665" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1665" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1665" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1665" t="inlineStr"/>
       <c r="E1665" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1665" t="inlineStr"/>
       <c r="G1665" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1665" t="inlineStr">
@@ -54950,29 +54562,29 @@
     <row r="1666">
       <c r="A1666" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1666" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1666" t="inlineStr"/>
       <c r="E1666" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1666" t="inlineStr"/>
       <c r="G1666" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1666" t="inlineStr">
@@ -54984,31 +54596,27 @@
     <row r="1667">
       <c r="A1667" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1667" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1667" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1667" t="inlineStr"/>
       <c r="E1667" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1667" t="inlineStr"/>
-      <c r="G1667" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1667" t="inlineStr"/>
       <c r="H1667" t="inlineStr">
         <is>
           <t>3</t>
@@ -55018,31 +54626,27 @@
     <row r="1668">
       <c r="A1668" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1668" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1668" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1668" t="inlineStr"/>
       <c r="E1668" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1668" t="inlineStr"/>
-      <c r="G1668" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1668" t="inlineStr"/>
       <c r="H1668" t="inlineStr">
         <is>
           <t>3</t>
@@ -55052,684 +54656,84 @@
     <row r="1669">
       <c r="A1669" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1669" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1669" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1669" t="inlineStr"/>
-      <c r="E1669" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1669" t="inlineStr"/>
       <c r="F1669" t="inlineStr"/>
       <c r="G1669" t="inlineStr"/>
       <c r="H1669" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1670">
       <c r="A1670" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1670" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1670" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1670" t="inlineStr"/>
       <c r="E1670" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1670" t="inlineStr"/>
-      <c r="G1670" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1670" t="inlineStr"/>
       <c r="H1670" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1671">
       <c r="A1671" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1671" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1671" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1671" t="inlineStr"/>
       <c r="E1671" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1671" t="inlineStr"/>
       <c r="G1671" t="inlineStr"/>
       <c r="H1671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1672">
-      <c r="A1672" t="inlineStr">
-        <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1672" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1672" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
-      <c r="D1672" t="inlineStr"/>
-      <c r="E1672" t="inlineStr"/>
-      <c r="F1672" t="inlineStr"/>
-      <c r="G1672" t="inlineStr"/>
-      <c r="H1672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1673">
-      <c r="A1673" t="inlineStr">
-        <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1673" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1673" t="inlineStr">
-        <is>
-          <t>2-Year BTP Short Term Auction</t>
-        </is>
-      </c>
-      <c r="D1673" t="inlineStr"/>
-      <c r="E1673" t="inlineStr"/>
-      <c r="F1673" t="inlineStr"/>
-      <c r="G1673" t="inlineStr"/>
-      <c r="H1673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1674">
-      <c r="A1674" t="inlineStr">
-        <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1674" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1674" t="inlineStr">
-        <is>
-          <t>BTP€i Auction</t>
-        </is>
-      </c>
-      <c r="D1674" t="inlineStr"/>
-      <c r="E1674" t="inlineStr"/>
-      <c r="F1674" t="inlineStr"/>
-      <c r="G1674" t="inlineStr"/>
-      <c r="H1674" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1675">
-      <c r="A1675" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1675" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1675" t="inlineStr">
-        <is>
-          <t>2-Year Schatz Auction</t>
-        </is>
-      </c>
-      <c r="D1675" t="inlineStr"/>
-      <c r="E1675" t="inlineStr">
-        <is>
-          <t>2.18%</t>
-        </is>
-      </c>
-      <c r="F1675" t="inlineStr"/>
-      <c r="G1675" t="inlineStr"/>
-      <c r="H1675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1676">
-      <c r="A1676" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1676" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1676" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1676" t="inlineStr"/>
-      <c r="E1676" t="inlineStr">
-        <is>
-          <t>-1.1%</t>
-        </is>
-      </c>
-      <c r="F1676" t="inlineStr"/>
-      <c r="G1676" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H1676" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1677">
-      <c r="A1677" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1677" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1677" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1677" t="inlineStr"/>
-      <c r="E1677" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1677" t="inlineStr"/>
-      <c r="G1677" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1677" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1678">
-      <c r="A1678" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1678" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1678" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1678" t="inlineStr"/>
-      <c r="E1678" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1678" t="inlineStr"/>
-      <c r="G1678" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H1678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1679">
-      <c r="A1679" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1679" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1679" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
-        </is>
-      </c>
-      <c r="D1679" t="inlineStr"/>
-      <c r="E1679" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="F1679" t="inlineStr"/>
-      <c r="G1679" t="inlineStr"/>
-      <c r="H1679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1680">
-      <c r="A1680" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B1680" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1680" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/25</t>
-        </is>
-      </c>
-      <c r="D1680" t="inlineStr"/>
-      <c r="E1680" t="inlineStr"/>
-      <c r="F1680" t="inlineStr"/>
-      <c r="G1680" t="inlineStr"/>
-      <c r="H1680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1681">
-      <c r="A1681" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1681" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1681" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1681" t="inlineStr"/>
-      <c r="E1681" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1681" t="inlineStr"/>
-      <c r="G1681" t="inlineStr"/>
-      <c r="H1681" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1682">
-      <c r="A1682" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1682" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1682" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
-      <c r="D1682" t="inlineStr"/>
-      <c r="E1682" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
-      <c r="F1682" t="inlineStr"/>
-      <c r="G1682" t="inlineStr"/>
-      <c r="H1682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1683">
-      <c r="A1683" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1683" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1683" t="inlineStr">
-        <is>
-          <t>House Price Index MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1683" t="inlineStr"/>
-      <c r="E1683" t="inlineStr"/>
-      <c r="F1683" t="inlineStr"/>
-      <c r="G1683" t="inlineStr"/>
-      <c r="H1683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1684">
-      <c r="A1684" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1684" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1684" t="inlineStr">
-        <is>
-          <t>House Price Index YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1684" t="inlineStr"/>
-      <c r="E1684" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1684" t="inlineStr"/>
-      <c r="G1684" t="inlineStr"/>
-      <c r="H1684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1685">
-      <c r="A1685" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1685" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1685" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1685" t="inlineStr"/>
-      <c r="E1685" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1685" t="inlineStr"/>
-      <c r="G1685" t="inlineStr"/>
-      <c r="H1685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1686">
-      <c r="A1686" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1686" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1686" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1686" t="inlineStr"/>
-      <c r="E1686" t="inlineStr"/>
-      <c r="F1686" t="inlineStr"/>
-      <c r="G1686" t="inlineStr"/>
-      <c r="H1686" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1687">
-      <c r="A1687" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1687" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1687" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1687" t="inlineStr"/>
-      <c r="E1687" t="inlineStr"/>
-      <c r="F1687" t="inlineStr"/>
-      <c r="G1687" t="inlineStr"/>
-      <c r="H1687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1688">
-      <c r="A1688" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1688" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1688" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1688" t="inlineStr"/>
-      <c r="E1688" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F1688" t="inlineStr"/>
-      <c r="G1688" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="H1688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1689">
-      <c r="A1689" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1689" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1689" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1689" t="inlineStr"/>
-      <c r="E1689" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="F1689" t="inlineStr"/>
-      <c r="G1689" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H1689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1690">
-      <c r="A1690" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1690" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1690" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1690" t="inlineStr"/>
-      <c r="E1690" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="F1690" t="inlineStr"/>
-      <c r="G1690" t="inlineStr"/>
-      <c r="H1690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1691">
-      <c r="A1691" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1691" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1691" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1691" t="inlineStr"/>
-      <c r="E1691" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
-      <c r="F1691" t="inlineStr"/>
-      <c r="G1691" t="inlineStr"/>
-      <c r="H1691" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1692"/>
+  <dimension ref="A1:H1669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46555,10 +46555,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1406">
@@ -46593,10 +46591,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1407">
@@ -46631,10 +46627,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1408">
@@ -46665,10 +46659,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -46703,10 +46695,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -46737,10 +46727,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -46775,10 +46763,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -46813,10 +46799,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1413">
@@ -46851,10 +46835,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1414">
@@ -46885,10 +46867,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1415">
@@ -46919,10 +46899,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1416">
@@ -46949,10 +46927,8 @@
       </c>
       <c r="F1416" t="inlineStr"/>
       <c r="G1416" t="inlineStr"/>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1417">
@@ -46979,10 +46955,8 @@
       </c>
       <c r="F1417" t="inlineStr"/>
       <c r="G1417" t="inlineStr"/>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1418">
@@ -47013,10 +46987,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -47047,10 +47019,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1420">
@@ -47077,10 +47047,8 @@
       </c>
       <c r="F1420" t="inlineStr"/>
       <c r="G1420" t="inlineStr"/>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1421">
@@ -47107,10 +47075,8 @@
       </c>
       <c r="F1421" t="inlineStr"/>
       <c r="G1421" t="inlineStr"/>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1422">
@@ -47137,10 +47103,8 @@
       </c>
       <c r="F1422" t="inlineStr"/>
       <c r="G1422" t="inlineStr"/>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -47163,10 +47127,8 @@
       <c r="E1423" t="inlineStr"/>
       <c r="F1423" t="inlineStr"/>
       <c r="G1423" t="inlineStr"/>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1424">
@@ -47197,10 +47159,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1425">
@@ -47231,10 +47191,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1426">
@@ -47253,10 +47211,8 @@
       <c r="E1426" t="inlineStr"/>
       <c r="F1426" t="inlineStr"/>
       <c r="G1426" t="inlineStr"/>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -47279,10 +47235,8 @@
       </c>
       <c r="F1427" t="inlineStr"/>
       <c r="G1427" t="inlineStr"/>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -47309,10 +47263,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1429">
@@ -47331,10 +47283,8 @@
       <c r="E1429" t="inlineStr"/>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1430">
@@ -47361,10 +47311,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -47391,10 +47339,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -47413,10 +47359,8 @@
       <c r="E1432" t="inlineStr"/>
       <c r="F1432" t="inlineStr"/>
       <c r="G1432" t="inlineStr"/>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -47465,10 +47409,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1435">
@@ -47499,10 +47441,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1436">
@@ -47533,10 +47473,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1437">
@@ -47563,10 +47501,8 @@
       </c>
       <c r="F1437" t="inlineStr"/>
       <c r="G1437" t="inlineStr"/>
-      <c r="H1437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1438">
@@ -47593,10 +47529,8 @@
       </c>
       <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr"/>
-      <c r="H1438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1439">
@@ -47623,10 +47557,8 @@
       </c>
       <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="inlineStr"/>
-      <c r="H1439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1440">
@@ -47657,10 +47589,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1440" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1440" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1441">
@@ -47695,10 +47625,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1441" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1441" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1442">
@@ -47733,10 +47661,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1442" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1442" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1443">
@@ -47767,10 +47693,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1443" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1443" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1444">
@@ -47805,10 +47729,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1445">
@@ -47843,10 +47765,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1446">
@@ -47877,10 +47797,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1447">
@@ -47911,10 +47829,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1448">
@@ -47945,10 +47861,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1449">
@@ -47979,10 +47893,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1450">
@@ -48017,10 +47929,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1450" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1450" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1451">
@@ -48055,10 +47965,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1451" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1451" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1452">
@@ -48093,10 +48001,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1453">
@@ -48123,10 +48029,8 @@
       </c>
       <c r="F1453" t="inlineStr"/>
       <c r="G1453" t="inlineStr"/>
-      <c r="H1453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1454">
@@ -48153,10 +48057,8 @@
       </c>
       <c r="F1454" t="inlineStr"/>
       <c r="G1454" t="inlineStr"/>
-      <c r="H1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1455">
@@ -48187,10 +48089,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1456">
@@ -48221,10 +48121,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1457">
@@ -48259,10 +48157,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1457" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1457" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1458">
@@ -48293,10 +48189,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1458" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1458" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1459">
@@ -48331,10 +48225,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1459" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1459" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1460">
@@ -48365,10 +48257,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1460" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1461">
@@ -48403,10 +48293,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1461" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1462">
@@ -48441,10 +48329,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1463">
@@ -48471,10 +48357,8 @@
       </c>
       <c r="F1463" t="inlineStr"/>
       <c r="G1463" t="inlineStr"/>
-      <c r="H1463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1464">
@@ -48501,10 +48385,8 @@
       </c>
       <c r="F1464" t="inlineStr"/>
       <c r="G1464" t="inlineStr"/>
-      <c r="H1464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1465">
@@ -48531,10 +48413,8 @@
       </c>
       <c r="F1465" t="inlineStr"/>
       <c r="G1465" t="inlineStr"/>
-      <c r="H1465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1466">
@@ -48561,10 +48441,8 @@
       </c>
       <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr"/>
-      <c r="H1466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1466" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1467">
@@ -48583,10 +48461,8 @@
       <c r="E1467" t="inlineStr"/>
       <c r="F1467" t="inlineStr"/>
       <c r="G1467" t="inlineStr"/>
-      <c r="H1467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1468">
@@ -48631,10 +48507,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1469" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1469" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1470">
@@ -48665,10 +48539,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1470" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1471">
@@ -48703,10 +48575,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1471" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1471" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1472">
@@ -48737,10 +48607,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1472" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1472" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1473">
@@ -48771,10 +48639,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1473" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1473" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1474">
@@ -48805,10 +48671,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1474" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1475">
@@ -48839,10 +48703,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1475" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1476">
@@ -48869,10 +48731,8 @@
       </c>
       <c r="F1476" t="inlineStr"/>
       <c r="G1476" t="inlineStr"/>
-      <c r="H1476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1477">
@@ -48903,10 +48763,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1478">
@@ -48937,10 +48795,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1479">
@@ -48967,10 +48823,8 @@
       </c>
       <c r="F1479" t="inlineStr"/>
       <c r="G1479" t="inlineStr"/>
-      <c r="H1479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1480">
@@ -48997,10 +48851,8 @@
       </c>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr"/>
-      <c r="H1480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1481">
@@ -49027,10 +48879,8 @@
       </c>
       <c r="F1481" t="inlineStr"/>
       <c r="G1481" t="inlineStr"/>
-      <c r="H1481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1482">
@@ -49057,10 +48907,8 @@
       </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
-      <c r="H1482" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1482" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1483">
@@ -49087,10 +48935,8 @@
       </c>
       <c r="F1483" t="inlineStr"/>
       <c r="G1483" t="inlineStr"/>
-      <c r="H1483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1484">
@@ -49117,10 +48963,8 @@
       </c>
       <c r="F1484" t="inlineStr"/>
       <c r="G1484" t="inlineStr"/>
-      <c r="H1484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1484" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1485">
@@ -49147,10 +48991,8 @@
       </c>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr"/>
-      <c r="H1485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1486">
@@ -49177,10 +49019,8 @@
       </c>
       <c r="F1486" t="inlineStr"/>
       <c r="G1486" t="inlineStr"/>
-      <c r="H1486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1487">
@@ -49215,10 +49055,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1488">
@@ -49249,10 +49087,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1489">
@@ -49287,10 +49123,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1490">
@@ -49321,10 +49155,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1491">
@@ -49351,10 +49183,8 @@
       </c>
       <c r="F1491" t="inlineStr"/>
       <c r="G1491" t="inlineStr"/>
-      <c r="H1491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1492">
@@ -49389,10 +49219,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1493">
@@ -49415,10 +49243,8 @@
       <c r="E1493" t="inlineStr"/>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr"/>
-      <c r="H1493" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1493" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1494">
@@ -49445,10 +49271,8 @@
       </c>
       <c r="F1494" t="inlineStr"/>
       <c r="G1494" t="inlineStr"/>
-      <c r="H1494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1495">
@@ -49475,10 +49299,8 @@
       </c>
       <c r="F1495" t="inlineStr"/>
       <c r="G1495" t="inlineStr"/>
-      <c r="H1495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1496">
@@ -49523,10 +49345,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1498">
@@ -49557,10 +49377,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1498" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1498" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1499">
@@ -49587,10 +49405,8 @@
       </c>
       <c r="F1499" t="inlineStr"/>
       <c r="G1499" t="inlineStr"/>
-      <c r="H1499" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1499" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1500">
@@ -49625,10 +49441,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1500" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1500" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1501">
@@ -49663,10 +49477,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1501" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1502">
@@ -49701,10 +49513,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1502" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1502" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1503">
@@ -49739,10 +49549,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1503" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1503" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1504">
@@ -49769,10 +49577,8 @@
       </c>
       <c r="F1504" t="inlineStr"/>
       <c r="G1504" t="inlineStr"/>
-      <c r="H1504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1504" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1505">
@@ -49807,10 +49613,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1505" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1506">
@@ -49837,10 +49641,8 @@
       </c>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr"/>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1507">
@@ -49867,10 +49669,8 @@
       </c>
       <c r="F1507" t="inlineStr"/>
       <c r="G1507" t="inlineStr"/>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1508">
@@ -49897,10 +49697,8 @@
       </c>
       <c r="F1508" t="inlineStr"/>
       <c r="G1508" t="inlineStr"/>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1509">
@@ -49927,10 +49725,8 @@
       </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr"/>
-      <c r="H1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1510">
@@ -49961,10 +49757,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1511">
@@ -49995,10 +49789,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1512">
@@ -50029,10 +49821,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1513">
@@ -50063,10 +49853,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1514">
@@ -50093,10 +49881,8 @@
       </c>
       <c r="F1514" t="inlineStr"/>
       <c r="G1514" t="inlineStr"/>
-      <c r="H1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1515">
@@ -50123,10 +49909,8 @@
       </c>
       <c r="F1515" t="inlineStr"/>
       <c r="G1515" t="inlineStr"/>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1516">
@@ -50157,10 +49941,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1516" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1517">
@@ -50195,10 +49977,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1517" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1518">
@@ -50229,10 +50009,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1519">
@@ -50259,10 +50037,8 @@
       </c>
       <c r="F1519" t="inlineStr"/>
       <c r="G1519" t="inlineStr"/>
-      <c r="H1519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1519" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1520">
@@ -50289,10 +50065,8 @@
       </c>
       <c r="F1520" t="inlineStr"/>
       <c r="G1520" t="inlineStr"/>
-      <c r="H1520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1521">
@@ -50319,10 +50093,8 @@
       </c>
       <c r="F1521" t="inlineStr"/>
       <c r="G1521" t="inlineStr"/>
-      <c r="H1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1522">
@@ -50349,10 +50121,8 @@
       </c>
       <c r="F1522" t="inlineStr"/>
       <c r="G1522" t="inlineStr"/>
-      <c r="H1522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1523">
@@ -50379,10 +50149,8 @@
       </c>
       <c r="F1523" t="inlineStr"/>
       <c r="G1523" t="inlineStr"/>
-      <c r="H1523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1524">
@@ -50409,10 +50177,8 @@
       </c>
       <c r="F1524" t="inlineStr"/>
       <c r="G1524" t="inlineStr"/>
-      <c r="H1524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1525">
@@ -50439,10 +50205,8 @@
       </c>
       <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="inlineStr"/>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1526">
@@ -50469,10 +50233,8 @@
       </c>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1527">
@@ -50503,10 +50265,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1528">
@@ -50537,10 +50297,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1528" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1528" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1529">
@@ -50575,10 +50333,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1529" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1529" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1530">
@@ -50609,10 +50365,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1530" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1531">
@@ -50643,10 +50397,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1531" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1531" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1532">
@@ -50681,10 +50433,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1532" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1532" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1533">
@@ -50711,10 +50461,8 @@
       </c>
       <c r="F1533" t="inlineStr"/>
       <c r="G1533" t="inlineStr"/>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1534">
@@ -50745,10 +50493,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1535">
@@ -50779,10 +50525,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1536">
@@ -50813,10 +50557,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1537">
@@ -50847,10 +50589,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1538">
@@ -50885,10 +50625,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1538" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1538" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1539">
@@ -50923,10 +50661,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1539" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1539" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1540">
@@ -50949,10 +50685,8 @@
       <c r="E1540" t="inlineStr"/>
       <c r="F1540" t="inlineStr"/>
       <c r="G1540" t="inlineStr"/>
-      <c r="H1540" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1540" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1541">
@@ -50983,10 +50717,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1542">
@@ -51021,10 +50753,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1542" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1542" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1543">
@@ -51055,10 +50785,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1544">
@@ -51089,10 +50817,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1545">
@@ -51127,10 +50853,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1545" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1545" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1546">
@@ -51157,10 +50881,8 @@
       </c>
       <c r="F1546" t="inlineStr"/>
       <c r="G1546" t="inlineStr"/>
-      <c r="H1546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1547">
@@ -51187,10 +50909,8 @@
       </c>
       <c r="F1547" t="inlineStr"/>
       <c r="G1547" t="inlineStr"/>
-      <c r="H1547" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1547" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1548">
@@ -51217,10 +50937,8 @@
       </c>
       <c r="F1548" t="inlineStr"/>
       <c r="G1548" t="inlineStr"/>
-      <c r="H1548" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1548" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1549">
@@ -51247,10 +50965,8 @@
       </c>
       <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr"/>
-      <c r="H1549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1550">
@@ -51277,10 +50993,8 @@
       </c>
       <c r="F1550" t="inlineStr"/>
       <c r="G1550" t="inlineStr"/>
-      <c r="H1550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1551">
@@ -51307,10 +51021,8 @@
       </c>
       <c r="F1551" t="inlineStr"/>
       <c r="G1551" t="inlineStr"/>
-      <c r="H1551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1552">
@@ -51337,10 +51049,8 @@
       </c>
       <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr"/>
-      <c r="H1552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1553">
@@ -51367,10 +51077,8 @@
       </c>
       <c r="F1553" t="inlineStr"/>
       <c r="G1553" t="inlineStr"/>
-      <c r="H1553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1554">
@@ -51397,10 +51105,8 @@
       </c>
       <c r="F1554" t="inlineStr"/>
       <c r="G1554" t="inlineStr"/>
-      <c r="H1554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1554" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1555">
@@ -51427,10 +51133,8 @@
       </c>
       <c r="F1555" t="inlineStr"/>
       <c r="G1555" t="inlineStr"/>
-      <c r="H1555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1555" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1556">
@@ -51457,10 +51161,8 @@
       </c>
       <c r="F1556" t="inlineStr"/>
       <c r="G1556" t="inlineStr"/>
-      <c r="H1556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1556" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1557">
@@ -51487,10 +51189,8 @@
       </c>
       <c r="F1557" t="inlineStr"/>
       <c r="G1557" t="inlineStr"/>
-      <c r="H1557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1557" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1558">
@@ -51517,10 +51217,8 @@
       </c>
       <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr"/>
-      <c r="H1558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1559">
@@ -51547,10 +51245,8 @@
       </c>
       <c r="F1559" t="inlineStr"/>
       <c r="G1559" t="inlineStr"/>
-      <c r="H1559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1560">
@@ -51577,10 +51273,8 @@
       </c>
       <c r="F1560" t="inlineStr"/>
       <c r="G1560" t="inlineStr"/>
-      <c r="H1560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1561">
@@ -51607,10 +51301,8 @@
       </c>
       <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr"/>
-      <c r="H1561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1562">
@@ -51633,10 +51325,8 @@
       </c>
       <c r="F1562" t="inlineStr"/>
       <c r="G1562" t="inlineStr"/>
-      <c r="H1562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1563">
@@ -51663,256 +51353,290 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1564" t="inlineStr"/>
-      <c r="C1564" t="inlineStr"/>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C1564" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D1564" t="inlineStr"/>
-      <c r="E1564" t="inlineStr"/>
+      <c r="E1564" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1564" t="inlineStr"/>
-      <c r="G1564" t="inlineStr"/>
-      <c r="H1564" t="inlineStr"/>
+      <c r="G1564" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H1564" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F1565" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F1565" t="inlineStr">
+        <is>
+          <t>42.1</t>
+        </is>
+      </c>
       <c r="G1565" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="H1565" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
       <c r="E1566" t="inlineStr">
         <is>
-          <t>$6.83T</t>
-        </is>
-      </c>
-      <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F1566" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="G1566" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="H1566" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F1567" t="inlineStr"/>
       <c r="G1567" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H1567" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1568" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F1568" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="G1568" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="H1568" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F1569" t="inlineStr"/>
       <c r="G1569" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F1570" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F1570" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="G1570" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1570" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1571" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F1571" t="inlineStr"/>
       <c r="G1571" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="H1571" t="inlineStr">
@@ -51924,75 +51648,83 @@
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1572" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F1572" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1573" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F1573" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H1573" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
@@ -52002,23 +51734,23 @@
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1574" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="G1574" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="H1574" t="inlineStr">
@@ -52030,135 +51762,127 @@
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1575" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="G1575" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1576" t="inlineStr"/>
       <c r="G1576" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="H1576" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>ECB President Lagarde Speech</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
-      <c r="E1577" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+      <c r="E1577" t="inlineStr"/>
       <c r="F1577" t="inlineStr"/>
-      <c r="G1577" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G1577" t="inlineStr"/>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1578" t="inlineStr"/>
       <c r="G1578" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>91.4</t>
         </is>
       </c>
       <c r="H1578" t="inlineStr">
@@ -52170,61 +51894,61 @@
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
-      <c r="E1579" t="inlineStr">
-        <is>
-          <t>0.25%</t>
-        </is>
-      </c>
-      <c r="F1579" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1579" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1579" t="inlineStr"/>
+      <c r="F1579" t="inlineStr"/>
+      <c r="G1579" t="inlineStr"/>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
-      <c r="E1580" t="inlineStr"/>
-      <c r="F1580" t="inlineStr"/>
-      <c r="G1580" t="inlineStr"/>
+      <c r="E1580" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="F1580" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="G1580" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
       <c r="H1580" t="inlineStr">
         <is>
           <t>2</t>
@@ -52234,23 +51958,23 @@
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>$625.87B</t>
         </is>
       </c>
       <c r="F1581" t="inlineStr"/>
@@ -52264,199 +51988,203 @@
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
       <c r="E1582" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1582" t="inlineStr"/>
       <c r="G1582" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1582" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1583" t="inlineStr"/>
       <c r="G1583" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1583" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1584" t="inlineStr"/>
       <c r="G1584" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1584" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1585" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1585" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1585" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1585" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1586" t="inlineStr"/>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1586" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1587" t="inlineStr"/>
       <c r="G1587" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1587" t="inlineStr">
@@ -52468,33 +52196,29 @@
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1588" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1588" t="inlineStr"/>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1588" t="inlineStr">
@@ -52506,33 +52230,29 @@
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1589" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1589" t="inlineStr"/>
       <c r="G1589" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1589" t="inlineStr">
@@ -52544,67 +52264,67 @@
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1590" t="inlineStr"/>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1590" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1591" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1591" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1591" t="inlineStr">
@@ -52616,29 +52336,29 @@
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1592" t="inlineStr"/>
       <c r="G1592" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1592" t="inlineStr">
@@ -52650,33 +52370,33 @@
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1593" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1593" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1593" t="inlineStr">
@@ -52688,215 +52408,215 @@
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1594" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1594" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1595" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1595" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1596" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1596" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1596" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1597" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1597" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1597" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1598" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1598" t="inlineStr"/>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1598" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1599" t="inlineStr"/>
       <c r="G1599" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1599" t="inlineStr">
@@ -52908,57 +52628,57 @@
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
-      <c r="E1600" t="inlineStr"/>
+      <c r="E1600" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1600" t="inlineStr"/>
       <c r="G1600" t="inlineStr"/>
       <c r="H1600" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr"/>
-      <c r="G1601" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1601" t="inlineStr"/>
       <c r="H1601" t="inlineStr">
         <is>
           <t>3</t>
@@ -52968,87 +52688,71 @@
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1602" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1602" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr"/>
+      <c r="C1602" t="inlineStr"/>
       <c r="D1602" t="inlineStr"/>
       <c r="E1602" t="inlineStr"/>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr"/>
-      <c r="H1602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1602" t="inlineStr"/>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1603" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1603" t="inlineStr"/>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1603" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>$625.87B</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr"/>
@@ -53062,31 +52766,27 @@
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr"/>
-      <c r="G1605" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1605" t="inlineStr"/>
       <c r="H1605" t="inlineStr">
         <is>
           <t>3</t>
@@ -53096,31 +52796,27 @@
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr"/>
-      <c r="G1606" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1606" t="inlineStr"/>
       <c r="H1606" t="inlineStr">
         <is>
           <t>3</t>
@@ -53130,31 +52826,23 @@
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
-      <c r="E1607" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1607" t="inlineStr"/>
       <c r="F1607" t="inlineStr"/>
-      <c r="G1607" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1607" t="inlineStr"/>
       <c r="H1607" t="inlineStr">
         <is>
           <t>3</t>
@@ -53164,69 +52852,53 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
-      <c r="E1608" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1608" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1608" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1608" t="inlineStr"/>
+      <c r="F1608" t="inlineStr"/>
+      <c r="G1608" t="inlineStr"/>
       <c r="H1608" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr"/>
-      <c r="G1609" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1609" t="inlineStr"/>
       <c r="H1609" t="inlineStr">
         <is>
           <t>2</t>
@@ -53236,31 +52908,27 @@
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr"/>
-      <c r="G1610" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1610" t="inlineStr"/>
       <c r="H1610" t="inlineStr">
         <is>
           <t>3</t>
@@ -53270,169 +52938,145 @@
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr"/>
-      <c r="G1611" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1611" t="inlineStr"/>
       <c r="H1611" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr"/>
-      <c r="G1612" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1612" t="inlineStr"/>
       <c r="H1612" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr"/>
-      <c r="G1613" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1613" t="inlineStr"/>
       <c r="H1613" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:15 PM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
-      <c r="E1614" t="inlineStr">
-        <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1614" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1614" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+      <c r="E1614" t="inlineStr"/>
+      <c r="F1614" t="inlineStr"/>
+      <c r="G1614" t="inlineStr"/>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>43.5K</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr"/>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
@@ -53444,71 +53088,63 @@
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1616" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1616" t="inlineStr"/>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1616" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1617" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1617" t="inlineStr"/>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
@@ -53520,35 +53156,27 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1618" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="G1618" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1618" t="inlineStr"/>
+      <c r="G1618" t="inlineStr"/>
       <c r="H1618" t="inlineStr">
         <is>
           <t>3</t>
@@ -53558,35 +53186,27 @@
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1619" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1619" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1619" t="inlineStr"/>
+      <c r="G1619" t="inlineStr"/>
       <c r="H1619" t="inlineStr">
         <is>
           <t>3</t>
@@ -53596,67 +53216,63 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1620" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>$-0.133B</t>
+        </is>
+      </c>
+      <c r="F1620" t="inlineStr"/>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1620" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr"/>
       <c r="G1621" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1621" t="inlineStr">
@@ -53668,7 +53284,7 @@
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
@@ -53678,51 +53294,55 @@
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr"/>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
-      <c r="G1623" t="inlineStr"/>
+      <c r="G1623" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1623" t="inlineStr">
         <is>
           <t>3</t>
@@ -53732,25 +53352,21 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
-      <c r="E1624" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
+      <c r="E1624" t="inlineStr"/>
       <c r="F1624" t="inlineStr"/>
       <c r="G1624" t="inlineStr"/>
       <c r="H1624" t="inlineStr">
@@ -53762,45 +53378,49 @@
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1625" t="inlineStr"/>
-      <c r="C1625" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1625" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1625" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1625" t="inlineStr"/>
       <c r="E1625" t="inlineStr"/>
       <c r="F1625" t="inlineStr"/>
       <c r="G1625" t="inlineStr"/>
-      <c r="H1625" t="inlineStr"/>
+      <c r="H1625" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
-      <c r="E1626" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1626" t="inlineStr"/>
       <c r="F1626" t="inlineStr"/>
-      <c r="G1626" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1626" t="inlineStr"/>
       <c r="H1626" t="inlineStr">
         <is>
           <t>3</t>
@@ -53810,107 +53430,103 @@
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
-      <c r="E1627" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1627" t="inlineStr"/>
       <c r="F1627" t="inlineStr"/>
       <c r="G1627" t="inlineStr"/>
       <c r="H1627" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1628" t="inlineStr"/>
       <c r="F1628" t="inlineStr"/>
-      <c r="G1628" t="inlineStr"/>
+      <c r="G1628" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1628" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1629" t="inlineStr"/>
       <c r="G1629" t="inlineStr"/>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
@@ -53926,17 +53542,17 @@
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
@@ -53952,55 +53568,47 @@
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
-      <c r="E1632" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1632" t="inlineStr"/>
       <c r="F1632" t="inlineStr"/>
       <c r="G1632" t="inlineStr"/>
       <c r="H1632" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
-      <c r="E1633" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1633" t="inlineStr"/>
       <c r="F1633" t="inlineStr"/>
       <c r="G1633" t="inlineStr"/>
       <c r="H1633" t="inlineStr">
@@ -54010,59 +53618,63 @@
       </c>
     </row>
     <row r="1634">
-      <c r="A1634" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1634" t="inlineStr"/>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
       <c r="E1634" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1634" t="inlineStr"/>
-      <c r="G1634" t="inlineStr"/>
+      <c r="G1634" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1634" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1635">
-      <c r="A1635" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1635" t="inlineStr"/>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
       <c r="E1635" t="inlineStr">
         <is>
-          <t>85.1</t>
-        </is>
-      </c>
-      <c r="F1635" t="inlineStr"/>
-      <c r="G1635" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1635" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1635" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1635" t="inlineStr">
         <is>
           <t>3</t>
@@ -54072,121 +53684,109 @@
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1636" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1636" t="inlineStr">
-        <is>
-          <t>Ifo ExpectationsJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1636" t="inlineStr"/>
+      <c r="C1636" t="inlineStr"/>
       <c r="D1636" t="inlineStr"/>
-      <c r="E1636" t="inlineStr">
-        <is>
-          <t>84.4</t>
-        </is>
-      </c>
+      <c r="E1636" t="inlineStr"/>
       <c r="F1636" t="inlineStr"/>
       <c r="G1636" t="inlineStr"/>
-      <c r="H1636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1636" t="inlineStr"/>
     </row>
     <row r="1637">
       <c r="A1637" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
-      <c r="E1637" t="inlineStr"/>
+      <c r="E1637" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1637" t="inlineStr"/>
-      <c r="G1637" t="inlineStr"/>
+      <c r="G1637" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1637" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1638" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1638" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1638" t="inlineStr"/>
       <c r="E1638" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1638" t="inlineStr"/>
       <c r="G1638" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1638" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr"/>
       <c r="E1639" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1639" t="inlineStr"/>
-      <c r="G1639" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1639" t="inlineStr"/>
       <c r="H1639" t="inlineStr">
         <is>
           <t>3</t>
@@ -54196,29 +53796,29 @@
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1640" t="inlineStr"/>
       <c r="G1640" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1640" t="inlineStr">
@@ -54230,27 +53830,31 @@
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1641" t="inlineStr"/>
-      <c r="G1641" t="inlineStr"/>
+      <c r="G1641" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1641" t="inlineStr">
         <is>
           <t>3</t>
@@ -54260,27 +53864,31 @@
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1642" t="inlineStr"/>
-      <c r="G1642" t="inlineStr"/>
+      <c r="G1642" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1642" t="inlineStr">
         <is>
           <t>3</t>
@@ -54290,97 +53898,93 @@
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1643" t="inlineStr"/>
       <c r="G1643" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1643" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1644" t="inlineStr"/>
-      <c r="G1644" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1644" t="inlineStr"/>
       <c r="H1644" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1645" t="inlineStr"/>
       <c r="G1645" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1645" t="inlineStr">
@@ -54392,31 +53996,27 @@
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr"/>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1646" t="inlineStr"/>
-      <c r="G1646" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1646" t="inlineStr"/>
       <c r="H1646" t="inlineStr">
         <is>
           <t>3</t>
@@ -54426,17 +54026,17 @@
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1647" t="inlineStr"/>
@@ -54452,17 +54052,17 @@
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1648" t="inlineStr"/>
@@ -54478,17 +54078,17 @@
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1649" t="inlineStr"/>
@@ -54504,33 +54104,37 @@
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1650" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1650" t="inlineStr"/>
-      <c r="E1650" t="inlineStr"/>
+      <c r="E1650" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1650" t="inlineStr"/>
       <c r="G1650" t="inlineStr"/>
       <c r="H1650" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
@@ -54540,27 +54144,31 @@
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1651" t="inlineStr"/>
-      <c r="E1651" t="inlineStr"/>
+      <c r="E1651" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1651" t="inlineStr"/>
       <c r="G1651" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1651" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1652" t="inlineStr">
@@ -54570,17 +54178,21 @@
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1652" t="inlineStr"/>
       <c r="E1652" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1652" t="inlineStr"/>
-      <c r="G1652" t="inlineStr"/>
+      <c r="G1652" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1652" t="inlineStr">
         <is>
           <t>2</t>
@@ -54590,7 +54202,7 @@
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1653" t="inlineStr">
@@ -54600,13 +54212,21 @@
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1653" t="inlineStr"/>
-      <c r="E1653" t="inlineStr"/>
+      <c r="E1653" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1653" t="inlineStr"/>
-      <c r="G1653" t="inlineStr"/>
+      <c r="G1653" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1653" t="inlineStr">
         <is>
           <t>3</t>
@@ -54616,7 +54236,7 @@
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr">
@@ -54626,11 +54246,15 @@
       </c>
       <c r="C1654" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1654" t="inlineStr"/>
-      <c r="E1654" t="inlineStr"/>
+      <c r="E1654" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1654" t="inlineStr"/>
       <c r="G1654" t="inlineStr"/>
       <c r="H1654" t="inlineStr">
@@ -54642,7 +54266,7 @@
     <row r="1655">
       <c r="A1655" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1655" t="inlineStr">
@@ -54652,7 +54276,7 @@
       </c>
       <c r="C1655" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1655" t="inlineStr"/>
@@ -54668,7 +54292,7 @@
     <row r="1656">
       <c r="A1656" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1656" t="inlineStr">
@@ -54678,21 +54302,29 @@
       </c>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1656" t="inlineStr"/>
-      <c r="E1656" t="inlineStr"/>
+      <c r="E1656" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1656" t="inlineStr"/>
       <c r="G1656" t="inlineStr"/>
       <c r="H1656" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1657">
-      <c r="A1657" t="inlineStr"/>
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1657" t="inlineStr">
         <is>
           <t>US</t>
@@ -54700,21 +54332,17 @@
       </c>
       <c r="C1657" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1657" t="inlineStr"/>
       <c r="E1657" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1657" t="inlineStr"/>
-      <c r="G1657" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1657" t="inlineStr"/>
       <c r="H1657" t="inlineStr">
         <is>
           <t>3</t>
@@ -54722,7 +54350,11 @@
       </c>
     </row>
     <row r="1658">
-      <c r="A1658" t="inlineStr"/>
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1658" t="inlineStr">
         <is>
           <t>US</t>
@@ -54730,25 +54362,13 @@
       </c>
       <c r="C1658" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1658" t="inlineStr"/>
-      <c r="E1658" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1658" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1658" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1658" t="inlineStr"/>
+      <c r="F1658" t="inlineStr"/>
+      <c r="G1658" t="inlineStr"/>
       <c r="H1658" t="inlineStr">
         <is>
           <t>3</t>
@@ -54758,107 +54378,107 @@
     <row r="1659">
       <c r="A1659" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1659" t="inlineStr"/>
-      <c r="C1659" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t>House Price Index YoYNOV</t>
+        </is>
+      </c>
       <c r="D1659" t="inlineStr"/>
-      <c r="E1659" t="inlineStr"/>
+      <c r="E1659" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1659" t="inlineStr"/>
       <c r="G1659" t="inlineStr"/>
-      <c r="H1659" t="inlineStr"/>
+      <c r="H1659" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1660">
       <c r="A1660" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1660" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1660" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1660" t="inlineStr"/>
       <c r="E1660" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1660" t="inlineStr"/>
-      <c r="G1660" t="inlineStr">
+      <c r="G1660" t="inlineStr"/>
+      <c r="H1660" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1660" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1661">
       <c r="A1661" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1661" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1661" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1661" t="inlineStr"/>
-      <c r="E1661" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1661" t="inlineStr"/>
       <c r="F1661" t="inlineStr"/>
-      <c r="G1661" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1661" t="inlineStr"/>
       <c r="H1661" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1662">
       <c r="A1662" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1662" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1662" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1662" t="inlineStr"/>
-      <c r="E1662" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1662" t="inlineStr"/>
       <c r="F1662" t="inlineStr"/>
       <c r="G1662" t="inlineStr"/>
       <c r="H1662" t="inlineStr">
@@ -54870,29 +54490,29 @@
     <row r="1663">
       <c r="A1663" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1663" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1663" t="inlineStr"/>
       <c r="E1663" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1663" t="inlineStr"/>
       <c r="G1663" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1663" t="inlineStr">
@@ -54904,29 +54524,29 @@
     <row r="1664">
       <c r="A1664" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1664" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1664" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1664" t="inlineStr"/>
       <c r="E1664" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1664" t="inlineStr"/>
       <c r="G1664" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1664" t="inlineStr">
@@ -54938,31 +54558,27 @@
     <row r="1665">
       <c r="A1665" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1665" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1665" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1665" t="inlineStr"/>
       <c r="E1665" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1665" t="inlineStr"/>
-      <c r="G1665" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1665" t="inlineStr"/>
       <c r="H1665" t="inlineStr">
         <is>
           <t>3</t>
@@ -54972,31 +54588,27 @@
     <row r="1666">
       <c r="A1666" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1666" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1666" t="inlineStr"/>
       <c r="E1666" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1666" t="inlineStr"/>
-      <c r="G1666" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1666" t="inlineStr"/>
       <c r="H1666" t="inlineStr">
         <is>
           <t>3</t>
@@ -55006,770 +54618,84 @@
     <row r="1667">
       <c r="A1667" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1667" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1667" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1667" t="inlineStr"/>
-      <c r="E1667" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1667" t="inlineStr"/>
       <c r="F1667" t="inlineStr"/>
       <c r="G1667" t="inlineStr"/>
       <c r="H1667" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1668">
       <c r="A1668" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1668" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1668" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1668" t="inlineStr"/>
       <c r="E1668" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1668" t="inlineStr"/>
-      <c r="G1668" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1668" t="inlineStr"/>
       <c r="H1668" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1669">
       <c r="A1669" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1669" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1669" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1669" t="inlineStr"/>
       <c r="E1669" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1669" t="inlineStr"/>
       <c r="G1669" t="inlineStr"/>
       <c r="H1669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1670">
-      <c r="A1670" t="inlineStr">
-        <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1670" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1670" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
-      <c r="D1670" t="inlineStr"/>
-      <c r="E1670" t="inlineStr"/>
-      <c r="F1670" t="inlineStr"/>
-      <c r="G1670" t="inlineStr"/>
-      <c r="H1670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1671">
-      <c r="A1671" t="inlineStr">
-        <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1671" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1671" t="inlineStr">
-        <is>
-          <t>2-Year BTP Short Term Auction</t>
-        </is>
-      </c>
-      <c r="D1671" t="inlineStr"/>
-      <c r="E1671" t="inlineStr"/>
-      <c r="F1671" t="inlineStr"/>
-      <c r="G1671" t="inlineStr"/>
-      <c r="H1671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1672">
-      <c r="A1672" t="inlineStr">
-        <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1672" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1672" t="inlineStr">
-        <is>
-          <t>BTP€i Auction</t>
-        </is>
-      </c>
-      <c r="D1672" t="inlineStr"/>
-      <c r="E1672" t="inlineStr"/>
-      <c r="F1672" t="inlineStr"/>
-      <c r="G1672" t="inlineStr"/>
-      <c r="H1672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1673">
-      <c r="A1673" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1673" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1673" t="inlineStr">
-        <is>
-          <t>2-Year Schatz Auction</t>
-        </is>
-      </c>
-      <c r="D1673" t="inlineStr"/>
-      <c r="E1673" t="inlineStr">
-        <is>
-          <t>2.18%</t>
-        </is>
-      </c>
-      <c r="F1673" t="inlineStr"/>
-      <c r="G1673" t="inlineStr"/>
-      <c r="H1673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1674">
-      <c r="A1674" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1674" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1674" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1674" t="inlineStr"/>
-      <c r="E1674" t="inlineStr">
-        <is>
-          <t>-1.1%</t>
-        </is>
-      </c>
-      <c r="F1674" t="inlineStr"/>
-      <c r="G1674" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H1674" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1675">
-      <c r="A1675" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1675" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1675" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1675" t="inlineStr"/>
-      <c r="E1675" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1675" t="inlineStr"/>
-      <c r="G1675" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1675" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1676">
-      <c r="A1676" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1676" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1676" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1676" t="inlineStr"/>
-      <c r="E1676" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1676" t="inlineStr"/>
-      <c r="G1676" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H1676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1677">
-      <c r="A1677" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1677" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1677" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
-        </is>
-      </c>
-      <c r="D1677" t="inlineStr"/>
-      <c r="E1677" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="F1677" t="inlineStr"/>
-      <c r="G1677" t="inlineStr"/>
-      <c r="H1677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1678">
-      <c r="A1678" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B1678" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1678" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/25</t>
-        </is>
-      </c>
-      <c r="D1678" t="inlineStr"/>
-      <c r="E1678" t="inlineStr"/>
-      <c r="F1678" t="inlineStr"/>
-      <c r="G1678" t="inlineStr"/>
-      <c r="H1678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1679">
-      <c r="A1679" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1679" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1679" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1679" t="inlineStr"/>
-      <c r="E1679" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1679" t="inlineStr"/>
-      <c r="G1679" t="inlineStr"/>
-      <c r="H1679" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1680">
-      <c r="A1680" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1680" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1680" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
-      <c r="D1680" t="inlineStr"/>
-      <c r="E1680" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
-      <c r="F1680" t="inlineStr"/>
-      <c r="G1680" t="inlineStr"/>
-      <c r="H1680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1681">
-      <c r="A1681" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1681" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1681" t="inlineStr">
-        <is>
-          <t>House Price Index MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1681" t="inlineStr"/>
-      <c r="E1681" t="inlineStr"/>
-      <c r="F1681" t="inlineStr"/>
-      <c r="G1681" t="inlineStr"/>
-      <c r="H1681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1682">
-      <c r="A1682" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1682" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1682" t="inlineStr">
-        <is>
-          <t>House Price Index YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1682" t="inlineStr"/>
-      <c r="E1682" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1682" t="inlineStr"/>
-      <c r="G1682" t="inlineStr"/>
-      <c r="H1682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1683">
-      <c r="A1683" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1683" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1683" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1683" t="inlineStr"/>
-      <c r="E1683" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1683" t="inlineStr"/>
-      <c r="G1683" t="inlineStr"/>
-      <c r="H1683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1684">
-      <c r="A1684" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1684" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1684" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1684" t="inlineStr"/>
-      <c r="E1684" t="inlineStr"/>
-      <c r="F1684" t="inlineStr"/>
-      <c r="G1684" t="inlineStr"/>
-      <c r="H1684" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1685">
-      <c r="A1685" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1685" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1685" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1685" t="inlineStr"/>
-      <c r="E1685" t="inlineStr"/>
-      <c r="F1685" t="inlineStr"/>
-      <c r="G1685" t="inlineStr"/>
-      <c r="H1685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1686">
-      <c r="A1686" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1686" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1686" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1686" t="inlineStr"/>
-      <c r="E1686" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F1686" t="inlineStr"/>
-      <c r="G1686" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="H1686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1687">
-      <c r="A1687" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1687" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1687" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1687" t="inlineStr"/>
-      <c r="E1687" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="F1687" t="inlineStr"/>
-      <c r="G1687" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H1687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1688">
-      <c r="A1688" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1688" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1688" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1688" t="inlineStr"/>
-      <c r="E1688" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="F1688" t="inlineStr"/>
-      <c r="G1688" t="inlineStr"/>
-      <c r="H1688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1689">
-      <c r="A1689" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1689" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1689" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1689" t="inlineStr"/>
-      <c r="E1689" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
-      <c r="F1689" t="inlineStr"/>
-      <c r="G1689" t="inlineStr"/>
-      <c r="H1689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1690">
-      <c r="A1690" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1690" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1690" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="D1690" t="inlineStr"/>
-      <c r="E1690" t="inlineStr"/>
-      <c r="F1690" t="inlineStr"/>
-      <c r="G1690" t="inlineStr"/>
-      <c r="H1690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1691">
-      <c r="A1691" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1691" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1691" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1691" t="inlineStr"/>
-      <c r="E1691" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
-      <c r="F1691" t="inlineStr"/>
-      <c r="G1691" t="inlineStr"/>
-      <c r="H1691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1692">
-      <c r="A1692" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1692" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1692" t="inlineStr">
-        <is>
-          <t>Money SupplyDEC</t>
-        </is>
-      </c>
-      <c r="D1692" t="inlineStr"/>
-      <c r="E1692" t="inlineStr">
-        <is>
-          <t>$21.45T</t>
-        </is>
-      </c>
-      <c r="F1692" t="inlineStr"/>
-      <c r="G1692" t="inlineStr"/>
-      <c r="H1692" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1669"/>
+  <dimension ref="A1:H1646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51385,10 +51385,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1565">
@@ -51423,10 +51421,8 @@
           <t>42.2</t>
         </is>
       </c>
-      <c r="H1565" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1565" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1566">
@@ -51461,10 +51457,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H1566" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1566" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1567">
@@ -51495,10 +51489,8 @@
           <t>48</t>
         </is>
       </c>
-      <c r="H1567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1568">
@@ -51533,10 +51525,8 @@
           <t>42.3</t>
         </is>
       </c>
-      <c r="H1568" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1568" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1569">
@@ -51567,10 +51557,8 @@
           <t>47.8</t>
         </is>
       </c>
-      <c r="H1569" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1569" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1570">
@@ -51605,10 +51593,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1570" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1570" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1571">
@@ -51639,10 +51625,8 @@
           <t>49.4</t>
         </is>
       </c>
-      <c r="H1571" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1571" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1572">
@@ -51677,10 +51661,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1572" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1572" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1573">
@@ -51715,10 +51697,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H1573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1573" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1574">
@@ -51753,10 +51733,8 @@
           <t>47.2</t>
         </is>
       </c>
-      <c r="H1574" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1574" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1575">
@@ -51791,10 +51769,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1575" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1575" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1576">
@@ -51825,10 +51801,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H1576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1577">
@@ -51851,10 +51825,8 @@
       <c r="E1577" t="inlineStr"/>
       <c r="F1577" t="inlineStr"/>
       <c r="G1577" t="inlineStr"/>
-      <c r="H1577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1577" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1578">
@@ -51885,10 +51857,8 @@
           <t>91.4</t>
         </is>
       </c>
-      <c r="H1578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1578" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1579">
@@ -51911,10 +51881,8 @@
       <c r="E1579" t="inlineStr"/>
       <c r="F1579" t="inlineStr"/>
       <c r="G1579" t="inlineStr"/>
-      <c r="H1579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1579" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1580">
@@ -51949,10 +51917,8 @@
           <t>-11</t>
         </is>
       </c>
-      <c r="H1580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1581">
@@ -51979,10 +51945,8 @@
       </c>
       <c r="F1581" t="inlineStr"/>
       <c r="G1581" t="inlineStr"/>
-      <c r="H1581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1582">
@@ -52013,10 +51977,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H1582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1583">
@@ -52047,10 +52009,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1584">
@@ -52081,10 +52041,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1584" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1585">
@@ -52119,10 +52077,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1586">
@@ -52153,10 +52109,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1586" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1586" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1587">
@@ -52187,10 +52141,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1587" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1588">
@@ -52221,10 +52173,8 @@
           <t>55.3</t>
         </is>
       </c>
-      <c r="H1588" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1588" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1589">
@@ -52255,10 +52205,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H1589" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1589" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1590">
@@ -52289,10 +52237,8 @@
           <t>56.6</t>
         </is>
       </c>
-      <c r="H1590" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1590" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1591">
@@ -52327,10 +52273,8 @@
           <t>4.1M</t>
         </is>
       </c>
-      <c r="H1591" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1591" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1592">
@@ -52361,10 +52305,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1592" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1592" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1593">
@@ -52399,10 +52341,8 @@
           <t>73.2</t>
         </is>
       </c>
-      <c r="H1593" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1593" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1594">
@@ -52437,10 +52377,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1595">
@@ -52475,10 +52413,8 @@
           <t>70.2</t>
         </is>
       </c>
-      <c r="H1595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1595" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1596">
@@ -52513,10 +52449,8 @@
           <t>77.9</t>
         </is>
       </c>
-      <c r="H1596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1596" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1597">
@@ -52551,10 +52485,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1597" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1598">
@@ -52585,10 +52517,8 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="H1598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1598" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1599">
@@ -52619,10 +52549,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1600">
@@ -52649,10 +52577,8 @@
       </c>
       <c r="F1600" t="inlineStr"/>
       <c r="G1600" t="inlineStr"/>
-      <c r="H1600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1601">
@@ -52679,54 +52605,56 @@
       </c>
       <c r="F1601" t="inlineStr"/>
       <c r="G1601" t="inlineStr"/>
-      <c r="H1601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1602" t="inlineStr"/>
-      <c r="C1602" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1602" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1602" t="inlineStr"/>
       <c r="E1602" t="inlineStr"/>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr"/>
-      <c r="H1602" t="inlineStr"/>
+      <c r="H1602" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
-      <c r="E1603" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1603" t="inlineStr"/>
       <c r="F1603" t="inlineStr"/>
-      <c r="G1603" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1603" t="inlineStr"/>
       <c r="H1603" t="inlineStr">
         <is>
           <t>3</t>
@@ -52736,107 +52664,103 @@
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
-      <c r="E1604" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1604" t="inlineStr"/>
       <c r="F1604" t="inlineStr"/>
       <c r="G1604" t="inlineStr"/>
       <c r="H1604" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
-      <c r="E1605" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1605" t="inlineStr"/>
       <c r="F1605" t="inlineStr"/>
-      <c r="G1605" t="inlineStr"/>
+      <c r="G1605" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1605" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr"/>
       <c r="G1606" t="inlineStr"/>
       <c r="H1606" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
@@ -52852,17 +52776,17 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
@@ -52878,55 +52802,47 @@
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
-      <c r="E1609" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1609" t="inlineStr"/>
       <c r="F1609" t="inlineStr"/>
       <c r="G1609" t="inlineStr"/>
       <c r="H1609" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
-      <c r="E1610" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1610" t="inlineStr"/>
       <c r="F1610" t="inlineStr"/>
       <c r="G1610" t="inlineStr"/>
       <c r="H1610" t="inlineStr">
@@ -52936,59 +52852,63 @@
       </c>
     </row>
     <row r="1611">
-      <c r="A1611" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1611" t="inlineStr"/>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr"/>
-      <c r="G1611" t="inlineStr"/>
+      <c r="G1611" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1611" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1612">
-      <c r="A1612" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1612" t="inlineStr"/>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>85.1</t>
-        </is>
-      </c>
-      <c r="F1612" t="inlineStr"/>
-      <c r="G1612" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1612" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1612" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1612" t="inlineStr">
         <is>
           <t>3</t>
@@ -52998,121 +52918,109 @@
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1613" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1613" t="inlineStr">
-        <is>
-          <t>Ifo ExpectationsJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1613" t="inlineStr"/>
+      <c r="C1613" t="inlineStr"/>
       <c r="D1613" t="inlineStr"/>
-      <c r="E1613" t="inlineStr">
-        <is>
-          <t>84.4</t>
-        </is>
-      </c>
+      <c r="E1613" t="inlineStr"/>
       <c r="F1613" t="inlineStr"/>
       <c r="G1613" t="inlineStr"/>
-      <c r="H1613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1613" t="inlineStr"/>
     </row>
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
-      <c r="E1614" t="inlineStr"/>
+      <c r="E1614" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1614" t="inlineStr"/>
-      <c r="G1614" t="inlineStr"/>
+      <c r="G1614" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr"/>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr"/>
-      <c r="G1616" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1616" t="inlineStr"/>
       <c r="H1616" t="inlineStr">
         <is>
           <t>3</t>
@@ -53122,29 +53030,29 @@
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr"/>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
@@ -53156,27 +53064,31 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1618" t="inlineStr"/>
-      <c r="G1618" t="inlineStr"/>
+      <c r="G1618" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1618" t="inlineStr">
         <is>
           <t>3</t>
@@ -53186,27 +53098,31 @@
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1619" t="inlineStr"/>
-      <c r="G1619" t="inlineStr"/>
+      <c r="G1619" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1619" t="inlineStr">
         <is>
           <t>3</t>
@@ -53216,97 +53132,93 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1620" t="inlineStr"/>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1620" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr"/>
-      <c r="G1621" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1621" t="inlineStr"/>
       <c r="H1621" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr"/>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
@@ -53318,31 +53230,27 @@
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
-      <c r="G1623" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1623" t="inlineStr"/>
       <c r="H1623" t="inlineStr">
         <is>
           <t>3</t>
@@ -53352,17 +53260,17 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
@@ -53378,17 +53286,17 @@
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
@@ -53404,17 +53312,17 @@
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
@@ -53430,33 +53338,37 @@
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
-      <c r="E1627" t="inlineStr"/>
+      <c r="E1627" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1627" t="inlineStr"/>
       <c r="G1627" t="inlineStr"/>
       <c r="H1627" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
@@ -53466,27 +53378,31 @@
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr"/>
+      <c r="E1628" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1628" t="inlineStr"/>
       <c r="G1628" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1628" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
@@ -53496,17 +53412,21 @@
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1629" t="inlineStr"/>
-      <c r="G1629" t="inlineStr"/>
+      <c r="G1629" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1629" t="inlineStr">
         <is>
           <t>2</t>
@@ -53516,7 +53436,7 @@
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
@@ -53526,13 +53446,21 @@
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
-      <c r="E1630" t="inlineStr"/>
+      <c r="E1630" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1630" t="inlineStr"/>
-      <c r="G1630" t="inlineStr"/>
+      <c r="G1630" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1630" t="inlineStr">
         <is>
           <t>3</t>
@@ -53542,7 +53470,7 @@
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
@@ -53552,11 +53480,15 @@
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
-      <c r="E1631" t="inlineStr"/>
+      <c r="E1631" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1631" t="inlineStr"/>
       <c r="G1631" t="inlineStr"/>
       <c r="H1631" t="inlineStr">
@@ -53568,7 +53500,7 @@
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
@@ -53578,7 +53510,7 @@
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
@@ -53594,7 +53526,7 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
@@ -53604,21 +53536,29 @@
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
-      <c r="E1633" t="inlineStr"/>
+      <c r="E1633" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1633" t="inlineStr"/>
       <c r="G1633" t="inlineStr"/>
       <c r="H1633" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1634">
-      <c r="A1634" t="inlineStr"/>
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1634" t="inlineStr">
         <is>
           <t>US</t>
@@ -53626,21 +53566,17 @@
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
       <c r="E1634" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1634" t="inlineStr"/>
-      <c r="G1634" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1634" t="inlineStr"/>
       <c r="H1634" t="inlineStr">
         <is>
           <t>3</t>
@@ -53648,7 +53584,11 @@
       </c>
     </row>
     <row r="1635">
-      <c r="A1635" t="inlineStr"/>
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1635" t="inlineStr">
         <is>
           <t>US</t>
@@ -53656,25 +53596,13 @@
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
-      <c r="E1635" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1635" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1635" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1635" t="inlineStr"/>
+      <c r="F1635" t="inlineStr"/>
+      <c r="G1635" t="inlineStr"/>
       <c r="H1635" t="inlineStr">
         <is>
           <t>3</t>
@@ -53684,107 +53612,107 @@
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1636" t="inlineStr"/>
-      <c r="C1636" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1636" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1636" t="inlineStr">
+        <is>
+          <t>House Price Index YoYNOV</t>
+        </is>
+      </c>
       <c r="D1636" t="inlineStr"/>
-      <c r="E1636" t="inlineStr"/>
+      <c r="E1636" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1636" t="inlineStr"/>
       <c r="G1636" t="inlineStr"/>
-      <c r="H1636" t="inlineStr"/>
+      <c r="H1636" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1637">
       <c r="A1637" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1637" t="inlineStr"/>
-      <c r="G1637" t="inlineStr">
+      <c r="G1637" t="inlineStr"/>
+      <c r="H1637" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1637" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1638" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1638" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1638" t="inlineStr"/>
-      <c r="E1638" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1638" t="inlineStr"/>
       <c r="F1638" t="inlineStr"/>
-      <c r="G1638" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1638" t="inlineStr"/>
       <c r="H1638" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr"/>
-      <c r="E1639" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1639" t="inlineStr"/>
       <c r="F1639" t="inlineStr"/>
       <c r="G1639" t="inlineStr"/>
       <c r="H1639" t="inlineStr">
@@ -53796,29 +53724,29 @@
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1640" t="inlineStr"/>
       <c r="G1640" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1640" t="inlineStr">
@@ -53830,29 +53758,29 @@
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1641" t="inlineStr"/>
       <c r="G1641" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1641" t="inlineStr">
@@ -53864,31 +53792,27 @@
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1642" t="inlineStr"/>
-      <c r="G1642" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1642" t="inlineStr"/>
       <c r="H1642" t="inlineStr">
         <is>
           <t>3</t>
@@ -53898,31 +53822,27 @@
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1643" t="inlineStr"/>
-      <c r="G1643" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1643" t="inlineStr"/>
       <c r="H1643" t="inlineStr">
         <is>
           <t>3</t>
@@ -53932,770 +53852,84 @@
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
-      <c r="E1644" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1644" t="inlineStr"/>
       <c r="F1644" t="inlineStr"/>
       <c r="G1644" t="inlineStr"/>
       <c r="H1644" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1645" t="inlineStr"/>
-      <c r="G1645" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1645" t="inlineStr"/>
       <c r="H1645" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr"/>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1646" t="inlineStr"/>
       <c r="G1646" t="inlineStr"/>
       <c r="H1646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1647">
-      <c r="A1647" t="inlineStr">
-        <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1647" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1647" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
-      <c r="D1647" t="inlineStr"/>
-      <c r="E1647" t="inlineStr"/>
-      <c r="F1647" t="inlineStr"/>
-      <c r="G1647" t="inlineStr"/>
-      <c r="H1647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1648">
-      <c r="A1648" t="inlineStr">
-        <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1648" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1648" t="inlineStr">
-        <is>
-          <t>2-Year BTP Short Term Auction</t>
-        </is>
-      </c>
-      <c r="D1648" t="inlineStr"/>
-      <c r="E1648" t="inlineStr"/>
-      <c r="F1648" t="inlineStr"/>
-      <c r="G1648" t="inlineStr"/>
-      <c r="H1648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1649">
-      <c r="A1649" t="inlineStr">
-        <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1649" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1649" t="inlineStr">
-        <is>
-          <t>BTP€i Auction</t>
-        </is>
-      </c>
-      <c r="D1649" t="inlineStr"/>
-      <c r="E1649" t="inlineStr"/>
-      <c r="F1649" t="inlineStr"/>
-      <c r="G1649" t="inlineStr"/>
-      <c r="H1649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1650">
-      <c r="A1650" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1650" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1650" t="inlineStr">
-        <is>
-          <t>2-Year Schatz Auction</t>
-        </is>
-      </c>
-      <c r="D1650" t="inlineStr"/>
-      <c r="E1650" t="inlineStr">
-        <is>
-          <t>2.18%</t>
-        </is>
-      </c>
-      <c r="F1650" t="inlineStr"/>
-      <c r="G1650" t="inlineStr"/>
-      <c r="H1650" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1651">
-      <c r="A1651" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1651" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1651" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1651" t="inlineStr"/>
-      <c r="E1651" t="inlineStr">
-        <is>
-          <t>-1.1%</t>
-        </is>
-      </c>
-      <c r="F1651" t="inlineStr"/>
-      <c r="G1651" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H1651" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1652">
-      <c r="A1652" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1652" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1652" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1652" t="inlineStr"/>
-      <c r="E1652" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1652" t="inlineStr"/>
-      <c r="G1652" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1652" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1653">
-      <c r="A1653" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1653" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1653" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1653" t="inlineStr"/>
-      <c r="E1653" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1653" t="inlineStr"/>
-      <c r="G1653" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H1653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1654">
-      <c r="A1654" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1654" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1654" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
-        </is>
-      </c>
-      <c r="D1654" t="inlineStr"/>
-      <c r="E1654" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="F1654" t="inlineStr"/>
-      <c r="G1654" t="inlineStr"/>
-      <c r="H1654" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1655">
-      <c r="A1655" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B1655" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1655" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/25</t>
-        </is>
-      </c>
-      <c r="D1655" t="inlineStr"/>
-      <c r="E1655" t="inlineStr"/>
-      <c r="F1655" t="inlineStr"/>
-      <c r="G1655" t="inlineStr"/>
-      <c r="H1655" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1656">
-      <c r="A1656" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1656" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1656" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1656" t="inlineStr"/>
-      <c r="E1656" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1656" t="inlineStr"/>
-      <c r="G1656" t="inlineStr"/>
-      <c r="H1656" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1657">
-      <c r="A1657" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1657" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1657" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
-      <c r="D1657" t="inlineStr"/>
-      <c r="E1657" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
-      <c r="F1657" t="inlineStr"/>
-      <c r="G1657" t="inlineStr"/>
-      <c r="H1657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1658">
-      <c r="A1658" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1658" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1658" t="inlineStr">
-        <is>
-          <t>House Price Index MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1658" t="inlineStr"/>
-      <c r="E1658" t="inlineStr"/>
-      <c r="F1658" t="inlineStr"/>
-      <c r="G1658" t="inlineStr"/>
-      <c r="H1658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1659">
-      <c r="A1659" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1659" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1659" t="inlineStr">
-        <is>
-          <t>House Price Index YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1659" t="inlineStr"/>
-      <c r="E1659" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1659" t="inlineStr"/>
-      <c r="G1659" t="inlineStr"/>
-      <c r="H1659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1660">
-      <c r="A1660" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1660" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1660" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1660" t="inlineStr"/>
-      <c r="E1660" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1660" t="inlineStr"/>
-      <c r="G1660" t="inlineStr"/>
-      <c r="H1660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1661">
-      <c r="A1661" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1661" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1661" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1661" t="inlineStr"/>
-      <c r="E1661" t="inlineStr"/>
-      <c r="F1661" t="inlineStr"/>
-      <c r="G1661" t="inlineStr"/>
-      <c r="H1661" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1662">
-      <c r="A1662" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1662" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1662" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1662" t="inlineStr"/>
-      <c r="E1662" t="inlineStr"/>
-      <c r="F1662" t="inlineStr"/>
-      <c r="G1662" t="inlineStr"/>
-      <c r="H1662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1663">
-      <c r="A1663" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1663" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1663" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1663" t="inlineStr"/>
-      <c r="E1663" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F1663" t="inlineStr"/>
-      <c r="G1663" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="H1663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1664">
-      <c r="A1664" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1664" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1664" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1664" t="inlineStr"/>
-      <c r="E1664" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="F1664" t="inlineStr"/>
-      <c r="G1664" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H1664" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1665">
-      <c r="A1665" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1665" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1665" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1665" t="inlineStr"/>
-      <c r="E1665" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="F1665" t="inlineStr"/>
-      <c r="G1665" t="inlineStr"/>
-      <c r="H1665" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1666">
-      <c r="A1666" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1666" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1666" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1666" t="inlineStr"/>
-      <c r="E1666" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
-      <c r="F1666" t="inlineStr"/>
-      <c r="G1666" t="inlineStr"/>
-      <c r="H1666" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1667">
-      <c r="A1667" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1667" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1667" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="D1667" t="inlineStr"/>
-      <c r="E1667" t="inlineStr"/>
-      <c r="F1667" t="inlineStr"/>
-      <c r="G1667" t="inlineStr"/>
-      <c r="H1667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1668">
-      <c r="A1668" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1668" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1668" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1668" t="inlineStr"/>
-      <c r="E1668" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
-      <c r="F1668" t="inlineStr"/>
-      <c r="G1668" t="inlineStr"/>
-      <c r="H1668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1669">
-      <c r="A1669" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1669" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1669" t="inlineStr">
-        <is>
-          <t>Money SupplyDEC</t>
-        </is>
-      </c>
-      <c r="D1669" t="inlineStr"/>
-      <c r="E1669" t="inlineStr">
-        <is>
-          <t>$21.45T</t>
-        </is>
-      </c>
-      <c r="F1669" t="inlineStr"/>
-      <c r="G1669" t="inlineStr"/>
-      <c r="H1669" t="inlineStr">
         <is>
           <t>3</t>
         </is>
